--- a/data/score_total.xlsx
+++ b/data/score_total.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED97F6-722C-234F-BE32-289E54D863BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB9652-D8E1-47F3-A2A2-55B332756F57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2133,17 +2126,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2432,18 +2415,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="21" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="43" width="5.83203125" customWidth="1"/>
+    <col min="21" max="21" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="43" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="68">
+    <row r="1" spans="1:43" ht="63">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2557,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2707,7 +2690,7 @@
         <v>-0.94230769230769196</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:43" ht="15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2840,7 +2823,7 @@
         <v>0.40384615384615413</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:43" ht="15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2973,7 +2956,7 @@
         <v>-0.1730769230769228</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:43" ht="15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3106,7 +3089,7 @@
         <v>-1.9038461538461535</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:43" ht="15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3239,7 +3222,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:43" ht="15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3372,7 +3355,7 @@
         <v>0.40384615384615413</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:43" ht="15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3505,7 +3488,7 @@
         <v>-0.74999999999999967</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:43" ht="15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3638,7 +3621,7 @@
         <v>0.98076923076923106</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:43" ht="15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3771,7 +3754,7 @@
         <v>-0.74999999999999967</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:43" ht="15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3904,7 +3887,7 @@
         <v>-3.2499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:43" ht="15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4037,7 +4020,7 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:43" ht="15">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4170,7 +4153,7 @@
         <v>0.40384615384615413</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:43" ht="15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4303,7 +4286,7 @@
         <v>-0.94230769230769196</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:43" ht="15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -4436,7 +4419,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:43" ht="15">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4569,7 +4552,7 @@
         <v>-3.4423076923076921</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" ht="15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4702,7 +4685,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" ht="15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4835,7 +4818,7 @@
         <v>-0.36538461538461509</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" ht="15">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -4968,7 +4951,7 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" ht="15">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5101,7 +5084,7 @@
         <v>-0.74999999999999967</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" ht="15">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5234,7 +5217,7 @@
         <v>-0.55769230769230738</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" ht="15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5367,7 +5350,7 @@
         <v>-0.1730769230769228</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" ht="15">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5500,7 +5483,7 @@
         <v>-0.36538461538461509</v>
       </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:43" ht="15">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -5633,7 +5616,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" ht="15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -5766,7 +5749,7 @@
         <v>-1.3269230769230766</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" ht="15">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -5899,7 +5882,7 @@
         <v>-0.1730769230769228</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" ht="15">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6032,7 +6015,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" ht="15">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6165,7 +6148,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" ht="15">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -6298,7 +6281,7 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" ht="15">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -6431,7 +6414,7 @@
         <v>-1.1346153846153844</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" ht="15">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -6564,7 +6547,7 @@
         <v>-0.74999999999999967</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" ht="15">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -6697,7 +6680,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:43" ht="15">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -6830,7 +6813,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:43" ht="15">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -6963,7 +6946,7 @@
         <v>0.59615384615384637</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:43" ht="15">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -7096,7 +7079,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:43" ht="15">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -7229,7 +7212,7 @@
         <v>0.21153846153846181</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:43" ht="15">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -7362,7 +7345,7 @@
         <v>-0.94230769230769196</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:43" ht="15">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -7495,7 +7478,7 @@
         <v>-0.1730769230769228</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:43" ht="15">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -7628,7 +7611,7 @@
         <v>0.21153846153846181</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:43" ht="15">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -7761,7 +7744,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:43" ht="15">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -7894,7 +7877,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:43" ht="15">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -8027,7 +8010,7 @@
         <v>0.59615384615384637</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:43" ht="15">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -8160,7 +8143,7 @@
         <v>-0.55769230769230738</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:43" ht="15">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -8293,7 +8276,7 @@
         <v>-0.55769230769230738</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:43" ht="15">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -8426,7 +8409,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:43" ht="15">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -8559,7 +8542,7 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:43" ht="15">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -8692,7 +8675,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:43" ht="15">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -8825,7 +8808,7 @@
         <v>-0.1730769230769228</v>
       </c>
     </row>
-    <row r="49" spans="1:43">
+    <row r="49" spans="1:43" ht="15">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -8958,7 +8941,7 @@
         <v>0.98076923076923106</v>
       </c>
     </row>
-    <row r="50" spans="1:43">
+    <row r="50" spans="1:43" ht="15">
       <c r="A50" s="72">
         <v>2</v>
       </c>
@@ -9091,7 +9074,7 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:43">
+    <row r="51" spans="1:43" ht="15">
       <c r="A51" s="72">
         <v>2</v>
       </c>
@@ -9224,7 +9207,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="52" spans="1:43">
+    <row r="52" spans="1:43" ht="15">
       <c r="A52" s="72">
         <v>2</v>
       </c>
@@ -9357,7 +9340,7 @@
         <v>-2.2884615384615383</v>
       </c>
     </row>
-    <row r="53" spans="1:43">
+    <row r="53" spans="1:43" ht="15">
       <c r="A53" s="72">
         <v>2</v>
       </c>
@@ -9490,7 +9473,7 @@
         <v>-1.7115384615384612</v>
       </c>
     </row>
-    <row r="54" spans="1:43">
+    <row r="54" spans="1:43" ht="15">
       <c r="A54" s="72">
         <v>2</v>
       </c>
@@ -9623,7 +9606,7 @@
         <v>-0.55769230769230738</v>
       </c>
     </row>
-    <row r="55" spans="1:43">
+    <row r="55" spans="1:43" ht="15">
       <c r="A55" s="72">
         <v>2</v>
       </c>
@@ -9756,7 +9739,7 @@
         <v>-2.865384615384615</v>
       </c>
     </row>
-    <row r="56" spans="1:43">
+    <row r="56" spans="1:43" ht="15">
       <c r="A56" s="72">
         <v>2</v>
       </c>
@@ -9889,7 +9872,7 @@
         <v>0.21153846153846181</v>
       </c>
     </row>
-    <row r="57" spans="1:43">
+    <row r="57" spans="1:43" ht="15">
       <c r="A57" s="72">
         <v>2</v>
       </c>
@@ -10022,7 +10005,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="58" spans="1:43">
+    <row r="58" spans="1:43" ht="15">
       <c r="A58" s="72">
         <v>2</v>
       </c>
@@ -10155,7 +10138,7 @@
         <v>0.98076923076923106</v>
       </c>
     </row>
-    <row r="59" spans="1:43">
+    <row r="59" spans="1:43" ht="15">
       <c r="A59" s="72">
         <v>2</v>
       </c>
@@ -10288,7 +10271,7 @@
         <v>0.98076923076923106</v>
       </c>
     </row>
-    <row r="60" spans="1:43">
+    <row r="60" spans="1:43" ht="15">
       <c r="A60" s="72">
         <v>2</v>
       </c>
@@ -10421,7 +10404,7 @@
         <v>0.40384615384615413</v>
       </c>
     </row>
-    <row r="61" spans="1:43">
+    <row r="61" spans="1:43" ht="15">
       <c r="A61" s="72">
         <v>2</v>
       </c>
@@ -10510,7 +10493,7 @@
       <c r="AP61" s="93"/>
       <c r="AQ61" s="93"/>
     </row>
-    <row r="62" spans="1:43">
+    <row r="62" spans="1:43" ht="15">
       <c r="A62" s="72">
         <v>2</v>
       </c>
@@ -10643,7 +10626,7 @@
         <v>-0.94230769230769196</v>
       </c>
     </row>
-    <row r="63" spans="1:43">
+    <row r="63" spans="1:43" ht="15">
       <c r="A63" s="72">
         <v>2</v>
       </c>
@@ -10776,7 +10759,7 @@
         <v>-0.74999999999999967</v>
       </c>
     </row>
-    <row r="64" spans="1:43">
+    <row r="64" spans="1:43" ht="15">
       <c r="A64" s="72">
         <v>2</v>
       </c>
@@ -10909,7 +10892,7 @@
         <v>0.59615384615384637</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" ht="15">
       <c r="A65" s="72">
         <v>2</v>
       </c>
@@ -11042,7 +11025,7 @@
         <v>-2.4807692307692304</v>
       </c>
     </row>
-    <row r="66" spans="1:43">
+    <row r="66" spans="1:43" ht="15">
       <c r="A66" s="72">
         <v>2</v>
       </c>
@@ -11175,7 +11158,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" ht="15">
       <c r="A67" s="72">
         <v>2</v>
       </c>
@@ -11264,7 +11247,7 @@
       <c r="AP67" s="93"/>
       <c r="AQ67" s="93"/>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" ht="15">
       <c r="A68" s="72">
         <v>2</v>
       </c>
@@ -11397,7 +11380,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" ht="15">
       <c r="A69" s="72">
         <v>2</v>
       </c>
@@ -11530,7 +11513,7 @@
         <v>-3.4423076923076921</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" ht="15">
       <c r="A70" s="72">
         <v>2</v>
       </c>
@@ -11663,7 +11646,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" ht="15">
       <c r="A71" s="72">
         <v>2</v>
       </c>
@@ -11796,7 +11779,7 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:43" ht="16">
+    <row r="72" spans="1:43" ht="15">
       <c r="A72" s="72">
         <v>2</v>
       </c>
@@ -11929,7 +11912,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="73" spans="1:43" ht="16">
+    <row r="73" spans="1:43" ht="15">
       <c r="A73" s="72">
         <v>2</v>
       </c>
@@ -12062,7 +12045,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="74" spans="1:43" ht="16">
+    <row r="74" spans="1:43" ht="15">
       <c r="A74" s="72">
         <v>2</v>
       </c>
@@ -12151,7 +12134,7 @@
       <c r="AP74" s="93"/>
       <c r="AQ74" s="93"/>
     </row>
-    <row r="75" spans="1:43" ht="16">
+    <row r="75" spans="1:43" ht="15">
       <c r="A75" s="72">
         <v>2</v>
       </c>
@@ -12284,7 +12267,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="76" spans="1:43" ht="16">
+    <row r="76" spans="1:43" ht="15">
       <c r="A76" s="72">
         <v>2</v>
       </c>
@@ -12417,7 +12400,7 @@
         <v>-1.3269230769230766</v>
       </c>
     </row>
-    <row r="77" spans="1:43" ht="16">
+    <row r="77" spans="1:43" ht="15">
       <c r="A77" s="72">
         <v>2</v>
       </c>
@@ -12550,7 +12533,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="78" spans="1:43" ht="16">
+    <row r="78" spans="1:43" ht="15">
       <c r="A78" s="72">
         <v>2</v>
       </c>
@@ -12683,7 +12666,7 @@
         <v>-1.3269230769230766</v>
       </c>
     </row>
-    <row r="79" spans="1:43" ht="16">
+    <row r="79" spans="1:43" ht="15">
       <c r="A79" s="72">
         <v>2</v>
       </c>
@@ -12816,7 +12799,7 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:43" ht="16">
+    <row r="80" spans="1:43" ht="15">
       <c r="A80" s="72">
         <v>2</v>
       </c>
@@ -12949,7 +12932,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="81" spans="1:43" ht="16">
+    <row r="81" spans="1:43" ht="15">
       <c r="A81" s="72">
         <v>2</v>
       </c>
@@ -13082,7 +13065,7 @@
         <v>-1.1346153846153844</v>
       </c>
     </row>
-    <row r="82" spans="1:43" ht="16">
+    <row r="82" spans="1:43" ht="15">
       <c r="A82" s="72">
         <v>2</v>
       </c>
@@ -13215,7 +13198,7 @@
         <v>-1.5192307692307689</v>
       </c>
     </row>
-    <row r="83" spans="1:43" ht="16">
+    <row r="83" spans="1:43" ht="15">
       <c r="A83" s="72">
         <v>2</v>
       </c>
@@ -13348,7 +13331,7 @@
         <v>-1.1346153846153844</v>
       </c>
     </row>
-    <row r="84" spans="1:43" ht="16">
+    <row r="84" spans="1:43" ht="15">
       <c r="A84" s="72">
         <v>2</v>
       </c>
@@ -13481,7 +13464,7 @@
         <v>0.98076923076923106</v>
       </c>
     </row>
-    <row r="85" spans="1:43" ht="16">
+    <row r="85" spans="1:43" ht="15">
       <c r="A85" s="72">
         <v>2</v>
       </c>
@@ -13614,7 +13597,7 @@
         <v>-1.1346153846153844</v>
       </c>
     </row>
-    <row r="86" spans="1:43" ht="16">
+    <row r="86" spans="1:43" ht="15">
       <c r="A86" s="72">
         <v>2</v>
       </c>
@@ -13747,7 +13730,7 @@
         <v>0.98076923076923106</v>
       </c>
     </row>
-    <row r="87" spans="1:43" ht="16">
+    <row r="87" spans="1:43" ht="15">
       <c r="A87" s="72">
         <v>2</v>
       </c>
@@ -13880,7 +13863,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="88" spans="1:43" ht="16">
+    <row r="88" spans="1:43" ht="15">
       <c r="A88" s="72">
         <v>2</v>
       </c>
@@ -14013,7 +13996,7 @@
         <v>2.3269230769230771</v>
       </c>
     </row>
-    <row r="89" spans="1:43" ht="16">
+    <row r="89" spans="1:43" ht="15">
       <c r="A89" s="72">
         <v>2</v>
       </c>
@@ -14146,12 +14129,12 @@
         <v>2.3269230769230771</v>
       </c>
     </row>
-    <row r="90" spans="1:43">
+    <row r="90" spans="1:43" ht="15">
       <c r="A90" s="72">
         <v>2</v>
       </c>
       <c r="B90" s="73">
-        <v>49</v>
+        <v>2401</v>
       </c>
       <c r="C90" s="73" t="s">
         <v>249</v>
@@ -14235,12 +14218,12 @@
       <c r="AP90" s="93"/>
       <c r="AQ90" s="93"/>
     </row>
-    <row r="91" spans="1:43">
+    <row r="91" spans="1:43" ht="15">
       <c r="A91" s="72">
         <v>2</v>
       </c>
       <c r="B91" s="73">
-        <v>50</v>
+        <v>2403</v>
       </c>
       <c r="C91" s="73" t="s">
         <v>247</v>
@@ -14368,12 +14351,12 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:43">
+    <row r="92" spans="1:43" ht="15">
       <c r="A92" s="72">
         <v>2</v>
       </c>
       <c r="B92" s="73">
-        <v>51</v>
+        <v>2404</v>
       </c>
       <c r="C92" s="73" t="s">
         <v>248</v>
@@ -14501,12 +14484,12 @@
         <v>-0.36538461538461509</v>
       </c>
     </row>
-    <row r="93" spans="1:43">
+    <row r="93" spans="1:43" ht="15">
       <c r="A93" s="72">
         <v>2</v>
       </c>
       <c r="B93" s="73">
-        <v>52</v>
+        <v>2405</v>
       </c>
       <c r="C93" s="73" t="s">
         <v>245</v>
@@ -14634,12 +14617,12 @@
         <v>-0.55769230769230738</v>
       </c>
     </row>
-    <row r="94" spans="1:43">
+    <row r="94" spans="1:43" ht="15">
       <c r="A94" s="72">
         <v>2</v>
       </c>
       <c r="B94" s="73">
-        <v>53</v>
+        <v>2406</v>
       </c>
       <c r="C94" s="73" t="s">
         <v>246</v>
@@ -14767,12 +14750,12 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:43" ht="32">
+    <row r="95" spans="1:43" ht="30">
       <c r="A95" s="72">
         <v>2</v>
       </c>
       <c r="B95" s="73">
-        <v>54</v>
+        <v>2412</v>
       </c>
       <c r="C95" s="73" t="s">
         <v>253</v>
@@ -14900,12 +14883,12 @@
         <v>0.40384615384615413</v>
       </c>
     </row>
-    <row r="96" spans="1:43" ht="16">
+    <row r="96" spans="1:43" ht="15">
       <c r="A96" s="72">
         <v>2</v>
       </c>
       <c r="B96" s="73">
-        <v>55</v>
+        <v>2415</v>
       </c>
       <c r="C96" s="73" t="s">
         <v>251</v>
@@ -15033,12 +15016,12 @@
         <v>0.21153846153846181</v>
       </c>
     </row>
-    <row r="97" spans="1:43" ht="16">
+    <row r="97" spans="1:43" ht="15">
       <c r="A97" s="72">
         <v>2</v>
       </c>
       <c r="B97" s="73">
-        <v>56</v>
+        <v>2416</v>
       </c>
       <c r="C97" s="73" t="s">
         <v>250</v>
@@ -15166,12 +15149,12 @@
         <v>0.40384615384615413</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="32">
+    <row r="98" spans="1:43" ht="30">
       <c r="A98" s="72">
         <v>2</v>
       </c>
       <c r="B98" s="73">
-        <v>57</v>
+        <v>2417</v>
       </c>
       <c r="C98" s="73" t="s">
         <v>252</v>
@@ -15299,12 +15282,12 @@
         <v>-1.9038461538461535</v>
       </c>
     </row>
-    <row r="99" spans="1:43" ht="16">
+    <row r="99" spans="1:43" ht="15">
       <c r="A99" s="72">
         <v>2</v>
       </c>
       <c r="B99" s="73">
-        <v>58</v>
+        <v>2418</v>
       </c>
       <c r="C99" s="73" t="s">
         <v>254</v>
@@ -15433,7 +15416,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U49">
+  <sortState ref="A2:U49">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -15451,13 +15434,13 @@
       <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="68">
+    <row r="1" spans="1:22" ht="63">
       <c r="A1" s="32" t="s">
         <v>255</v>
       </c>
@@ -17172,7 +17155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" ht="15">
       <c r="B27" s="50">
         <v>31</v>
       </c>
@@ -17298,7 +17281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" ht="15">
       <c r="B29" s="50">
         <v>32</v>
       </c>
@@ -17358,7 +17341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" ht="15">
       <c r="B30" s="50">
         <v>33</v>
       </c>
@@ -17418,7 +17401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" ht="15">
       <c r="B31" s="50">
         <v>34</v>
       </c>
@@ -17478,7 +17461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" ht="15">
       <c r="B32" s="52">
         <v>35</v>
       </c>
@@ -17538,7 +17521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="16">
+    <row r="33" spans="1:22" ht="15">
       <c r="B33" s="50">
         <v>36</v>
       </c>
@@ -17598,7 +17581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="16">
+    <row r="34" spans="1:22" ht="15">
       <c r="B34" s="54">
         <v>37</v>
       </c>
@@ -17658,7 +17641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="16">
+    <row r="35" spans="1:22" ht="15">
       <c r="B35" s="50">
         <v>38</v>
       </c>
@@ -17718,7 +17701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="16">
+    <row r="36" spans="1:22" ht="15">
       <c r="B36" s="50">
         <v>39</v>
       </c>
@@ -17778,7 +17761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="16">
+    <row r="37" spans="1:22" ht="15">
       <c r="B37" s="50">
         <v>40</v>
       </c>
@@ -17838,7 +17821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="16">
+    <row r="38" spans="1:22" ht="15">
       <c r="B38" s="50">
         <v>41</v>
       </c>
@@ -17898,7 +17881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="16">
+    <row r="39" spans="1:22" ht="15">
       <c r="B39" s="50">
         <v>42</v>
       </c>
@@ -17958,7 +17941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="16">
+    <row r="40" spans="1:22" ht="15">
       <c r="B40" s="50">
         <v>43</v>
       </c>
@@ -18018,7 +18001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="16">
+    <row r="41" spans="1:22" ht="15">
       <c r="B41" s="50">
         <v>44</v>
       </c>
@@ -18078,7 +18061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="16">
+    <row r="42" spans="1:22" ht="15">
       <c r="B42" s="50">
         <v>45</v>
       </c>
@@ -18138,7 +18121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="16">
+    <row r="43" spans="1:22" ht="15">
       <c r="B43" s="50">
         <v>46</v>
       </c>
@@ -18198,7 +18181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="16">
+    <row r="44" spans="1:22" ht="15">
       <c r="B44" s="50">
         <v>47</v>
       </c>
@@ -18258,7 +18241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="16">
+    <row r="45" spans="1:22" ht="15">
       <c r="B45" s="50">
         <v>48</v>
       </c>
@@ -18318,7 +18301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="16" hidden="1">
+    <row r="46" spans="1:22" hidden="1">
       <c r="A46" s="39">
         <v>0</v>
       </c>
@@ -18381,7 +18364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="16">
+    <row r="47" spans="1:22" ht="15">
       <c r="B47" s="56" t="s">
         <v>283</v>
       </c>
@@ -18441,7 +18424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="16" hidden="1">
+    <row r="48" spans="1:22" hidden="1">
       <c r="A48" s="39">
         <v>0</v>
       </c>
@@ -18504,7 +18487,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="16">
+    <row r="49" spans="1:22" ht="15">
       <c r="B49" s="56" t="s">
         <v>123</v>
       </c>
@@ -18564,7 +18547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="16" hidden="1">
+    <row r="50" spans="1:22" hidden="1">
       <c r="A50" s="39">
         <v>0</v>
       </c>
@@ -18627,7 +18610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" ht="15">
       <c r="B51" s="56" t="s">
         <v>121</v>
       </c>
@@ -18750,7 +18733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" ht="15">
       <c r="B53" s="56" t="s">
         <v>216</v>
       </c>
@@ -18873,7 +18856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" ht="15">
       <c r="B55" s="56" t="s">
         <v>287</v>
       </c>
@@ -18933,7 +18916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="32">
+    <row r="56" spans="1:22" ht="30">
       <c r="B56" s="50" t="s">
         <v>127</v>
       </c>
@@ -18993,7 +18976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="16">
+    <row r="57" spans="1:22" ht="15">
       <c r="B57" s="50" t="s">
         <v>143</v>
       </c>
@@ -19053,7 +19036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="16">
+    <row r="58" spans="1:22" ht="15">
       <c r="B58" s="50" t="s">
         <v>141</v>
       </c>
@@ -19113,7 +19096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="32">
+    <row r="59" spans="1:22" ht="30">
       <c r="B59" s="50" t="s">
         <v>233</v>
       </c>
@@ -19173,7 +19156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="16">
+    <row r="60" spans="1:22" ht="15">
       <c r="B60" s="50" t="s">
         <v>242</v>
       </c>
@@ -19233,7 +19216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="16" hidden="1">
+    <row r="61" spans="1:22" ht="15" hidden="1">
       <c r="B61" s="54" t="s">
         <v>303</v>
       </c>
@@ -19293,7 +19276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="16" hidden="1">
+    <row r="62" spans="1:22" ht="15" hidden="1">
       <c r="B62" s="54" t="s">
         <v>228</v>
       </c>
@@ -19410,7 +19393,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V60">
+  <sortState ref="A2:V60">
     <sortCondition ref="B2:B62"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19432,7 +19415,7 @@
       <selection pane="bottomLeft" activeCell="D120" sqref="D120:Y131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
@@ -29906,7 +29889,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y136">
+  <sortState ref="A2:Y136">
     <sortCondition ref="A136"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -29922,7 +29905,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -30466,7 +30449,7 @@
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -31018,7 +31001,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C51">
+  <sortState ref="A2:C51">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/score_total.xlsx
+++ b/data/score_total.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DB9652-D8E1-47F3-A2A2-55B332756F57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB3F467-903F-4B40-B34E-30D663613DFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,8 +11,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="TD" sheetId="5" r:id="rId2"/>
     <sheet name="SPSRC" sheetId="3" r:id="rId3"/>
-    <sheet name="ASD touch" sheetId="2" r:id="rId4"/>
-    <sheet name="TD touch" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="ASD touch" sheetId="2" r:id="rId5"/>
+    <sheet name="TD touch" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$99</definedName>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="319">
   <si>
     <t>group</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1562,6 +1563,42 @@
     <t>id_new</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>tactile_over</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactile_under</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactile_seek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触觉over</t>
+  </si>
+  <si>
+    <t>触觉under</t>
+  </si>
+  <si>
+    <t>触觉seek</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>tactile_over</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactile_under</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactile_seek</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2413,11 +2450,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ99"/>
+  <dimension ref="A1:AT99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -2426,7 +2463,7 @@
     <col min="22" max="43" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="63">
+    <row r="1" spans="1:46" ht="63">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2556,8 +2593,17 @@
       <c r="AQ1" s="70" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" ht="15">
+      <c r="AR1" s="70" t="s">
+        <v>316</v>
+      </c>
+      <c r="AS1" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="AT1" s="70" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" ht="15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2689,8 +2735,17 @@
       <c r="AQ2" s="91">
         <v>-0.94230769230769196</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" ht="15">
+      <c r="AR2" s="91">
+        <v>28</v>
+      </c>
+      <c r="AS2" s="91">
+        <v>18</v>
+      </c>
+      <c r="AT2" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2822,8 +2877,17 @@
       <c r="AQ3" s="91">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" ht="15">
+      <c r="AR3" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS3" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT3" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -2955,8 +3019,17 @@
       <c r="AQ4" s="91">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" ht="15">
+      <c r="AR4" s="91">
+        <v>24</v>
+      </c>
+      <c r="AS4" s="91">
+        <v>30</v>
+      </c>
+      <c r="AT4" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" ht="15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3088,8 +3161,17 @@
       <c r="AQ5" s="91">
         <v>-1.9038461538461535</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" ht="15">
+      <c r="AR5" s="91">
+        <v>28</v>
+      </c>
+      <c r="AS5" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT5" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="15">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3221,8 +3303,17 @@
       <c r="AQ6" s="91">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" ht="15">
+      <c r="AR6" s="91">
+        <v>24</v>
+      </c>
+      <c r="AS6" s="91">
+        <v>28</v>
+      </c>
+      <c r="AT6" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" ht="15">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3354,8 +3445,17 @@
       <c r="AQ7" s="91">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" ht="15">
+      <c r="AR7" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS7" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT7" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3487,8 +3587,17 @@
       <c r="AQ8" s="91">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" ht="15">
+      <c r="AR8" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS8" s="91">
+        <v>24</v>
+      </c>
+      <c r="AT8" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" ht="15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3620,8 +3729,17 @@
       <c r="AQ9" s="91">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" ht="15">
+      <c r="AR9" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS9" s="91">
+        <v>37</v>
+      </c>
+      <c r="AT9" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="15">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3753,8 +3871,17 @@
       <c r="AQ10" s="91">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" ht="15">
+      <c r="AR10" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS10" s="91">
+        <v>33</v>
+      </c>
+      <c r="AT10" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -3886,8 +4013,17 @@
       <c r="AQ11" s="91">
         <v>-3.2499999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" ht="15">
+      <c r="AR11" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS11" s="91">
+        <v>36</v>
+      </c>
+      <c r="AT11" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4019,8 +4155,17 @@
       <c r="AQ12" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" ht="15">
+      <c r="AR12" s="91">
+        <v>23</v>
+      </c>
+      <c r="AS12" s="91">
+        <v>32</v>
+      </c>
+      <c r="AT12" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="15">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4152,8 +4297,17 @@
       <c r="AQ13" s="91">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" ht="15">
+      <c r="AR13" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS13" s="91">
+        <v>36</v>
+      </c>
+      <c r="AT13" s="91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" ht="15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4285,8 +4439,17 @@
       <c r="AQ14" s="91">
         <v>-0.94230769230769196</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" ht="15">
+      <c r="AR14" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS14" s="91">
+        <v>37</v>
+      </c>
+      <c r="AT14" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -4418,8 +4581,17 @@
       <c r="AQ15" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" ht="15">
+      <c r="AR15" s="91">
+        <v>28</v>
+      </c>
+      <c r="AS15" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT15" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" ht="15">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4551,8 +4723,17 @@
       <c r="AQ16" s="91">
         <v>-3.4423076923076921</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" ht="15">
+      <c r="AR16" s="91">
+        <v>21</v>
+      </c>
+      <c r="AS16" s="91">
+        <v>31</v>
+      </c>
+      <c r="AT16" s="91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" ht="15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4684,8 +4865,17 @@
       <c r="AQ17" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" ht="15">
+      <c r="AR17" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS17" s="91">
+        <v>33</v>
+      </c>
+      <c r="AT17" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" ht="15">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -4817,8 +5007,17 @@
       <c r="AQ18" s="91">
         <v>-0.36538461538461509</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" ht="15">
+      <c r="AR18" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS18" s="91">
+        <v>33</v>
+      </c>
+      <c r="AT18" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" ht="15">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -4950,8 +5149,17 @@
       <c r="AQ19" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" ht="15">
+      <c r="AR19" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS19" s="91">
+        <v>37</v>
+      </c>
+      <c r="AT19" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="15">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5083,8 +5291,17 @@
       <c r="AQ20" s="91">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" ht="15">
+      <c r="AR20" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS20" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT20" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" ht="15">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5216,8 +5433,17 @@
       <c r="AQ21" s="91">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="22" spans="1:43" ht="15">
+      <c r="AR21" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS21" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT21" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" ht="15">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5349,8 +5575,17 @@
       <c r="AQ22" s="91">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" ht="15">
+      <c r="AR22" s="91">
+        <v>22</v>
+      </c>
+      <c r="AS22" s="91">
+        <v>31</v>
+      </c>
+      <c r="AT22" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" ht="15">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5482,8 +5717,17 @@
       <c r="AQ23" s="91">
         <v>-0.36538461538461509</v>
       </c>
-    </row>
-    <row r="24" spans="1:43" ht="15">
+      <c r="AR23" s="91">
+        <v>26</v>
+      </c>
+      <c r="AS23" s="91">
+        <v>36</v>
+      </c>
+      <c r="AT23" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" ht="15">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -5615,8 +5859,17 @@
       <c r="AQ24" s="91">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="25" spans="1:43" ht="15">
+      <c r="AR24" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS24" s="91">
+        <v>28</v>
+      </c>
+      <c r="AT24" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" ht="15">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -5748,8 +6001,17 @@
       <c r="AQ25" s="91">
         <v>-1.3269230769230766</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" ht="15">
+      <c r="AR25" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS25" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT25" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" ht="15">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -5881,8 +6143,17 @@
       <c r="AQ26" s="91">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" ht="15">
+      <c r="AR26" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS26" s="91">
+        <v>33</v>
+      </c>
+      <c r="AT26" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" ht="15">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6014,8 +6285,17 @@
       <c r="AQ27" s="91">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="28" spans="1:43" ht="15">
+      <c r="AR27" s="91">
+        <v>17</v>
+      </c>
+      <c r="AS27" s="91">
+        <v>32</v>
+      </c>
+      <c r="AT27" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" ht="15">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6147,8 +6427,17 @@
       <c r="AQ28" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="29" spans="1:43" ht="15">
+      <c r="AR28" s="91">
+        <v>24</v>
+      </c>
+      <c r="AS28" s="91">
+        <v>35</v>
+      </c>
+      <c r="AT28" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" ht="15">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -6280,8 +6569,17 @@
       <c r="AQ29" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:43" ht="15">
+      <c r="AR29" s="91">
+        <v>21</v>
+      </c>
+      <c r="AS29" s="91">
+        <v>29</v>
+      </c>
+      <c r="AT29" s="91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" ht="15">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -6413,8 +6711,17 @@
       <c r="AQ30" s="91">
         <v>-1.1346153846153844</v>
       </c>
-    </row>
-    <row r="31" spans="1:43" ht="15">
+      <c r="AR30" s="91">
+        <v>18</v>
+      </c>
+      <c r="AS30" s="91">
+        <v>33</v>
+      </c>
+      <c r="AT30" s="91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" ht="15">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -6546,8 +6853,17 @@
       <c r="AQ31" s="91">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="32" spans="1:43" ht="15">
+      <c r="AR31" s="91">
+        <v>21</v>
+      </c>
+      <c r="AS31" s="91">
+        <v>34</v>
+      </c>
+      <c r="AT31" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" ht="15">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -6679,8 +6995,17 @@
       <c r="AQ32" s="91">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" ht="15">
+      <c r="AR32" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS32" s="91">
+        <v>35</v>
+      </c>
+      <c r="AT32" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" ht="15">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -6812,8 +7137,17 @@
       <c r="AQ33" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="34" spans="1:43" ht="15">
+      <c r="AR33" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS33" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT33" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" ht="15">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -6945,8 +7279,17 @@
       <c r="AQ34" s="92">
         <v>0.59615384615384637</v>
       </c>
-    </row>
-    <row r="35" spans="1:43" ht="15">
+      <c r="AR34" s="91">
+        <v>25</v>
+      </c>
+      <c r="AS34" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT34" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" ht="15">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -7078,8 +7421,17 @@
       <c r="AQ35" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="36" spans="1:43" ht="15">
+      <c r="AR35" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS35" s="91">
+        <v>36</v>
+      </c>
+      <c r="AT35" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" ht="15">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -7211,8 +7563,17 @@
       <c r="AQ36" s="91">
         <v>0.21153846153846181</v>
       </c>
-    </row>
-    <row r="37" spans="1:43" ht="15">
+      <c r="AR36" s="91">
+        <v>24</v>
+      </c>
+      <c r="AS36" s="91">
+        <v>34</v>
+      </c>
+      <c r="AT36" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" ht="15">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -7344,8 +7705,17 @@
       <c r="AQ37" s="91">
         <v>-0.94230769230769196</v>
       </c>
-    </row>
-    <row r="38" spans="1:43" ht="15">
+      <c r="AR37" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS37" s="91">
+        <v>29</v>
+      </c>
+      <c r="AT37" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" ht="15">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -7477,8 +7847,17 @@
       <c r="AQ38" s="91">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="39" spans="1:43" ht="15">
+      <c r="AR38" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS38" s="91">
+        <v>32</v>
+      </c>
+      <c r="AT38" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" ht="15">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -7610,8 +7989,17 @@
       <c r="AQ39" s="91">
         <v>0.21153846153846181</v>
       </c>
-    </row>
-    <row r="40" spans="1:43" ht="15">
+      <c r="AR39" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS39" s="91">
+        <v>35</v>
+      </c>
+      <c r="AT39" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" ht="15">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -7743,8 +8131,17 @@
       <c r="AQ40" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="41" spans="1:43" ht="15">
+      <c r="AR40" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS40" s="91">
+        <v>36</v>
+      </c>
+      <c r="AT40" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" ht="15">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -7876,8 +8273,17 @@
       <c r="AQ41" s="91">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" ht="15">
+      <c r="AR41" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS41" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT41" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" ht="15">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -8009,8 +8415,17 @@
       <c r="AQ42" s="91">
         <v>0.59615384615384637</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" ht="15">
+      <c r="AR42" s="91">
+        <v>24</v>
+      </c>
+      <c r="AS42" s="91">
+        <v>32</v>
+      </c>
+      <c r="AT42" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" ht="15">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -8142,8 +8557,17 @@
       <c r="AQ43" s="91">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="44" spans="1:43" ht="15">
+      <c r="AR43" s="91">
+        <v>24</v>
+      </c>
+      <c r="AS43" s="91">
+        <v>32</v>
+      </c>
+      <c r="AT43" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" ht="15">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -8275,8 +8699,17 @@
       <c r="AQ44" s="91">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" ht="15">
+      <c r="AR44" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS44" s="91">
+        <v>30</v>
+      </c>
+      <c r="AT44" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" ht="15">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -8408,8 +8841,17 @@
       <c r="AQ45" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" ht="15">
+      <c r="AR45" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS45" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT45" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" ht="15">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -8541,8 +8983,17 @@
       <c r="AQ46" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:43" ht="15">
+      <c r="AR46" s="91">
+        <v>26</v>
+      </c>
+      <c r="AS46" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT46" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" ht="15">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -8674,8 +9125,17 @@
       <c r="AQ47" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="48" spans="1:43" ht="15">
+      <c r="AR47" s="91">
+        <v>26</v>
+      </c>
+      <c r="AS47" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT47" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" ht="15">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -8807,8 +9267,17 @@
       <c r="AQ48" s="91">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="49" spans="1:43" ht="15">
+      <c r="AR48" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS48" s="91">
+        <v>34</v>
+      </c>
+      <c r="AT48" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" ht="15">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -8940,8 +9409,17 @@
       <c r="AQ49" s="91">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="50" spans="1:43" ht="15">
+      <c r="AR49" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS49" s="91">
+        <v>34</v>
+      </c>
+      <c r="AT49" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" ht="15">
       <c r="A50" s="72">
         <v>2</v>
       </c>
@@ -9073,8 +9551,17 @@
       <c r="AQ50" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:43" ht="15">
+      <c r="AR50" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS50" s="91">
+        <v>37</v>
+      </c>
+      <c r="AT50" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" ht="15">
       <c r="A51" s="72">
         <v>2</v>
       </c>
@@ -9206,8 +9693,17 @@
       <c r="AQ51" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="52" spans="1:43" ht="15">
+      <c r="AR51" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS51" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT51" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" ht="15">
       <c r="A52" s="72">
         <v>2</v>
       </c>
@@ -9339,8 +9835,17 @@
       <c r="AQ52" s="91">
         <v>-2.2884615384615383</v>
       </c>
-    </row>
-    <row r="53" spans="1:43" ht="15">
+      <c r="AR52" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS52" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT52" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" ht="15">
       <c r="A53" s="72">
         <v>2</v>
       </c>
@@ -9472,8 +9977,17 @@
       <c r="AQ53" s="91">
         <v>-1.7115384615384612</v>
       </c>
-    </row>
-    <row r="54" spans="1:43" ht="15">
+      <c r="AR53" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS53" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT53" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" ht="15">
       <c r="A54" s="72">
         <v>2</v>
       </c>
@@ -9605,8 +10119,17 @@
       <c r="AQ54" s="91">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="55" spans="1:43" ht="15">
+      <c r="AR54" s="91">
+        <v>26</v>
+      </c>
+      <c r="AS54" s="91">
+        <v>34</v>
+      </c>
+      <c r="AT54" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" ht="15">
       <c r="A55" s="72">
         <v>2</v>
       </c>
@@ -9738,8 +10261,17 @@
       <c r="AQ55" s="91">
         <v>-2.865384615384615</v>
       </c>
-    </row>
-    <row r="56" spans="1:43" ht="15">
+      <c r="AR55" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS55" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT55" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" ht="15">
       <c r="A56" s="72">
         <v>2</v>
       </c>
@@ -9871,8 +10403,17 @@
       <c r="AQ56" s="91">
         <v>0.21153846153846181</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" ht="15">
+      <c r="AR56" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS56" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT56" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" ht="15">
       <c r="A57" s="72">
         <v>2</v>
       </c>
@@ -10004,8 +10545,17 @@
       <c r="AQ57" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="58" spans="1:43" ht="15">
+      <c r="AR57" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS57" s="91">
+        <v>33</v>
+      </c>
+      <c r="AT57" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" ht="15">
       <c r="A58" s="72">
         <v>2</v>
       </c>
@@ -10137,8 +10687,17 @@
       <c r="AQ58" s="91">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="59" spans="1:43" ht="15">
+      <c r="AR58" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS58" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT58" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" ht="15">
       <c r="A59" s="72">
         <v>2</v>
       </c>
@@ -10270,8 +10829,17 @@
       <c r="AQ59" s="91">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="60" spans="1:43" ht="15">
+      <c r="AR59" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS59" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT59" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" ht="15">
       <c r="A60" s="72">
         <v>2</v>
       </c>
@@ -10403,8 +10971,17 @@
       <c r="AQ60" s="91">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="61" spans="1:43" ht="15">
+      <c r="AR60" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS60" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT60" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" ht="15">
       <c r="A61" s="72">
         <v>2</v>
       </c>
@@ -10492,8 +11069,11 @@
       <c r="AO61" s="93"/>
       <c r="AP61" s="93"/>
       <c r="AQ61" s="93"/>
-    </row>
-    <row r="62" spans="1:43" ht="15">
+      <c r="AR61" s="93"/>
+      <c r="AS61" s="93"/>
+      <c r="AT61" s="93"/>
+    </row>
+    <row r="62" spans="1:46" ht="15">
       <c r="A62" s="72">
         <v>2</v>
       </c>
@@ -10625,8 +11205,17 @@
       <c r="AQ62" s="91">
         <v>-0.94230769230769196</v>
       </c>
-    </row>
-    <row r="63" spans="1:43" ht="15">
+      <c r="AR62" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS62" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT62" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" ht="15">
       <c r="A63" s="72">
         <v>2</v>
       </c>
@@ -10758,8 +11347,17 @@
       <c r="AQ63" s="91">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="64" spans="1:43" ht="15">
+      <c r="AR63" s="91">
+        <v>26</v>
+      </c>
+      <c r="AS63" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT63" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" ht="15">
       <c r="A64" s="72">
         <v>2</v>
       </c>
@@ -10891,8 +11489,17 @@
       <c r="AQ64" s="91">
         <v>0.59615384615384637</v>
       </c>
-    </row>
-    <row r="65" spans="1:43" ht="15">
+      <c r="AR64" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS64" s="91">
+        <v>30</v>
+      </c>
+      <c r="AT64" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" ht="15">
       <c r="A65" s="72">
         <v>2</v>
       </c>
@@ -11024,8 +11631,17 @@
       <c r="AQ65" s="91">
         <v>-2.4807692307692304</v>
       </c>
-    </row>
-    <row r="66" spans="1:43" ht="15">
+      <c r="AR65" s="91">
+        <v>28</v>
+      </c>
+      <c r="AS65" s="91">
+        <v>36</v>
+      </c>
+      <c r="AT65" s="91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" ht="15">
       <c r="A66" s="72">
         <v>2</v>
       </c>
@@ -11157,8 +11773,17 @@
       <c r="AQ66" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="67" spans="1:43" ht="15">
+      <c r="AR66" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS66" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT66" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" ht="15">
       <c r="A67" s="72">
         <v>2</v>
       </c>
@@ -11246,8 +11871,11 @@
       <c r="AO67" s="93"/>
       <c r="AP67" s="93"/>
       <c r="AQ67" s="93"/>
-    </row>
-    <row r="68" spans="1:43" ht="15">
+      <c r="AR67" s="93"/>
+      <c r="AS67" s="93"/>
+      <c r="AT67" s="93"/>
+    </row>
+    <row r="68" spans="1:46" ht="15">
       <c r="A68" s="72">
         <v>2</v>
       </c>
@@ -11379,8 +12007,17 @@
       <c r="AQ68" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="69" spans="1:43" ht="15">
+      <c r="AR68" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS68" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT68" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" ht="15">
       <c r="A69" s="72">
         <v>2</v>
       </c>
@@ -11512,8 +12149,17 @@
       <c r="AQ69" s="91">
         <v>-3.4423076923076921</v>
       </c>
-    </row>
-    <row r="70" spans="1:43" ht="15">
+      <c r="AR69" s="91">
+        <v>28</v>
+      </c>
+      <c r="AS69" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT69" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" ht="15">
       <c r="A70" s="72">
         <v>2</v>
       </c>
@@ -11645,8 +12291,17 @@
       <c r="AQ70" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="71" spans="1:43" ht="15">
+      <c r="AR70" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS70" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT70" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" ht="15">
       <c r="A71" s="72">
         <v>2</v>
       </c>
@@ -11778,8 +12433,17 @@
       <c r="AQ71" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:43" ht="15">
+      <c r="AR71" s="91">
+        <v>28</v>
+      </c>
+      <c r="AS71" s="91">
+        <v>13</v>
+      </c>
+      <c r="AT71" s="91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" ht="15">
       <c r="A72" s="72">
         <v>2</v>
       </c>
@@ -11911,8 +12575,17 @@
       <c r="AQ72" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="73" spans="1:43" ht="15">
+      <c r="AR72" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS72" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT72" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" ht="15">
       <c r="A73" s="72">
         <v>2</v>
       </c>
@@ -12044,8 +12717,17 @@
       <c r="AQ73" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="74" spans="1:43" ht="15">
+      <c r="AR73" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS73" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT73" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" ht="15">
       <c r="A74" s="72">
         <v>2</v>
       </c>
@@ -12133,8 +12815,11 @@
       <c r="AO74" s="93"/>
       <c r="AP74" s="93"/>
       <c r="AQ74" s="93"/>
-    </row>
-    <row r="75" spans="1:43" ht="15">
+      <c r="AR74" s="93"/>
+      <c r="AS74" s="93"/>
+      <c r="AT74" s="93"/>
+    </row>
+    <row r="75" spans="1:46" ht="15">
       <c r="A75" s="72">
         <v>2</v>
       </c>
@@ -12266,8 +12951,17 @@
       <c r="AQ75" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="76" spans="1:43" ht="15">
+      <c r="AR75" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS75" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT75" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" ht="15">
       <c r="A76" s="72">
         <v>2</v>
       </c>
@@ -12399,8 +13093,17 @@
       <c r="AQ76" s="91">
         <v>-1.3269230769230766</v>
       </c>
-    </row>
-    <row r="77" spans="1:43" ht="15">
+      <c r="AR76" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS76" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT76" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" ht="15">
       <c r="A77" s="72">
         <v>2</v>
       </c>
@@ -12532,8 +13235,17 @@
       <c r="AQ77" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="78" spans="1:43" ht="15">
+      <c r="AR77" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS77" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT77" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" ht="15">
       <c r="A78" s="72">
         <v>2</v>
       </c>
@@ -12665,8 +13377,17 @@
       <c r="AQ78" s="91">
         <v>-1.3269230769230766</v>
       </c>
-    </row>
-    <row r="79" spans="1:43" ht="15">
+      <c r="AR78" s="91">
+        <v>22</v>
+      </c>
+      <c r="AS78" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT78" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" ht="15">
       <c r="A79" s="72">
         <v>2</v>
       </c>
@@ -12798,8 +13519,17 @@
       <c r="AQ79" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:43" ht="15">
+      <c r="AR79" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS79" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT79" s="91">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" ht="15">
       <c r="A80" s="72">
         <v>2</v>
       </c>
@@ -12931,8 +13661,17 @@
       <c r="AQ80" s="91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="81" spans="1:43" ht="15">
+      <c r="AR80" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS80" s="91">
+        <v>38</v>
+      </c>
+      <c r="AT80" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" ht="15">
       <c r="A81" s="72">
         <v>2</v>
       </c>
@@ -13064,8 +13803,17 @@
       <c r="AQ81" s="91">
         <v>-1.1346153846153844</v>
       </c>
-    </row>
-    <row r="82" spans="1:43" ht="15">
+      <c r="AR81" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS81" s="91">
+        <v>19</v>
+      </c>
+      <c r="AT81" s="91">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" ht="15">
       <c r="A82" s="72">
         <v>2</v>
       </c>
@@ -13197,8 +13945,17 @@
       <c r="AQ82" s="91">
         <v>-1.5192307692307689</v>
       </c>
-    </row>
-    <row r="83" spans="1:43" ht="15">
+      <c r="AR82" s="91">
+        <v>28</v>
+      </c>
+      <c r="AS82" s="91">
+        <v>31</v>
+      </c>
+      <c r="AT82" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" ht="15">
       <c r="A83" s="72">
         <v>2</v>
       </c>
@@ -13330,8 +14087,17 @@
       <c r="AQ83" s="91">
         <v>-1.1346153846153844</v>
       </c>
-    </row>
-    <row r="84" spans="1:43" ht="15">
+      <c r="AR83" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS83" s="91">
+        <v>39</v>
+      </c>
+      <c r="AT83" s="91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:46" ht="15">
       <c r="A84" s="72">
         <v>2</v>
       </c>
@@ -13463,8 +14229,17 @@
       <c r="AQ84" s="91">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="85" spans="1:43" ht="15">
+      <c r="AR84" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS84" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT84" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:46" ht="15">
       <c r="A85" s="72">
         <v>2</v>
       </c>
@@ -13596,8 +14371,17 @@
       <c r="AQ85" s="91">
         <v>-1.1346153846153844</v>
       </c>
-    </row>
-    <row r="86" spans="1:43" ht="15">
+      <c r="AR85" s="91">
+        <v>27</v>
+      </c>
+      <c r="AS85" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT85" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:46" ht="15">
       <c r="A86" s="72">
         <v>2</v>
       </c>
@@ -13729,8 +14513,17 @@
       <c r="AQ86" s="91">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="87" spans="1:43" ht="15">
+      <c r="AR86" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS86" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT86" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:46" ht="15">
       <c r="A87" s="72">
         <v>2</v>
       </c>
@@ -13862,8 +14655,17 @@
       <c r="AQ87" s="91">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="88" spans="1:43" ht="15">
+      <c r="AR87" s="91">
+        <v>23</v>
+      </c>
+      <c r="AS87" s="91">
+        <v>23</v>
+      </c>
+      <c r="AT87" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:46" ht="15">
       <c r="A88" s="72">
         <v>2</v>
       </c>
@@ -13995,8 +14797,17 @@
       <c r="AQ88" s="91">
         <v>2.3269230769230771</v>
       </c>
-    </row>
-    <row r="89" spans="1:43" ht="15">
+      <c r="AR88" s="91">
+        <v>36</v>
+      </c>
+      <c r="AS88" s="91">
+        <v>48</v>
+      </c>
+      <c r="AT88" s="91">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" ht="15">
       <c r="A89" s="72">
         <v>2</v>
       </c>
@@ -14128,8 +14939,17 @@
       <c r="AQ89" s="91">
         <v>2.3269230769230771</v>
       </c>
-    </row>
-    <row r="90" spans="1:43" ht="15">
+      <c r="AR89" s="91">
+        <v>36</v>
+      </c>
+      <c r="AS89" s="91">
+        <v>48</v>
+      </c>
+      <c r="AT89" s="91">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" ht="15">
       <c r="A90" s="72">
         <v>2</v>
       </c>
@@ -14217,8 +15037,11 @@
       <c r="AO90" s="93"/>
       <c r="AP90" s="93"/>
       <c r="AQ90" s="93"/>
-    </row>
-    <row r="91" spans="1:43" ht="15">
+      <c r="AR90" s="93"/>
+      <c r="AS90" s="93"/>
+      <c r="AT90" s="93"/>
+    </row>
+    <row r="91" spans="1:46" ht="15">
       <c r="A91" s="72">
         <v>2</v>
       </c>
@@ -14350,8 +15173,17 @@
       <c r="AQ91" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:43" ht="15">
+      <c r="AR91" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS91" s="91">
+        <v>34</v>
+      </c>
+      <c r="AT91" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:46" ht="15">
       <c r="A92" s="72">
         <v>2</v>
       </c>
@@ -14483,8 +15315,17 @@
       <c r="AQ92" s="91">
         <v>-0.36538461538461509</v>
       </c>
-    </row>
-    <row r="93" spans="1:43" ht="15">
+      <c r="AR92" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS92" s="91">
+        <v>34</v>
+      </c>
+      <c r="AT92" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:46" ht="15">
       <c r="A93" s="72">
         <v>2</v>
       </c>
@@ -14616,8 +15457,17 @@
       <c r="AQ93" s="91">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="94" spans="1:43" ht="15">
+      <c r="AR93" s="91">
+        <v>26</v>
+      </c>
+      <c r="AS93" s="91">
+        <v>34</v>
+      </c>
+      <c r="AT93" s="91">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" ht="15">
       <c r="A94" s="72">
         <v>2</v>
       </c>
@@ -14749,8 +15599,17 @@
       <c r="AQ94" s="91">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:43" ht="30">
+      <c r="AR94" s="91">
+        <v>24</v>
+      </c>
+      <c r="AS94" s="91">
+        <v>32</v>
+      </c>
+      <c r="AT94" s="91">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:46" ht="30">
       <c r="A95" s="72">
         <v>2</v>
       </c>
@@ -14882,8 +15741,17 @@
       <c r="AQ95" s="91">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="96" spans="1:43" ht="15">
+      <c r="AR95" s="91">
+        <v>30</v>
+      </c>
+      <c r="AS95" s="91">
+        <v>28</v>
+      </c>
+      <c r="AT95" s="91">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:46" ht="15">
       <c r="A96" s="72">
         <v>2</v>
       </c>
@@ -15015,8 +15883,17 @@
       <c r="AQ96" s="91">
         <v>0.21153846153846181</v>
       </c>
-    </row>
-    <row r="97" spans="1:43" ht="15">
+      <c r="AR96" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS96" s="91">
+        <v>35</v>
+      </c>
+      <c r="AT96" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:46" ht="15">
       <c r="A97" s="72">
         <v>2</v>
       </c>
@@ -15148,8 +16025,17 @@
       <c r="AQ97" s="91">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="98" spans="1:43" ht="30">
+      <c r="AR97" s="91">
+        <v>29</v>
+      </c>
+      <c r="AS97" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT97" s="91">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:46" ht="30">
       <c r="A98" s="72">
         <v>2</v>
       </c>
@@ -15281,8 +16167,17 @@
       <c r="AQ98" s="91">
         <v>-1.9038461538461535</v>
       </c>
-    </row>
-    <row r="99" spans="1:43" ht="15">
+      <c r="AR98" s="91">
+        <v>26</v>
+      </c>
+      <c r="AS98" s="91">
+        <v>40</v>
+      </c>
+      <c r="AT98" s="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:46" ht="15">
       <c r="A99" s="72">
         <v>2</v>
       </c>
@@ -15413,6 +16308,15 @@
       </c>
       <c r="AQ99" s="91">
         <v>2.3269230769230771</v>
+      </c>
+      <c r="AR99" s="91">
+        <v>36</v>
+      </c>
+      <c r="AS99" s="91">
+        <v>48</v>
+      </c>
+      <c r="AT99" s="91">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -19408,16 +20312,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA2CFCA-5425-4E95-97F5-42F2E20FBD33}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Y136"/>
+  <dimension ref="A1:AB136"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120:Y131"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:28">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -19493,8 +20397,17 @@
       <c r="Y1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19571,8 +20484,20 @@
       <c r="Y2">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2">
+        <f>VLOOKUP(C2,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA2">
+        <f>VLOOKUP(C2,Sheet2!B:E,3,0)</f>
+        <v>37</v>
+      </c>
+      <c r="AB2">
+        <f>VLOOKUP(C2,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
@@ -19649,8 +20574,20 @@
       <c r="Y3">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3">
+        <f>VLOOKUP(C3,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <f>VLOOKUP(C3,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB3">
+        <f>VLOOKUP(C3,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
@@ -19727,8 +20664,20 @@
       <c r="Y4">
         <v>-2.2884615384615383</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4">
+        <f>VLOOKUP(C4,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <f>VLOOKUP(C4,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB4">
+        <f>VLOOKUP(C4,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
@@ -19805,8 +20754,20 @@
       <c r="Y5">
         <v>-1.7115384615384612</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5">
+        <f>VLOOKUP(C5,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA5">
+        <f>VLOOKUP(C5,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB5">
+        <f>VLOOKUP(C5,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
@@ -19883,8 +20844,20 @@
       <c r="Y6">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6">
+        <f>VLOOKUP(C6,Sheet2!B:E,2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AA6">
+        <f>VLOOKUP(C6,Sheet2!B:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AB6">
+        <f>VLOOKUP(C6,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>7</v>
       </c>
@@ -19961,8 +20934,20 @@
       <c r="Y7">
         <v>-2.865384615384615</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7">
+        <f>VLOOKUP(C7,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA7">
+        <f>VLOOKUP(C7,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB7">
+        <f>VLOOKUP(C7,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>8</v>
       </c>
@@ -20039,8 +21024,20 @@
       <c r="Y8">
         <v>0.21153846153846181</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8">
+        <f>VLOOKUP(C8,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA8">
+        <f>VLOOKUP(C8,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB8">
+        <f>VLOOKUP(C8,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>9</v>
       </c>
@@ -20117,8 +21114,20 @@
       <c r="Y9">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9">
+        <f>VLOOKUP(C9,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA9">
+        <f>VLOOKUP(C9,Sheet2!B:E,3,0)</f>
+        <v>33</v>
+      </c>
+      <c r="AB9">
+        <f>VLOOKUP(C9,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>10</v>
       </c>
@@ -20195,8 +21204,20 @@
       <c r="Y10">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" hidden="1">
+      <c r="Z10">
+        <f>VLOOKUP(C10,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA10">
+        <f>VLOOKUP(C10,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB10">
+        <f>VLOOKUP(C10,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" hidden="1">
       <c r="A11">
         <v>11</v>
       </c>
@@ -20274,7 +21295,7 @@
         <v>0.59615384615384637</v>
       </c>
     </row>
-    <row r="12" spans="1:25" hidden="1">
+    <row r="12" spans="1:28" hidden="1">
       <c r="A12">
         <v>12</v>
       </c>
@@ -20352,7 +21373,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>13</v>
       </c>
@@ -20429,8 +21450,20 @@
       <c r="Y13">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13">
+        <f>VLOOKUP(C13,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA13">
+        <f>VLOOKUP(C13,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB13">
+        <f>VLOOKUP(C13,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>14</v>
       </c>
@@ -20507,8 +21540,20 @@
       <c r="Y14">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z14">
+        <f>VLOOKUP(C14,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA14">
+        <f>VLOOKUP(C14,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB14">
+        <f>VLOOKUP(C14,Sheet2!B:E,4,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>16</v>
       </c>
@@ -20585,8 +21630,20 @@
       <c r="Y16">
         <v>-0.94230769230769196</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16">
+        <f>VLOOKUP(C16,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA16">
+        <f>VLOOKUP(C16,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB16">
+        <f>VLOOKUP(C16,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>17</v>
       </c>
@@ -20663,8 +21720,20 @@
       <c r="Y17">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <f>VLOOKUP(C17,Sheet2!B:E,2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AA17">
+        <f>VLOOKUP(C17,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB17">
+        <f>VLOOKUP(C17,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>18</v>
       </c>
@@ -20741,8 +21810,20 @@
       <c r="Y18">
         <v>0.59615384615384637</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <f>VLOOKUP(C18,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA18">
+        <f>VLOOKUP(C18,Sheet2!B:E,3,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AB18">
+        <f>VLOOKUP(C18,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>19</v>
       </c>
@@ -20819,8 +21900,20 @@
       <c r="Y19">
         <v>-2.4807692307692304</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19">
+        <f>VLOOKUP(C19,Sheet2!B:E,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AA19">
+        <f>VLOOKUP(C19,Sheet2!B:E,3,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AB19">
+        <f>VLOOKUP(C19,Sheet2!B:E,4,0)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>20</v>
       </c>
@@ -20897,8 +21990,20 @@
       <c r="Y20">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z20">
+        <f>VLOOKUP(C20,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA20">
+        <f>VLOOKUP(C20,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB20">
+        <f>VLOOKUP(C20,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>22</v>
       </c>
@@ -20975,8 +22080,20 @@
       <c r="Y22">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22">
+        <f>VLOOKUP(C22,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA22">
+        <f>VLOOKUP(C22,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB22">
+        <f>VLOOKUP(C22,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>23</v>
       </c>
@@ -21053,8 +22170,20 @@
       <c r="Y23">
         <v>-3.4423076923076921</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23">
+        <f>VLOOKUP(C23,Sheet2!B:E,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AA23">
+        <f>VLOOKUP(C23,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB23">
+        <f>VLOOKUP(C23,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>24</v>
       </c>
@@ -21131,8 +22260,20 @@
       <c r="Y24">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24">
+        <f>VLOOKUP(C24,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA24">
+        <f>VLOOKUP(C24,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB24">
+        <f>VLOOKUP(C24,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>25</v>
       </c>
@@ -21209,8 +22350,20 @@
       <c r="Y25">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" hidden="1">
+      <c r="Z25">
+        <f>VLOOKUP(C25,Sheet2!B:E,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AA25">
+        <f>VLOOKUP(C25,Sheet2!B:E,3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AB25">
+        <f>VLOOKUP(C25,Sheet2!B:E,4,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" hidden="1">
       <c r="A26">
         <v>27</v>
       </c>
@@ -21288,7 +22441,7 @@
         <v>0.40384615384615413</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>31</v>
       </c>
@@ -21365,8 +22518,20 @@
       <c r="Y27">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27">
+        <f>VLOOKUP(C27,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA27">
+        <f>VLOOKUP(C27,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB27">
+        <f>VLOOKUP(C27,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>32</v>
       </c>
@@ -21443,8 +22608,20 @@
       <c r="Y28">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z28">
+        <f>VLOOKUP(C28,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA28">
+        <f>VLOOKUP(C28,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB28">
+        <f>VLOOKUP(C28,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>34</v>
       </c>
@@ -21521,8 +22698,20 @@
       <c r="Y30">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30">
+        <f>VLOOKUP(C30,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA30">
+        <f>VLOOKUP(C30,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB30">
+        <f>VLOOKUP(C30,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>34</v>
       </c>
@@ -21599,8 +22788,20 @@
       <c r="Y31">
         <v>-1.3269230769230766</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31">
+        <f>VLOOKUP(C31,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA31">
+        <f>VLOOKUP(C31,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB31">
+        <f>VLOOKUP(C31,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>35</v>
       </c>
@@ -21677,8 +22878,20 @@
       <c r="Y32">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32">
+        <f>VLOOKUP(C32,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA32">
+        <f>VLOOKUP(C32,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB32">
+        <f>VLOOKUP(C32,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>36</v>
       </c>
@@ -21755,8 +22968,20 @@
       <c r="Y33">
         <v>-1.3269230769230766</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33">
+        <f>VLOOKUP(C33,Sheet2!B:E,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="AA33">
+        <f>VLOOKUP(C33,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB33">
+        <f>VLOOKUP(C33,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>37</v>
       </c>
@@ -21833,8 +23058,20 @@
       <c r="Y34">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34">
+        <f>VLOOKUP(C34,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA34">
+        <f>VLOOKUP(C34,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB34">
+        <f>VLOOKUP(C34,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>38</v>
       </c>
@@ -21911,8 +23148,20 @@
       <c r="Y35">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35">
+        <f>VLOOKUP(C35,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA35">
+        <f>VLOOKUP(C35,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB35">
+        <f>VLOOKUP(C35,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>40</v>
       </c>
@@ -21989,8 +23238,20 @@
       <c r="Y36">
         <v>-1.1346153846153844</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36">
+        <f>VLOOKUP(C36,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA36">
+        <f>VLOOKUP(C36,Sheet2!B:E,3,0)</f>
+        <v>19</v>
+      </c>
+      <c r="AB36">
+        <f>VLOOKUP(C36,Sheet2!B:E,4,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>41</v>
       </c>
@@ -22067,8 +23328,20 @@
       <c r="Y37">
         <v>-1.5192307692307689</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37">
+        <f>VLOOKUP(C37,Sheet2!B:E,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AA37">
+        <f>VLOOKUP(C37,Sheet2!B:E,3,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AB37">
+        <f>VLOOKUP(C37,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>42</v>
       </c>
@@ -22145,8 +23418,20 @@
       <c r="Y38">
         <v>-1.1346153846153844</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38">
+        <f>VLOOKUP(C38,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA38">
+        <f>VLOOKUP(C38,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB38">
+        <f>VLOOKUP(C38,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>43</v>
       </c>
@@ -22223,8 +23508,20 @@
       <c r="Y39">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39">
+        <f>VLOOKUP(C39,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA39">
+        <f>VLOOKUP(C39,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB39">
+        <f>VLOOKUP(C39,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>44</v>
       </c>
@@ -22301,8 +23598,20 @@
       <c r="Y40">
         <v>-1.1346153846153844</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40">
+        <f>VLOOKUP(C40,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA40">
+        <f>VLOOKUP(C40,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB40">
+        <f>VLOOKUP(C40,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>45</v>
       </c>
@@ -22379,8 +23688,20 @@
       <c r="Y41">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41">
+        <f>VLOOKUP(C41,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA41">
+        <f>VLOOKUP(C41,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB41">
+        <f>VLOOKUP(C41,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>46</v>
       </c>
@@ -22457,8 +23778,20 @@
       <c r="Y42">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42">
+        <f>VLOOKUP(C42,Sheet2!B:E,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="AA42">
+        <f>VLOOKUP(C42,Sheet2!B:E,3,0)</f>
+        <v>23</v>
+      </c>
+      <c r="AB42">
+        <f>VLOOKUP(C42,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>47</v>
       </c>
@@ -22535,8 +23868,20 @@
       <c r="Y43">
         <v>2.3269230769230771</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43">
+        <f>VLOOKUP(C43,Sheet2!B:E,2,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AA43">
+        <f>VLOOKUP(C43,Sheet2!B:E,3,0)</f>
+        <v>48</v>
+      </c>
+      <c r="AB43">
+        <f>VLOOKUP(C43,Sheet2!B:E,4,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>48</v>
       </c>
@@ -22613,8 +23958,20 @@
       <c r="Y44">
         <v>2.3269230769230771</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44">
+        <f>VLOOKUP(C44,Sheet2!B:E,2,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AA44">
+        <f>VLOOKUP(C44,Sheet2!B:E,3,0)</f>
+        <v>48</v>
+      </c>
+      <c r="AB44">
+        <f>VLOOKUP(C44,Sheet2!B:E,4,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>101</v>
       </c>
@@ -22691,8 +24048,20 @@
       <c r="Y45">
         <v>-0.94230769230769196</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45">
+        <f>VLOOKUP(C45,Sheet2!B:E,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AA45">
+        <f>VLOOKUP(C45,Sheet2!B:E,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AB45">
+        <f>VLOOKUP(C45,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>102</v>
       </c>
@@ -22769,8 +24138,20 @@
       <c r="Y46">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46">
+        <f>VLOOKUP(C46,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA46">
+        <f>VLOOKUP(C46,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB46">
+        <f>VLOOKUP(C46,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>103</v>
       </c>
@@ -22847,8 +24228,20 @@
       <c r="Y47">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47">
+        <f>VLOOKUP(C47,Sheet2!B:E,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AA47">
+        <f>VLOOKUP(C47,Sheet2!B:E,3,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AB47">
+        <f>VLOOKUP(C47,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>104</v>
       </c>
@@ -22925,8 +24318,20 @@
       <c r="Y48">
         <v>-1.9038461538461535</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48">
+        <f>VLOOKUP(C48,Sheet2!B:E,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AA48">
+        <f>VLOOKUP(C48,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB48">
+        <f>VLOOKUP(C48,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>105</v>
       </c>
@@ -23003,8 +24408,20 @@
       <c r="Y49">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49">
+        <f>VLOOKUP(C49,Sheet2!B:E,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AA49">
+        <f>VLOOKUP(C49,Sheet2!B:E,3,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AB49">
+        <f>VLOOKUP(C49,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>106</v>
       </c>
@@ -23081,8 +24498,20 @@
       <c r="Y50">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50">
+        <f>VLOOKUP(C50,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA50">
+        <f>VLOOKUP(C50,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB50">
+        <f>VLOOKUP(C50,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>107</v>
       </c>
@@ -23159,8 +24588,20 @@
       <c r="Y51">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51">
+        <f>VLOOKUP(C51,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA51">
+        <f>VLOOKUP(C51,Sheet2!B:E,3,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AB51">
+        <f>VLOOKUP(C51,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>108</v>
       </c>
@@ -23237,8 +24678,20 @@
       <c r="Y52">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52">
+        <f>VLOOKUP(C52,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA52">
+        <f>VLOOKUP(C52,Sheet2!B:E,3,0)</f>
+        <v>37</v>
+      </c>
+      <c r="AB52">
+        <f>VLOOKUP(C52,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53">
         <v>109</v>
       </c>
@@ -23315,8 +24768,20 @@
       <c r="Y53">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53">
+        <f>VLOOKUP(C53,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA53">
+        <f>VLOOKUP(C53,Sheet2!B:E,3,0)</f>
+        <v>33</v>
+      </c>
+      <c r="AB53">
+        <f>VLOOKUP(C53,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54">
         <v>110</v>
       </c>
@@ -23393,8 +24858,20 @@
       <c r="Y54">
         <v>-3.2499999999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54">
+        <f>VLOOKUP(C54,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA54">
+        <f>VLOOKUP(C54,Sheet2!B:E,3,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AB54">
+        <f>VLOOKUP(C54,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55">
         <v>111</v>
       </c>
@@ -23471,8 +24948,20 @@
       <c r="Y55">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55">
+        <f>VLOOKUP(C55,Sheet2!B:E,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="AA55">
+        <f>VLOOKUP(C55,Sheet2!B:E,3,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AB55">
+        <f>VLOOKUP(C55,Sheet2!B:E,4,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56">
         <v>112</v>
       </c>
@@ -23549,8 +25038,20 @@
       <c r="Y56">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56">
+        <f>VLOOKUP(C56,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA56">
+        <f>VLOOKUP(C56,Sheet2!B:E,3,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AB56">
+        <f>VLOOKUP(C56,Sheet2!B:E,4,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
       <c r="A57">
         <v>115</v>
       </c>
@@ -23627,8 +25128,20 @@
       <c r="Y57">
         <v>-0.94230769230769196</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57">
+        <f>VLOOKUP(C57,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA57">
+        <f>VLOOKUP(C57,Sheet2!B:E,3,0)</f>
+        <v>37</v>
+      </c>
+      <c r="AB57">
+        <f>VLOOKUP(C57,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28">
       <c r="A58">
         <v>116</v>
       </c>
@@ -23705,8 +25218,20 @@
       <c r="Y58">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58">
+        <f>VLOOKUP(C58,Sheet2!B:E,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AA58">
+        <f>VLOOKUP(C58,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB58">
+        <f>VLOOKUP(C58,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59">
         <v>117</v>
       </c>
@@ -23783,8 +25308,20 @@
       <c r="Y59">
         <v>-3.4423076923076921</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59">
+        <f>VLOOKUP(C59,Sheet2!B:E,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="AA59">
+        <f>VLOOKUP(C59,Sheet2!B:E,3,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AB59">
+        <f>VLOOKUP(C59,Sheet2!B:E,4,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60">
         <v>118</v>
       </c>
@@ -23861,8 +25398,20 @@
       <c r="Y60">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60">
+        <f>VLOOKUP(C60,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA60">
+        <f>VLOOKUP(C60,Sheet2!B:E,3,0)</f>
+        <v>33</v>
+      </c>
+      <c r="AB60">
+        <f>VLOOKUP(C60,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61">
         <v>119</v>
       </c>
@@ -23939,8 +25488,20 @@
       <c r="Y61">
         <v>-0.36538461538461509</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61">
+        <f>VLOOKUP(C61,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA61">
+        <f>VLOOKUP(C61,Sheet2!B:E,3,0)</f>
+        <v>33</v>
+      </c>
+      <c r="AB61">
+        <f>VLOOKUP(C61,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62">
         <v>120</v>
       </c>
@@ -24017,8 +25578,20 @@
       <c r="Y62">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62">
+        <f>VLOOKUP(C62,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA62">
+        <f>VLOOKUP(C62,Sheet2!B:E,3,0)</f>
+        <v>37</v>
+      </c>
+      <c r="AB62">
+        <f>VLOOKUP(C62,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28">
       <c r="A63">
         <v>121</v>
       </c>
@@ -24095,8 +25668,20 @@
       <c r="Y63">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63">
+        <f>VLOOKUP(C63,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA63">
+        <f>VLOOKUP(C63,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB63">
+        <f>VLOOKUP(C63,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64">
         <v>121</v>
       </c>
@@ -24173,8 +25758,20 @@
       <c r="Y64">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64">
+        <f>VLOOKUP(C64,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA64">
+        <f>VLOOKUP(C64,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB64">
+        <f>VLOOKUP(C64,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28">
       <c r="A65">
         <v>122</v>
       </c>
@@ -24251,8 +25848,20 @@
       <c r="Y65">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65">
+        <f>VLOOKUP(C65,Sheet2!B:E,2,0)</f>
+        <v>22</v>
+      </c>
+      <c r="AA65">
+        <f>VLOOKUP(C65,Sheet2!B:E,3,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AB65">
+        <f>VLOOKUP(C65,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28">
       <c r="A66">
         <v>123</v>
       </c>
@@ -24329,8 +25938,20 @@
       <c r="Y66">
         <v>-0.36538461538461509</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66">
+        <f>VLOOKUP(C66,Sheet2!B:E,2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AA66">
+        <f>VLOOKUP(C66,Sheet2!B:E,3,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AB66">
+        <f>VLOOKUP(C66,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
       <c r="A67">
         <v>124</v>
       </c>
@@ -24407,8 +26028,20 @@
       <c r="Y67">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67">
+        <f>VLOOKUP(C67,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA67">
+        <f>VLOOKUP(C67,Sheet2!B:E,3,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AB67">
+        <f>VLOOKUP(C67,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28">
       <c r="A68">
         <v>125</v>
       </c>
@@ -24485,8 +26118,20 @@
       <c r="Y68">
         <v>-1.3269230769230766</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68">
+        <f>VLOOKUP(C68,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA68">
+        <f>VLOOKUP(C68,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB68">
+        <f>VLOOKUP(C68,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28">
       <c r="A69">
         <v>126</v>
       </c>
@@ -24563,8 +26208,20 @@
       <c r="Y69">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69">
+        <f>VLOOKUP(C69,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA69">
+        <f>VLOOKUP(C69,Sheet2!B:E,3,0)</f>
+        <v>33</v>
+      </c>
+      <c r="AB69">
+        <f>VLOOKUP(C69,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28">
       <c r="A70">
         <v>127</v>
       </c>
@@ -24641,8 +26298,20 @@
       <c r="Y70">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70">
+        <f>VLOOKUP(C70,Sheet2!B:E,2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="AA70">
+        <f>VLOOKUP(C70,Sheet2!B:E,3,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AB70">
+        <f>VLOOKUP(C70,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
       <c r="A71">
         <v>128</v>
       </c>
@@ -24719,8 +26388,20 @@
       <c r="Y71">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71">
+        <f>VLOOKUP(C71,Sheet2!B:E,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AA71">
+        <f>VLOOKUP(C71,Sheet2!B:E,3,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB71">
+        <f>VLOOKUP(C71,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28">
       <c r="A72">
         <v>129</v>
       </c>
@@ -24797,8 +26478,20 @@
       <c r="Y72">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72">
+        <f>VLOOKUP(C72,Sheet2!B:E,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="AA72">
+        <f>VLOOKUP(C72,Sheet2!B:E,3,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AB72">
+        <f>VLOOKUP(C72,Sheet2!B:E,4,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
       <c r="A73">
         <v>201</v>
       </c>
@@ -24875,8 +26568,20 @@
       <c r="Y73">
         <v>-1.1346153846153844</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73">
+        <f>VLOOKUP(C73,Sheet2!B:E,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AA73">
+        <f>VLOOKUP(C73,Sheet2!B:E,3,0)</f>
+        <v>33</v>
+      </c>
+      <c r="AB73">
+        <f>VLOOKUP(C73,Sheet2!B:E,4,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28">
       <c r="A74">
         <v>202</v>
       </c>
@@ -24953,8 +26658,20 @@
       <c r="Y74">
         <v>-0.74999999999999967</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74">
+        <f>VLOOKUP(C74,Sheet2!B:E,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="AA74">
+        <f>VLOOKUP(C74,Sheet2!B:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AB74">
+        <f>VLOOKUP(C74,Sheet2!B:E,4,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28">
       <c r="A75">
         <v>203</v>
       </c>
@@ -25031,8 +26748,20 @@
       <c r="Y75">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75">
+        <f>VLOOKUP(C75,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA75">
+        <f>VLOOKUP(C75,Sheet2!B:E,3,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB75">
+        <f>VLOOKUP(C75,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28">
       <c r="A76">
         <v>204</v>
       </c>
@@ -25109,8 +26838,20 @@
       <c r="Y76">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76">
+        <f>VLOOKUP(C76,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA76">
+        <f>VLOOKUP(C76,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB76">
+        <f>VLOOKUP(C76,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" hidden="1">
       <c r="A77">
         <v>205</v>
       </c>
@@ -25187,8 +26928,20 @@
       <c r="Y77">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="78" spans="1:25" s="65" customFormat="1">
+      <c r="Z77">
+        <f>VLOOKUP(C77,Sheet2!B:E,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="AA77">
+        <f>VLOOKUP(C77,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB77">
+        <f>VLOOKUP(C77,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="65" customFormat="1">
       <c r="A78" s="65">
         <v>205</v>
       </c>
@@ -25265,8 +27018,20 @@
       <c r="Y78" s="65">
         <v>0.59615384615384637</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78">
+        <f>VLOOKUP(C78,Sheet2!B:E,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="AA78">
+        <f>VLOOKUP(C78,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB78">
+        <f>VLOOKUP(C78,Sheet2!B:E,4,0)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
       <c r="A79">
         <v>206</v>
       </c>
@@ -25343,8 +27108,20 @@
       <c r="Y79">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79">
+        <f>VLOOKUP(C79,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA79">
+        <f>VLOOKUP(C79,Sheet2!B:E,3,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AB79">
+        <f>VLOOKUP(C79,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28">
       <c r="A80">
         <v>207</v>
       </c>
@@ -25421,8 +27198,20 @@
       <c r="Y80">
         <v>0.21153846153846181</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80">
+        <f>VLOOKUP(C80,Sheet2!B:E,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AA80">
+        <f>VLOOKUP(C80,Sheet2!B:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AB80">
+        <f>VLOOKUP(C80,Sheet2!B:E,4,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28">
       <c r="A81">
         <v>208</v>
       </c>
@@ -25499,8 +27288,20 @@
       <c r="Y81">
         <v>-0.94230769230769196</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81">
+        <f>VLOOKUP(C81,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA81">
+        <f>VLOOKUP(C81,Sheet2!B:E,3,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AB81">
+        <f>VLOOKUP(C81,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28">
       <c r="A82">
         <v>209</v>
       </c>
@@ -25577,8 +27378,20 @@
       <c r="Y82">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82">
+        <f>VLOOKUP(C82,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA82">
+        <f>VLOOKUP(C82,Sheet2!B:E,3,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AB82">
+        <f>VLOOKUP(C82,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
       <c r="A83">
         <v>210</v>
       </c>
@@ -25655,8 +27468,20 @@
       <c r="Y83">
         <v>0.21153846153846181</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83">
+        <f>VLOOKUP(C83,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA83">
+        <f>VLOOKUP(C83,Sheet2!B:E,3,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB83">
+        <f>VLOOKUP(C83,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
       <c r="A84">
         <v>211</v>
       </c>
@@ -25733,8 +27558,20 @@
       <c r="Y84">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84">
+        <f>VLOOKUP(C84,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA84">
+        <f>VLOOKUP(C84,Sheet2!B:E,3,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AB84">
+        <f>VLOOKUP(C84,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28">
       <c r="A85">
         <v>212</v>
       </c>
@@ -25811,8 +27648,20 @@
       <c r="Y85">
         <v>0.78846153846153866</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85">
+        <f>VLOOKUP(C85,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA85">
+        <f>VLOOKUP(C85,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB85">
+        <f>VLOOKUP(C85,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28">
       <c r="A86">
         <v>213</v>
       </c>
@@ -25889,8 +27738,20 @@
       <c r="Y86">
         <v>0.59615384615384637</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86">
+        <f>VLOOKUP(C86,Sheet2!B:E,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AA86">
+        <f>VLOOKUP(C86,Sheet2!B:E,3,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AB86">
+        <f>VLOOKUP(C86,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
       <c r="A87">
         <v>214</v>
       </c>
@@ -25967,8 +27828,20 @@
       <c r="Y87">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87">
+        <f>VLOOKUP(C87,Sheet2!B:E,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AA87">
+        <f>VLOOKUP(C87,Sheet2!B:E,3,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AB87">
+        <f>VLOOKUP(C87,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
       <c r="A88">
         <v>215</v>
       </c>
@@ -26045,8 +27918,20 @@
       <c r="Y88">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88">
+        <f>VLOOKUP(C88,Sheet2!B:E,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AA88">
+        <f>VLOOKUP(C88,Sheet2!B:E,3,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AB88">
+        <f>VLOOKUP(C88,Sheet2!B:E,4,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28">
       <c r="A89">
         <v>216</v>
       </c>
@@ -26123,8 +28008,20 @@
       <c r="Y89">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89">
+        <f>VLOOKUP(C89,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA89">
+        <f>VLOOKUP(C89,Sheet2!B:E,3,0)</f>
+        <v>38</v>
+      </c>
+      <c r="AB89">
+        <f>VLOOKUP(C89,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
       <c r="A90">
         <v>217</v>
       </c>
@@ -26201,8 +28098,20 @@
       <c r="Y90">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90">
+        <f>VLOOKUP(C90,Sheet2!B:E,2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AA90">
+        <f>VLOOKUP(C90,Sheet2!B:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AB90">
+        <f>VLOOKUP(C90,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28">
       <c r="A91">
         <v>218</v>
       </c>
@@ -26279,8 +28188,20 @@
       <c r="Y91">
         <v>1.1730769230769234</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91">
+        <f>VLOOKUP(C91,Sheet2!B:E,2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AA91">
+        <f>VLOOKUP(C91,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB91">
+        <f>VLOOKUP(C91,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28">
       <c r="A92">
         <v>219</v>
       </c>
@@ -26357,8 +28278,20 @@
       <c r="Y92">
         <v>-0.1730769230769228</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92">
+        <f>VLOOKUP(C92,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA92">
+        <f>VLOOKUP(C92,Sheet2!B:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AB92">
+        <f>VLOOKUP(C92,Sheet2!B:E,4,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28">
       <c r="A93">
         <v>220</v>
       </c>
@@ -26435,8 +28368,20 @@
       <c r="Y93">
         <v>0.98076923076923106</v>
       </c>
-    </row>
-    <row r="94" spans="1:25" hidden="1">
+      <c r="Z93">
+        <f>VLOOKUP(C93,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA93">
+        <f>VLOOKUP(C93,Sheet2!B:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AB93">
+        <f>VLOOKUP(C93,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" hidden="1">
       <c r="A94">
         <v>221</v>
       </c>
@@ -26514,7 +28459,7 @@
         <v>-1.1346153846153844</v>
       </c>
     </row>
-    <row r="95" spans="1:25" hidden="1">
+    <row r="95" spans="1:28" hidden="1">
       <c r="A95">
         <v>301</v>
       </c>
@@ -26592,7 +28537,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="96" spans="1:25" hidden="1">
+    <row r="96" spans="1:28" hidden="1">
       <c r="A96">
         <v>302</v>
       </c>
@@ -27918,7 +29863,7 @@
         <v>-0.94230769230769196</v>
       </c>
     </row>
-    <row r="113" spans="1:25" hidden="1">
+    <row r="113" spans="1:28" hidden="1">
       <c r="A113">
         <v>102401</v>
       </c>
@@ -27996,7 +29941,7 @@
         <v>-2.2884615384615383</v>
       </c>
     </row>
-    <row r="114" spans="1:25" hidden="1">
+    <row r="114" spans="1:28" hidden="1">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -28074,7 +30019,7 @@
         <v>-0.55769230769230738</v>
       </c>
     </row>
-    <row r="115" spans="1:25" hidden="1">
+    <row r="115" spans="1:28" hidden="1">
       <c r="A115" t="s">
         <v>208</v>
       </c>
@@ -28152,7 +30097,7 @@
         <v>-0.1730769230769228</v>
       </c>
     </row>
-    <row r="116" spans="1:25" hidden="1">
+    <row r="116" spans="1:28" hidden="1">
       <c r="A116" t="s">
         <v>210</v>
       </c>
@@ -28230,7 +30175,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="117" spans="1:25" hidden="1">
+    <row r="117" spans="1:28" hidden="1">
       <c r="A117" t="s">
         <v>212</v>
       </c>
@@ -28308,7 +30253,7 @@
         <v>1.9230769230769502E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:25" hidden="1">
+    <row r="118" spans="1:28" hidden="1">
       <c r="A118" t="s">
         <v>214</v>
       </c>
@@ -28386,7 +30331,7 @@
         <v>0.21153846153846181</v>
       </c>
     </row>
-    <row r="119" spans="1:25" hidden="1">
+    <row r="119" spans="1:28" hidden="1">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -28464,7 +30409,7 @@
         <v>-0.1730769230769228</v>
       </c>
     </row>
-    <row r="120" spans="1:25">
+    <row r="120" spans="1:28">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -28541,8 +30486,20 @@
       <c r="Y120">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="Z120">
+        <f>VLOOKUP(C120,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA120">
+        <f>VLOOKUP(C120,Sheet2!B:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AB120">
+        <f>VLOOKUP(C120,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -28619,8 +30576,20 @@
       <c r="Y121">
         <v>-0.36538461538461509</v>
       </c>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="Z121">
+        <f>VLOOKUP(C121,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA121">
+        <f>VLOOKUP(C121,Sheet2!B:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AB121">
+        <f>VLOOKUP(C121,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
       <c r="A122" t="s">
         <v>216</v>
       </c>
@@ -28697,8 +30666,20 @@
       <c r="Y122">
         <v>-0.55769230769230738</v>
       </c>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="Z122">
+        <f>VLOOKUP(C122,Sheet2!B:E,2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AA122">
+        <f>VLOOKUP(C122,Sheet2!B:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AB122">
+        <f>VLOOKUP(C122,Sheet2!B:E,4,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
       <c r="A123" t="s">
         <v>218</v>
       </c>
@@ -28775,8 +30756,20 @@
       <c r="Y123">
         <v>1.9230769230769502E-2</v>
       </c>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="Z123">
+        <f>VLOOKUP(C123,Sheet2!B:E,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AA123">
+        <f>VLOOKUP(C123,Sheet2!B:E,3,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AB123">
+        <f>VLOOKUP(C123,Sheet2!B:E,4,0)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -28853,8 +30846,20 @@
       <c r="Y124">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="125" spans="1:25" hidden="1">
+      <c r="Z124">
+        <f>VLOOKUP(C124,Sheet2!B:E,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AA124">
+        <f>VLOOKUP(C124,Sheet2!B:E,3,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AB124">
+        <f>VLOOKUP(C124,Sheet2!B:E,4,0)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:28" hidden="1">
       <c r="A125" t="s">
         <v>129</v>
       </c>
@@ -28932,7 +30937,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="126" spans="1:25" hidden="1">
+    <row r="126" spans="1:28" hidden="1">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -29010,7 +31015,7 @@
         <v>-1.9038461538461535</v>
       </c>
     </row>
-    <row r="127" spans="1:25">
+    <row r="127" spans="1:28">
       <c r="A127" t="s">
         <v>143</v>
       </c>
@@ -29087,8 +31092,20 @@
       <c r="Y127">
         <v>0.21153846153846181</v>
       </c>
-    </row>
-    <row r="128" spans="1:25">
+      <c r="Z127">
+        <f>VLOOKUP(C127,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA127">
+        <f>VLOOKUP(C127,Sheet2!B:E,3,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AB127">
+        <f>VLOOKUP(C127,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -29165,8 +31182,20 @@
       <c r="Y128">
         <v>0.40384615384615413</v>
       </c>
-    </row>
-    <row r="129" spans="1:25" s="65" customFormat="1" hidden="1">
+      <c r="Z128">
+        <f>VLOOKUP(C128,Sheet2!B:E,2,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AA128">
+        <f>VLOOKUP(C128,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB128">
+        <f>VLOOKUP(C128,Sheet2!B:E,4,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" s="65" customFormat="1" hidden="1">
       <c r="A129" s="65" t="s">
         <v>154</v>
       </c>
@@ -29244,7 +31273,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="130" spans="1:25">
+    <row r="130" spans="1:28">
       <c r="A130" t="s">
         <v>233</v>
       </c>
@@ -29321,8 +31350,20 @@
       <c r="Y130">
         <v>-1.9038461538461535</v>
       </c>
-    </row>
-    <row r="131" spans="1:25">
+      <c r="Z130">
+        <f>VLOOKUP(C130,Sheet2!B:E,2,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AA130">
+        <f>VLOOKUP(C130,Sheet2!B:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AB130">
+        <f>VLOOKUP(C130,Sheet2!B:E,4,0)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
       <c r="A131" t="s">
         <v>242</v>
       </c>
@@ -29399,8 +31440,20 @@
       <c r="Y131">
         <v>2.3269230769230771</v>
       </c>
-    </row>
-    <row r="132" spans="1:25" hidden="1">
+      <c r="Z131">
+        <f>VLOOKUP(C131,Sheet2!B:E,2,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AA131">
+        <f>VLOOKUP(C131,Sheet2!B:E,3,0)</f>
+        <v>48</v>
+      </c>
+      <c r="AB131">
+        <f>VLOOKUP(C131,Sheet2!B:E,4,0)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" hidden="1">
       <c r="A132" t="s">
         <v>163</v>
       </c>
@@ -29478,7 +31531,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="133" spans="1:25" hidden="1">
+    <row r="133" spans="1:28" hidden="1">
       <c r="A133" t="s">
         <v>226</v>
       </c>
@@ -29556,7 +31609,7 @@
         <v>0.59615384615384637</v>
       </c>
     </row>
-    <row r="134" spans="1:25" hidden="1">
+    <row r="134" spans="1:28" hidden="1">
       <c r="A134" t="s">
         <v>228</v>
       </c>
@@ -29634,7 +31687,7 @@
         <v>1.1730769230769234</v>
       </c>
     </row>
-    <row r="135" spans="1:25" hidden="1">
+    <row r="135" spans="1:28" hidden="1">
       <c r="A135" t="s">
         <v>114</v>
       </c>
@@ -29712,7 +31765,7 @@
         <v>0.78846153846153866</v>
       </c>
     </row>
-    <row r="136" spans="1:25" hidden="1">
+    <row r="136" spans="1:28" hidden="1">
       <c r="A136" t="s">
         <v>182</v>
       </c>
@@ -29898,6 +31951,2277 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99EC0F-654B-4779-BE51-16C89A07CE49}">
+  <dimension ref="A1:E133"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="C1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>38</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>38</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>39</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>34</v>
+      </c>
+      <c r="E27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>34</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>998</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30">
+        <v>26</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>111</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>115</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40">
+        <v>27</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>121</v>
+      </c>
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>38</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>118</v>
+      </c>
+      <c r="B43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43">
+        <v>30</v>
+      </c>
+      <c r="D43">
+        <v>33</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>141</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45">
+        <v>29</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>33</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>38</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>38</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51">
+        <v>29</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>122</v>
+      </c>
+      <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53">
+        <v>28</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>125</v>
+      </c>
+      <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>39</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>123</v>
+      </c>
+      <c r="B56" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57">
+        <v>29</v>
+      </c>
+      <c r="D57">
+        <v>38</v>
+      </c>
+      <c r="E57">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>62418</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>34</v>
+      </c>
+      <c r="E58">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>110</v>
+      </c>
+      <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60">
+        <v>27</v>
+      </c>
+      <c r="D60">
+        <v>37</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61">
+        <v>29</v>
+      </c>
+      <c r="D61">
+        <v>33</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>39</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>32</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>28</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>206</v>
+      </c>
+      <c r="B65" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>36</v>
+      </c>
+      <c r="E65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>301</v>
+      </c>
+      <c r="B66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>302</v>
+      </c>
+      <c r="B67" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67">
+        <v>29</v>
+      </c>
+      <c r="D67">
+        <v>33</v>
+      </c>
+      <c r="E67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>208</v>
+      </c>
+      <c r="B68" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68">
+        <v>27</v>
+      </c>
+      <c r="D68">
+        <v>29</v>
+      </c>
+      <c r="E68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69">
+        <v>21</v>
+      </c>
+      <c r="D69">
+        <v>29</v>
+      </c>
+      <c r="E69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>303</v>
+      </c>
+      <c r="B70" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>36</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>126</v>
+      </c>
+      <c r="B71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71">
+        <v>27</v>
+      </c>
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>304</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72">
+        <v>27</v>
+      </c>
+      <c r="D72">
+        <v>32</v>
+      </c>
+      <c r="E72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>201</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73">
+        <v>18</v>
+      </c>
+      <c r="D73">
+        <v>33</v>
+      </c>
+      <c r="E73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>202</v>
+      </c>
+      <c r="B74" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>34</v>
+      </c>
+      <c r="E74">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>305</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75">
+        <v>30</v>
+      </c>
+      <c r="D75">
+        <v>40</v>
+      </c>
+      <c r="E75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>306</v>
+      </c>
+      <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>38</v>
+      </c>
+      <c r="E76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>204</v>
+      </c>
+      <c r="B77" t="s">
+        <v>179</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>203</v>
+      </c>
+      <c r="B78" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78">
+        <v>29</v>
+      </c>
+      <c r="D78">
+        <v>35</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>307</v>
+      </c>
+      <c r="B79" t="s">
+        <v>181</v>
+      </c>
+      <c r="C79">
+        <v>28</v>
+      </c>
+      <c r="D79">
+        <v>29</v>
+      </c>
+      <c r="E79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="E80">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>214</v>
+      </c>
+      <c r="B81" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>32</v>
+      </c>
+      <c r="E81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>213</v>
+      </c>
+      <c r="B82" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82">
+        <v>24</v>
+      </c>
+      <c r="D82">
+        <v>32</v>
+      </c>
+      <c r="E82">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>310</v>
+      </c>
+      <c r="B83" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>311</v>
+      </c>
+      <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>38</v>
+      </c>
+      <c r="E84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>215</v>
+      </c>
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85">
+        <v>27</v>
+      </c>
+      <c r="D85">
+        <v>30</v>
+      </c>
+      <c r="E85">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>210</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86">
+        <v>29</v>
+      </c>
+      <c r="D86">
+        <v>35</v>
+      </c>
+      <c r="E86">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>216</v>
+      </c>
+      <c r="B87" t="s">
+        <v>190</v>
+      </c>
+      <c r="C87">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>38</v>
+      </c>
+      <c r="E87">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>221</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88">
+        <v>26</v>
+      </c>
+      <c r="D88">
+        <v>37</v>
+      </c>
+      <c r="E88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>220</v>
+      </c>
+      <c r="B89" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>34</v>
+      </c>
+      <c r="E89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>211</v>
+      </c>
+      <c r="B90" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>36</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>207</v>
+      </c>
+      <c r="B91" t="s">
+        <v>194</v>
+      </c>
+      <c r="C91">
+        <v>24</v>
+      </c>
+      <c r="D91">
+        <v>34</v>
+      </c>
+      <c r="E91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>209</v>
+      </c>
+      <c r="B92" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92">
+        <v>29</v>
+      </c>
+      <c r="D92">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>313</v>
+      </c>
+      <c r="B93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93">
+        <v>26</v>
+      </c>
+      <c r="D93">
+        <v>40</v>
+      </c>
+      <c r="E93">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>312</v>
+      </c>
+      <c r="B94" t="s">
+        <v>197</v>
+      </c>
+      <c r="C94">
+        <v>30</v>
+      </c>
+      <c r="D94">
+        <v>40</v>
+      </c>
+      <c r="E94">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>315</v>
+      </c>
+      <c r="B95" t="s">
+        <v>198</v>
+      </c>
+      <c r="C95">
+        <v>26</v>
+      </c>
+      <c r="D95">
+        <v>37</v>
+      </c>
+      <c r="E95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>219</v>
+      </c>
+      <c r="B96" t="s">
+        <v>199</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>34</v>
+      </c>
+      <c r="E96">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>314</v>
+      </c>
+      <c r="B97" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>28</v>
+      </c>
+      <c r="E97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>205</v>
+      </c>
+      <c r="B98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98">
+        <v>25</v>
+      </c>
+      <c r="D98">
+        <v>39</v>
+      </c>
+      <c r="E98">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>218</v>
+      </c>
+      <c r="B99" t="s">
+        <v>202</v>
+      </c>
+      <c r="C99">
+        <v>26</v>
+      </c>
+      <c r="D99">
+        <v>40</v>
+      </c>
+      <c r="E99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>212</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100">
+        <v>30</v>
+      </c>
+      <c r="D100">
+        <v>38</v>
+      </c>
+      <c r="E100">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>205</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101">
+        <v>30</v>
+      </c>
+      <c r="D101">
+        <v>40</v>
+      </c>
+      <c r="E101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>124</v>
+      </c>
+      <c r="B102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102">
+        <v>28</v>
+      </c>
+      <c r="E102">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>309</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103">
+        <v>28</v>
+      </c>
+      <c r="D103">
+        <v>31</v>
+      </c>
+      <c r="E103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>217</v>
+      </c>
+      <c r="B104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104">
+        <v>26</v>
+      </c>
+      <c r="D104">
+        <v>39</v>
+      </c>
+      <c r="E104">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>108</v>
+      </c>
+      <c r="B105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105">
+        <v>29</v>
+      </c>
+      <c r="D105">
+        <v>37</v>
+      </c>
+      <c r="E105">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106">
+        <v>24</v>
+      </c>
+      <c r="D106">
+        <v>40</v>
+      </c>
+      <c r="E106">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107">
+        <v>30</v>
+      </c>
+      <c r="D107">
+        <v>40</v>
+      </c>
+      <c r="E107">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108">
+        <v>27</v>
+      </c>
+      <c r="D108">
+        <v>34</v>
+      </c>
+      <c r="E108">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>214</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109">
+        <v>30</v>
+      </c>
+      <c r="D109">
+        <v>36</v>
+      </c>
+      <c r="E109">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>216</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110">
+        <v>26</v>
+      </c>
+      <c r="D110">
+        <v>34</v>
+      </c>
+      <c r="E110">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>218</v>
+      </c>
+      <c r="B111" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111">
+        <v>24</v>
+      </c>
+      <c r="D111">
+        <v>32</v>
+      </c>
+      <c r="E111">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>31</v>
+      </c>
+      <c r="B112" t="s">
+        <v>220</v>
+      </c>
+      <c r="C112">
+        <v>29</v>
+      </c>
+      <c r="D112">
+        <v>39</v>
+      </c>
+      <c r="E112">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>102401</v>
+      </c>
+      <c r="B113" t="s">
+        <v>221</v>
+      </c>
+      <c r="C113">
+        <v>30</v>
+      </c>
+      <c r="D113">
+        <v>40</v>
+      </c>
+      <c r="E113">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>32</v>
+      </c>
+      <c r="B114" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+      <c r="D114">
+        <v>38</v>
+      </c>
+      <c r="E114">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>34</v>
+      </c>
+      <c r="B115" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115">
+        <v>30</v>
+      </c>
+      <c r="D115">
+        <v>40</v>
+      </c>
+      <c r="E115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>34</v>
+      </c>
+      <c r="B116" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116">
+        <v>29</v>
+      </c>
+      <c r="D116">
+        <v>38</v>
+      </c>
+      <c r="E116">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>35</v>
+      </c>
+      <c r="B117" t="s">
+        <v>225</v>
+      </c>
+      <c r="C117">
+        <v>30</v>
+      </c>
+      <c r="D117">
+        <v>40</v>
+      </c>
+      <c r="E117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" t="s">
+        <v>227</v>
+      </c>
+      <c r="C118">
+        <v>26</v>
+      </c>
+      <c r="D118">
+        <v>39</v>
+      </c>
+      <c r="E118">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119">
+        <v>30</v>
+      </c>
+      <c r="D119">
+        <v>40</v>
+      </c>
+      <c r="E119">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>230</v>
+      </c>
+      <c r="C120">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>38</v>
+      </c>
+      <c r="E120">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121">
+        <v>29</v>
+      </c>
+      <c r="D121">
+        <v>39</v>
+      </c>
+      <c r="E121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>38</v>
+      </c>
+      <c r="B122" t="s">
+        <v>232</v>
+      </c>
+      <c r="C122">
+        <v>30</v>
+      </c>
+      <c r="D122">
+        <v>38</v>
+      </c>
+      <c r="E122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>155</v>
+      </c>
+      <c r="C123">
+        <v>29</v>
+      </c>
+      <c r="D123">
+        <v>40</v>
+      </c>
+      <c r="E123">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124">
+        <v>40</v>
+      </c>
+      <c r="B124" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124">
+        <v>30</v>
+      </c>
+      <c r="D124">
+        <v>19</v>
+      </c>
+      <c r="E124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125">
+        <v>28</v>
+      </c>
+      <c r="D125">
+        <v>31</v>
+      </c>
+      <c r="E125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126">
+        <v>42</v>
+      </c>
+      <c r="B126" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126">
+        <v>29</v>
+      </c>
+      <c r="D126">
+        <v>39</v>
+      </c>
+      <c r="E126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127">
+        <v>43</v>
+      </c>
+      <c r="B127" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127">
+        <v>30</v>
+      </c>
+      <c r="D127">
+        <v>40</v>
+      </c>
+      <c r="E127">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128">
+        <v>44</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+      <c r="C128">
+        <v>27</v>
+      </c>
+      <c r="D128">
+        <v>40</v>
+      </c>
+      <c r="E128">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>239</v>
+      </c>
+      <c r="C129">
+        <v>30</v>
+      </c>
+      <c r="D129">
+        <v>40</v>
+      </c>
+      <c r="E129">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130">
+        <v>46</v>
+      </c>
+      <c r="B130" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130">
+        <v>23</v>
+      </c>
+      <c r="D130">
+        <v>23</v>
+      </c>
+      <c r="E130">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131">
+        <v>47</v>
+      </c>
+      <c r="B131" t="s">
+        <v>241</v>
+      </c>
+      <c r="C131">
+        <v>36</v>
+      </c>
+      <c r="D131">
+        <v>48</v>
+      </c>
+      <c r="E131">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>242</v>
+      </c>
+      <c r="B132" t="s">
+        <v>243</v>
+      </c>
+      <c r="C132">
+        <v>36</v>
+      </c>
+      <c r="D132">
+        <v>48</v>
+      </c>
+      <c r="E132">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133">
+        <v>48</v>
+      </c>
+      <c r="B133" t="s">
+        <v>244</v>
+      </c>
+      <c r="C133">
+        <v>36</v>
+      </c>
+      <c r="D133">
+        <v>48</v>
+      </c>
+      <c r="E133">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB8EED-4414-468B-9161-DFD4643F94E1}">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -30441,7 +34765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4C0DF3-3E48-4713-92C4-405094B95233}">
   <dimension ref="A1:C51"/>
   <sheetViews>

--- a/data/score_total.xlsx
+++ b/data/score_total.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB3F467-903F-4B40-B34E-30D663613DFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D0CF1-54A1-42B8-A9FB-45B6808E2175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="TD" sheetId="5" r:id="rId2"/>
-    <sheet name="SPSRC" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="ASD touch" sheetId="2" r:id="rId5"/>
-    <sheet name="TD touch" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId2"/>
+    <sheet name="TD" sheetId="5" r:id="rId3"/>
+    <sheet name="SPSRC" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="ASD touch" sheetId="2" r:id="rId6"/>
+    <sheet name="TD touch" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$99</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">SPSRC!$A$1:$Y$136</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TD!$C$1:$C$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SPSRC!$A$1:$Y$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TD!$C$1:$C$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="337">
   <si>
     <t>group</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1599,6 +1600,66 @@
     <t>tactile_seek</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>GEM_tot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEM_affective</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEM_cognitive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2401</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2418</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToM</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>GEM_tot</t>
+  </si>
+  <si>
+    <t>GEM_affective</t>
+  </si>
+  <si>
+    <t>GEM_cognitive</t>
+  </si>
+  <si>
+    <t>ToM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tactile_threshold</t>
+  </si>
+  <si>
+    <t>pain_threshold</t>
+  </si>
 </sst>
 </file>
 
@@ -1610,7 +1671,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1777,8 +1838,14 @@
       <family val="4"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1865,8 +1932,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1898,11 +1977,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2159,9 +2290,52 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{A122BCCE-EC15-4E82-B695-49D9599FCDAF}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2450,20 +2624,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT99"/>
+  <dimension ref="A1:AZ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
+      <selection pane="bottomLeft" activeCell="AY96" sqref="AY96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
   <cols>
     <col min="21" max="21" width="9.125" bestFit="1" customWidth="1"/>
     <col min="22" max="43" width="5.875" customWidth="1"/>
+    <col min="51" max="52" width="8.875" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="63">
+    <row r="1" spans="1:52" ht="63">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2602,8 +2777,26 @@
       <c r="AT1" s="70" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" ht="15">
+      <c r="AU1" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV1" s="100" t="s">
+        <v>320</v>
+      </c>
+      <c r="AW1" s="100" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX1" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="AY1" s="106" t="s">
+        <v>335</v>
+      </c>
+      <c r="AZ1" s="106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2744,8 +2937,30 @@
       <c r="AT2" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" ht="15">
+      <c r="AU2" s="94">
+        <f>VLOOKUP(C2,Sheet3!A:E,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV2" s="94">
+        <f>VLOOKUP(C2,Sheet3!A:E,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW2" s="98">
+        <f>VLOOKUP(C2,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX2" s="99" t="str">
+        <f>VLOOKUP(C3,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY2" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ2" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2886,8 +3101,30 @@
       <c r="AT3" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" ht="15">
+      <c r="AU3" s="94">
+        <f>VLOOKUP(C3,Sheet3!A:E,3,0)</f>
+        <v>-50</v>
+      </c>
+      <c r="AV3" s="94">
+        <f>VLOOKUP(C3,Sheet3!A:E,4,0)</f>
+        <v>-22</v>
+      </c>
+      <c r="AW3" s="98">
+        <f>VLOOKUP(C3,Sheet3!A:E,5,0)</f>
+        <v>-9</v>
+      </c>
+      <c r="AX3" s="99" t="str">
+        <f>VLOOKUP(C4,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY3" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ3" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3028,8 +3265,30 @@
       <c r="AT4" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" ht="15">
+      <c r="AU4" s="94">
+        <f>VLOOKUP(C4,Sheet3!A:E,3,0)</f>
+        <v>-7</v>
+      </c>
+      <c r="AV4" s="94">
+        <f>VLOOKUP(C4,Sheet3!A:E,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW4" s="98">
+        <f>VLOOKUP(C4,Sheet3!A:E,5,0)</f>
+        <v>-10</v>
+      </c>
+      <c r="AX4" s="99" t="str">
+        <f>VLOOKUP(C5,Sheet3!A:E,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY4" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ4" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3170,8 +3429,30 @@
       <c r="AT5" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" ht="15">
+      <c r="AU5" s="94">
+        <f>VLOOKUP(C5,Sheet3!A:E,3,0)</f>
+        <v>71</v>
+      </c>
+      <c r="AV5" s="94">
+        <f>VLOOKUP(C5,Sheet3!A:E,4,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AW5" s="98">
+        <f>VLOOKUP(C5,Sheet3!A:E,5,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AX5" s="99" t="str">
+        <f>VLOOKUP(C6,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY5" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ5" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3312,8 +3593,30 @@
       <c r="AT6" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" ht="15">
+      <c r="AU6" s="94">
+        <f>VLOOKUP(C6,Sheet3!A:E,3,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AV6" s="94">
+        <f>VLOOKUP(C6,Sheet3!A:E,4,0)</f>
+        <v>19</v>
+      </c>
+      <c r="AW6" s="98">
+        <f>VLOOKUP(C6,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX6" s="99" t="str">
+        <f>VLOOKUP(C7,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY6" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ6" s="91">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3454,8 +3757,30 @@
       <c r="AT7" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" ht="15">
+      <c r="AU7" s="94">
+        <f>VLOOKUP(C7,Sheet3!A:E,3,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AV7" s="94">
+        <f>VLOOKUP(C7,Sheet3!A:E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW7" s="98">
+        <f>VLOOKUP(C7,Sheet3!A:E,5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AX7" s="99">
+        <f>VLOOKUP(C8,Sheet3!A:E,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY7" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ7" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3596,8 +3921,30 @@
       <c r="AT8" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" ht="15">
+      <c r="AU8" s="94">
+        <f>VLOOKUP(C8,Sheet3!A:E,3,0)</f>
+        <v>-25</v>
+      </c>
+      <c r="AV8" s="94">
+        <f>VLOOKUP(C8,Sheet3!A:E,4,0)</f>
+        <v>-10</v>
+      </c>
+      <c r="AW8" s="98">
+        <f>VLOOKUP(C8,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX8" s="99">
+        <f>VLOOKUP(C9,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY8" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ8" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3738,8 +4085,30 @@
       <c r="AT9" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" ht="15">
+      <c r="AU9" s="94">
+        <f>VLOOKUP(C9,Sheet3!A:E,3,0)</f>
+        <v>-17</v>
+      </c>
+      <c r="AV9" s="94">
+        <f>VLOOKUP(C9,Sheet3!A:E,4,0)</f>
+        <v>-12</v>
+      </c>
+      <c r="AW9" s="98">
+        <f>VLOOKUP(C9,Sheet3!A:E,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="99" t="str">
+        <f>VLOOKUP(C10,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY9" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ9" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3880,8 +4249,30 @@
       <c r="AT10" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" ht="15">
+      <c r="AU10" s="94">
+        <f>VLOOKUP(C10,Sheet3!A:E,3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AV10" s="94">
+        <f>VLOOKUP(C10,Sheet3!A:E,4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AW10" s="98">
+        <f>VLOOKUP(C10,Sheet3!A:E,5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AX10" s="99" t="str">
+        <f>VLOOKUP(C11,Sheet3!A:E,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY10" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ10" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4022,8 +4413,30 @@
       <c r="AT11" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" ht="15">
+      <c r="AU11" s="94">
+        <f>VLOOKUP(C11,Sheet3!A:E,3,0)</f>
+        <v>-37</v>
+      </c>
+      <c r="AV11" s="94">
+        <f>VLOOKUP(C11,Sheet3!A:E,4,0)</f>
+        <v>-14</v>
+      </c>
+      <c r="AW11" s="98">
+        <f>VLOOKUP(C11,Sheet3!A:E,5,0)</f>
+        <v>-7</v>
+      </c>
+      <c r="AX11" s="99" t="str">
+        <f>VLOOKUP(C12,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY11" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ11" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4164,8 +4577,30 @@
       <c r="AT12" s="91">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" ht="15">
+      <c r="AU12" s="94">
+        <f>VLOOKUP(C12,Sheet3!A:E,3,0)</f>
+        <v>-17</v>
+      </c>
+      <c r="AV12" s="94">
+        <f>VLOOKUP(C12,Sheet3!A:E,4,0)</f>
+        <v>-10</v>
+      </c>
+      <c r="AW12" s="98">
+        <f>VLOOKUP(C12,Sheet3!A:E,5,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AX12" s="99" t="str">
+        <f>VLOOKUP(C13,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY12" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ12" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4306,8 +4741,30 @@
       <c r="AT13" s="91">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" ht="15">
+      <c r="AU13" s="94">
+        <f>VLOOKUP(C13,Sheet3!A:E,3,0)</f>
+        <v>41</v>
+      </c>
+      <c r="AV13" s="94">
+        <f>VLOOKUP(C13,Sheet3!A:E,4,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AW13" s="98">
+        <f>VLOOKUP(C13,Sheet3!A:E,5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AX13" s="99" t="str">
+        <f>VLOOKUP(C14,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY13" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ13" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4448,8 +4905,30 @@
       <c r="AT14" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" ht="15">
+      <c r="AU14" s="94">
+        <f>VLOOKUP(C14,Sheet3!A:E,3,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AV14" s="94">
+        <f>VLOOKUP(C14,Sheet3!A:E,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AW14" s="98">
+        <f>VLOOKUP(C14,Sheet3!A:E,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AX14" s="99" t="str">
+        <f>VLOOKUP(C15,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY14" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ14" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -4590,8 +5069,30 @@
       <c r="AT15" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" ht="15">
+      <c r="AU15" s="94">
+        <f>VLOOKUP(C15,Sheet3!A:E,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV15" s="94">
+        <f>VLOOKUP(C15,Sheet3!A:E,4,0)</f>
+        <v>-19</v>
+      </c>
+      <c r="AW15" s="98">
+        <f>VLOOKUP(C15,Sheet3!A:E,5,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AX15" s="99" t="str">
+        <f>VLOOKUP(C16,Sheet3!A:E,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY15" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ15" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -4732,8 +5233,30 @@
       <c r="AT16" s="91">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" ht="15">
+      <c r="AU16" s="94">
+        <f>VLOOKUP(C16,Sheet3!A:E,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AV16" s="94">
+        <f>VLOOKUP(C16,Sheet3!A:E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW16" s="98">
+        <f>VLOOKUP(C16,Sheet3!A:E,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AX16" s="99" t="str">
+        <f>VLOOKUP(C17,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY16" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ16" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -4874,8 +5397,30 @@
       <c r="AT17" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" ht="15">
+      <c r="AU17" s="94">
+        <f>VLOOKUP(C17,Sheet3!A:E,3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AV17" s="94">
+        <f>VLOOKUP(C17,Sheet3!A:E,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AW17" s="98">
+        <f>VLOOKUP(C17,Sheet3!A:E,5,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="AX17" s="99" t="str">
+        <f>VLOOKUP(C18,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY17" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ17" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5016,8 +5561,30 @@
       <c r="AT18" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" ht="15">
+      <c r="AU18" s="94">
+        <f>VLOOKUP(C18,Sheet3!A:E,3,0)</f>
+        <v>-17</v>
+      </c>
+      <c r="AV18" s="94">
+        <f>VLOOKUP(C18,Sheet3!A:E,4,0)</f>
+        <v>-12</v>
+      </c>
+      <c r="AW18" s="98">
+        <f>VLOOKUP(C18,Sheet3!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX18" s="99" t="str">
+        <f>VLOOKUP(C19,Sheet3!A:E,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY18" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ18" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -5158,8 +5725,30 @@
       <c r="AT19" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:46" ht="15">
+      <c r="AU19" s="94">
+        <f>VLOOKUP(C19,Sheet3!A:E,3,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AV19" s="94">
+        <f>VLOOKUP(C19,Sheet3!A:E,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AW19" s="98">
+        <f>VLOOKUP(C19,Sheet3!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX19" s="99" t="str">
+        <f>VLOOKUP(C20,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY19" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ19" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5300,8 +5889,30 @@
       <c r="AT20" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" ht="15">
+      <c r="AU20" s="94">
+        <f>VLOOKUP(C20,Sheet3!A:E,3,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="AV20" s="94">
+        <f>VLOOKUP(C20,Sheet3!A:E,4,0)</f>
+        <v>-6</v>
+      </c>
+      <c r="AW20" s="98">
+        <f>VLOOKUP(C20,Sheet3!A:E,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AX20" s="99" t="str">
+        <f>VLOOKUP(C21,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY20" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ20" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -5442,8 +6053,30 @@
       <c r="AT21" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" ht="15">
+      <c r="AU21" s="94">
+        <f>VLOOKUP(C21,Sheet3!A:E,3,0)</f>
+        <v>-10</v>
+      </c>
+      <c r="AV21" s="94">
+        <f>VLOOKUP(C21,Sheet3!A:E,4,0)</f>
+        <v>-6</v>
+      </c>
+      <c r="AW21" s="98">
+        <f>VLOOKUP(C21,Sheet3!A:E,5,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="AX21" s="99" t="str">
+        <f>VLOOKUP(C22,Sheet3!A:E,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY21" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ21" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -5584,8 +6217,30 @@
       <c r="AT22" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:46" ht="15">
+      <c r="AU22" s="94">
+        <f>VLOOKUP(C22,Sheet3!A:E,3,0)</f>
+        <v>-18</v>
+      </c>
+      <c r="AV22" s="94">
+        <f>VLOOKUP(C22,Sheet3!A:E,4,0)</f>
+        <v>-12</v>
+      </c>
+      <c r="AW22" s="98">
+        <f>VLOOKUP(C22,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX22" s="99" t="str">
+        <f>VLOOKUP(C23,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY22" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ22" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -5726,8 +6381,30 @@
       <c r="AT23" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:46" ht="15">
+      <c r="AU23" s="94">
+        <f>VLOOKUP(C23,Sheet3!A:E,3,0)</f>
+        <v>11</v>
+      </c>
+      <c r="AV23" s="94">
+        <f>VLOOKUP(C23,Sheet3!A:E,4,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AW23" s="98">
+        <f>VLOOKUP(C23,Sheet3!A:E,5,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AX23" s="99" t="str">
+        <f>VLOOKUP(C24,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY23" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ23" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -5868,8 +6545,30 @@
       <c r="AT24" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:46" ht="15">
+      <c r="AU24" s="94">
+        <f>VLOOKUP(C24,Sheet3!A:E,3,0)</f>
+        <v>-25</v>
+      </c>
+      <c r="AV24" s="94">
+        <f>VLOOKUP(C24,Sheet3!A:E,4,0)</f>
+        <v>-20</v>
+      </c>
+      <c r="AW24" s="98">
+        <f>VLOOKUP(C24,Sheet3!A:E,5,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="AX24" s="99" t="str">
+        <f>VLOOKUP(C25,Sheet3!A:E,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY24" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ24" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -6010,8 +6709,30 @@
       <c r="AT25" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" ht="15">
+      <c r="AU25" s="94">
+        <f>VLOOKUP(C25,Sheet3!A:E,3,0)</f>
+        <v>-12</v>
+      </c>
+      <c r="AV25" s="94">
+        <f>VLOOKUP(C25,Sheet3!A:E,4,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="AW25" s="98">
+        <f>VLOOKUP(C25,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX25" s="99" t="str">
+        <f>VLOOKUP(C26,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY25" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ25" s="91">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6152,8 +6873,30 @@
       <c r="AT26" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" ht="15">
+      <c r="AU26" s="94">
+        <f>VLOOKUP(C26,Sheet3!A:E,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AV26" s="94">
+        <f>VLOOKUP(C26,Sheet3!A:E,4,0)</f>
+        <v>19</v>
+      </c>
+      <c r="AW26" s="98">
+        <f>VLOOKUP(C26,Sheet3!A:E,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="99" t="str">
+        <f>VLOOKUP(C27,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY26" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ26" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -6294,8 +7037,30 @@
       <c r="AT27" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:46" ht="15">
+      <c r="AU27" s="94">
+        <f>VLOOKUP(C27,Sheet3!A:E,3,0)</f>
+        <v>-5</v>
+      </c>
+      <c r="AV27" s="94">
+        <f>VLOOKUP(C27,Sheet3!A:E,4,0)</f>
+        <v>-6</v>
+      </c>
+      <c r="AW27" s="98">
+        <f>VLOOKUP(C27,Sheet3!A:E,5,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX27" s="99" t="str">
+        <f>VLOOKUP(C28,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY27" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ27" s="91">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -6436,8 +7201,30 @@
       <c r="AT28" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:46" ht="15">
+      <c r="AU28" s="94">
+        <f>VLOOKUP(C28,Sheet3!A:E,3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AV28" s="94">
+        <f>VLOOKUP(C28,Sheet3!A:E,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AW28" s="98">
+        <f>VLOOKUP(C28,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX28" s="99" t="str">
+        <f>VLOOKUP(C29,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY28" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ28" s="91">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -6578,8 +7365,30 @@
       <c r="AT29" s="91">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:46" ht="15">
+      <c r="AU29" s="94">
+        <f>VLOOKUP(C29,Sheet3!A:E,3,0)</f>
+        <v>23</v>
+      </c>
+      <c r="AV29" s="94">
+        <f>VLOOKUP(C29,Sheet3!A:E,4,0)</f>
+        <v>11</v>
+      </c>
+      <c r="AW29" s="98">
+        <f>VLOOKUP(C29,Sheet3!A:E,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AX29" s="99" t="str">
+        <f>VLOOKUP(C30,Sheet3!A:E,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY29" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ29" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -6720,8 +7529,30 @@
       <c r="AT30" s="91">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:46" ht="15">
+      <c r="AU30" s="94">
+        <f>VLOOKUP(C30,Sheet3!A:E,3,0)</f>
+        <v>-31</v>
+      </c>
+      <c r="AV30" s="94">
+        <f>VLOOKUP(C30,Sheet3!A:E,4,0)</f>
+        <v>-13</v>
+      </c>
+      <c r="AW30" s="98">
+        <f>VLOOKUP(C30,Sheet3!A:E,5,0)</f>
+        <v>-5</v>
+      </c>
+      <c r="AX30" s="99" t="str">
+        <f>VLOOKUP(C31,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY30" s="91">
+        <v>3.22</v>
+      </c>
+      <c r="AZ30" s="91">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -6862,8 +7693,30 @@
       <c r="AT31" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:46" ht="15">
+      <c r="AU31" s="94">
+        <f>VLOOKUP(C31,Sheet3!A:E,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AV31" s="94">
+        <f>VLOOKUP(C31,Sheet3!A:E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW31" s="98">
+        <f>VLOOKUP(C31,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX31" s="99" t="str">
+        <f>VLOOKUP(C32,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY31" s="91">
+        <v>2.44</v>
+      </c>
+      <c r="AZ31" s="91">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -7004,8 +7857,30 @@
       <c r="AT32" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:46" ht="15">
+      <c r="AU32" s="94">
+        <f>VLOOKUP(C32,Sheet3!A:E,3,0)</f>
+        <v>46</v>
+      </c>
+      <c r="AV32" s="94">
+        <f>VLOOKUP(C32,Sheet3!A:E,4,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AW32" s="98">
+        <f>VLOOKUP(C32,Sheet3!A:E,5,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AX32" s="99" t="str">
+        <f>VLOOKUP(C33,Sheet3!A:E,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY32" s="91">
+        <v>2.44</v>
+      </c>
+      <c r="AZ32" s="91">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -7146,8 +8021,30 @@
       <c r="AT33" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:46" ht="15">
+      <c r="AU33" s="94">
+        <f>VLOOKUP(C33,Sheet3!A:E,3,0)</f>
+        <v>-17</v>
+      </c>
+      <c r="AV33" s="94">
+        <f>VLOOKUP(C33,Sheet3!A:E,4,0)</f>
+        <v>-13</v>
+      </c>
+      <c r="AW33" s="98">
+        <f>VLOOKUP(C33,Sheet3!A:E,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX33" s="99" t="str">
+        <f>VLOOKUP(C34,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY33" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ33" s="91">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -7288,8 +8185,30 @@
       <c r="AT34" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:46" ht="15">
+      <c r="AU34" s="94">
+        <f>VLOOKUP(C34,Sheet3!A:E,3,0)</f>
+        <v>-24</v>
+      </c>
+      <c r="AV34" s="94">
+        <f>VLOOKUP(C34,Sheet3!A:E,4,0)</f>
+        <v>-13</v>
+      </c>
+      <c r="AW34" s="98">
+        <f>VLOOKUP(C34,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX34" s="99" t="str">
+        <f>VLOOKUP(C35,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY34" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ34" s="91">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -7430,8 +8349,30 @@
       <c r="AT35" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:46" ht="15">
+      <c r="AU35" s="94">
+        <f>VLOOKUP(C35,Sheet3!A:E,3,0)</f>
+        <v>-14</v>
+      </c>
+      <c r="AV35" s="94">
+        <f>VLOOKUP(C35,Sheet3!A:E,4,0)</f>
+        <v>-11</v>
+      </c>
+      <c r="AW35" s="98">
+        <f>VLOOKUP(C35,Sheet3!A:E,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AX35" s="99" t="str">
+        <f>VLOOKUP(C36,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY35" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ35" s="91">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -7572,8 +8513,30 @@
       <c r="AT36" s="91">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:46" ht="15">
+      <c r="AU36" s="94">
+        <f>VLOOKUP(C36,Sheet3!A:E,3,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AV36" s="94">
+        <f>VLOOKUP(C36,Sheet3!A:E,4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AW36" s="98">
+        <f>VLOOKUP(C36,Sheet3!A:E,5,0)</f>
+        <v>-5</v>
+      </c>
+      <c r="AX36" s="99" t="str">
+        <f>VLOOKUP(C37,Sheet3!A:E,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY36" s="91">
+        <v>2.44</v>
+      </c>
+      <c r="AZ36" s="91">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -7714,8 +8677,30 @@
       <c r="AT37" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:46" ht="15">
+      <c r="AU37" s="94">
+        <f>VLOOKUP(C37,Sheet3!A:E,3,0)</f>
+        <v>-28</v>
+      </c>
+      <c r="AV37" s="94">
+        <f>VLOOKUP(C37,Sheet3!A:E,4,0)</f>
+        <v>-8</v>
+      </c>
+      <c r="AW37" s="98">
+        <f>VLOOKUP(C37,Sheet3!A:E,5,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AX37" s="99" t="str">
+        <f>VLOOKUP(C38,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY37" s="91">
+        <v>1.65</v>
+      </c>
+      <c r="AZ37" s="91">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -7856,8 +8841,30 @@
       <c r="AT38" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:46" ht="15">
+      <c r="AU38" s="94">
+        <f>VLOOKUP(C38,Sheet3!A:E,3,0)</f>
+        <v>-24</v>
+      </c>
+      <c r="AV38" s="94">
+        <f>VLOOKUP(C38,Sheet3!A:E,4,0)</f>
+        <v>-15</v>
+      </c>
+      <c r="AW38" s="98">
+        <f>VLOOKUP(C38,Sheet3!A:E,5,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="AX38" s="99" t="str">
+        <f>VLOOKUP(C39,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY38" s="91">
+        <v>2.44</v>
+      </c>
+      <c r="AZ38" s="91">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -7998,8 +9005,30 @@
       <c r="AT39" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:46" ht="15">
+      <c r="AU39" s="94">
+        <f>VLOOKUP(C39,Sheet3!A:E,3,0)</f>
+        <v>19</v>
+      </c>
+      <c r="AV39" s="94">
+        <f>VLOOKUP(C39,Sheet3!A:E,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AW39" s="98">
+        <f>VLOOKUP(C39,Sheet3!A:E,5,0)</f>
+        <v>11</v>
+      </c>
+      <c r="AX39" s="99" t="str">
+        <f>VLOOKUP(C40,Sheet3!A:E,2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AY39" s="91">
+        <v>1.65</v>
+      </c>
+      <c r="AZ39" s="91">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -8140,8 +9169,30 @@
       <c r="AT40" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:46" ht="15">
+      <c r="AU40" s="94">
+        <f>VLOOKUP(C40,Sheet3!A:E,3,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AV40" s="94">
+        <f>VLOOKUP(C40,Sheet3!A:E,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AW40" s="98">
+        <f>VLOOKUP(C40,Sheet3!A:E,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AX40" s="99" t="str">
+        <f>VLOOKUP(C41,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY40" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ40" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -8282,8 +9333,30 @@
       <c r="AT41" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:46" ht="15">
+      <c r="AU41" s="94">
+        <f>VLOOKUP(C41,Sheet3!A:E,3,0)</f>
+        <v>-36</v>
+      </c>
+      <c r="AV41" s="94">
+        <f>VLOOKUP(C41,Sheet3!A:E,4,0)</f>
+        <v>-15</v>
+      </c>
+      <c r="AW41" s="98">
+        <f>VLOOKUP(C41,Sheet3!A:E,5,0)</f>
+        <v>-14</v>
+      </c>
+      <c r="AX41" s="99" t="str">
+        <f>VLOOKUP(C42,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY41" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ41" s="91">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -8424,8 +9497,30 @@
       <c r="AT42" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:46" ht="15">
+      <c r="AU42" s="94">
+        <f>VLOOKUP(C42,Sheet3!A:E,3,0)</f>
+        <v>-40</v>
+      </c>
+      <c r="AV42" s="94">
+        <f>VLOOKUP(C42,Sheet3!A:E,4,0)</f>
+        <v>-26</v>
+      </c>
+      <c r="AW42" s="98">
+        <f>VLOOKUP(C42,Sheet3!A:E,5,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="AX42" s="99" t="str">
+        <f>VLOOKUP(C43,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY42" s="91">
+        <v>2.44</v>
+      </c>
+      <c r="AZ42" s="91">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -8566,8 +9661,30 @@
       <c r="AT43" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:46" ht="15">
+      <c r="AU43" s="94">
+        <f>VLOOKUP(C43,Sheet3!A:E,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AV43" s="94">
+        <f>VLOOKUP(C43,Sheet3!A:E,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AW43" s="98">
+        <f>VLOOKUP(C43,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX43" s="99" t="str">
+        <f>VLOOKUP(C44,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY43" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ43" s="91">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -8708,8 +9825,30 @@
       <c r="AT44" s="91">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:46" ht="15">
+      <c r="AU44" s="94">
+        <f>VLOOKUP(C44,Sheet3!A:E,3,0)</f>
+        <v>-12</v>
+      </c>
+      <c r="AV44" s="94">
+        <f>VLOOKUP(C44,Sheet3!A:E,4,0)</f>
+        <v>-11</v>
+      </c>
+      <c r="AW44" s="98">
+        <f>VLOOKUP(C44,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX44" s="99" t="str">
+        <f>VLOOKUP(C45,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY44" s="91">
+        <v>1.65</v>
+      </c>
+      <c r="AZ44" s="91">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -8850,8 +9989,30 @@
       <c r="AT45" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:46" ht="15">
+      <c r="AU45" s="94">
+        <f>VLOOKUP(C45,Sheet3!A:E,3,0)</f>
+        <v>62</v>
+      </c>
+      <c r="AV45" s="94">
+        <f>VLOOKUP(C45,Sheet3!A:E,4,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AW45" s="98">
+        <f>VLOOKUP(C45,Sheet3!A:E,5,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AX45" s="99" t="str">
+        <f>VLOOKUP(C46,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY45" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ45" s="91">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -8992,8 +10153,30 @@
       <c r="AT46" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:46" ht="15">
+      <c r="AU46" s="94">
+        <f>VLOOKUP(C46,Sheet3!A:E,3,0)</f>
+        <v>-38</v>
+      </c>
+      <c r="AV46" s="94">
+        <f>VLOOKUP(C46,Sheet3!A:E,4,0)</f>
+        <v>-19</v>
+      </c>
+      <c r="AW46" s="98">
+        <f>VLOOKUP(C46,Sheet3!A:E,5,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AX46" s="99" t="str">
+        <f>VLOOKUP(C47,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY46" s="91">
+        <v>2.44</v>
+      </c>
+      <c r="AZ46" s="91">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -9134,8 +10317,30 @@
       <c r="AT47" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:46" ht="15">
+      <c r="AU47" s="94">
+        <f>VLOOKUP(C47,Sheet3!A:E,3,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="AV47" s="94">
+        <f>VLOOKUP(C47,Sheet3!A:E,4,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AW47" s="98">
+        <f>VLOOKUP(C47,Sheet3!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX47" s="99" t="str">
+        <f>VLOOKUP(C48,Sheet3!A:E,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY47" s="91">
+        <v>1.65</v>
+      </c>
+      <c r="AZ47" s="91">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -9276,8 +10481,30 @@
       <c r="AT48" s="91">
         <v>15</v>
       </c>
-    </row>
-    <row r="49" spans="1:46" ht="15">
+      <c r="AU48" s="94">
+        <f>VLOOKUP(C48,Sheet3!A:E,3,0)</f>
+        <v>23</v>
+      </c>
+      <c r="AV48" s="94">
+        <f>VLOOKUP(C48,Sheet3!A:E,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW48" s="98">
+        <f>VLOOKUP(C48,Sheet3!A:E,5,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AX48" s="99" t="str">
+        <f>VLOOKUP(C49,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY48" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ48" s="91">
+        <v>4.3099999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -9418,8 +10645,27 @@
       <c r="AT49" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:46" ht="15">
+      <c r="AU49" s="94">
+        <f>VLOOKUP(C49,Sheet3!A:E,3,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AV49" s="94">
+        <f>VLOOKUP(C49,Sheet3!A:E,4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AW49" s="98">
+        <f>VLOOKUP(C49,Sheet3!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX49" s="105"/>
+      <c r="AY49" s="91">
+        <v>2.36</v>
+      </c>
+      <c r="AZ49" s="91">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52">
       <c r="A50" s="72">
         <v>2</v>
       </c>
@@ -9560,8 +10806,27 @@
       <c r="AT50" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:46" ht="15">
+      <c r="AU50" s="94">
+        <f>VLOOKUP(C50,Sheet3!A:E,3,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="AV50" s="94">
+        <f>VLOOKUP(C50,Sheet3!A:E,4,0)</f>
+        <v>-7</v>
+      </c>
+      <c r="AW50" s="98">
+        <f>VLOOKUP(C50,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX50" s="105"/>
+      <c r="AY50" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ50" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52">
       <c r="A51" s="72">
         <v>2</v>
       </c>
@@ -9702,8 +10967,27 @@
       <c r="AT51" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:46" ht="15">
+      <c r="AU51" s="94">
+        <f>VLOOKUP(C51,Sheet3!A:E,3,0)</f>
+        <v>51</v>
+      </c>
+      <c r="AV51" s="94">
+        <f>VLOOKUP(C51,Sheet3!A:E,4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AW51" s="98">
+        <f>VLOOKUP(C51,Sheet3!A:E,5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AX51" s="105"/>
+      <c r="AY51" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ51" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
       <c r="A52" s="72">
         <v>2</v>
       </c>
@@ -9844,8 +11128,27 @@
       <c r="AT52" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:46" ht="15">
+      <c r="AU52" s="94">
+        <f>VLOOKUP(C52,Sheet3!A:E,3,0)</f>
+        <v>29</v>
+      </c>
+      <c r="AV52" s="94">
+        <f>VLOOKUP(C52,Sheet3!A:E,4,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AW52" s="98">
+        <f>VLOOKUP(C52,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX52" s="105"/>
+      <c r="AY52" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ52" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52">
       <c r="A53" s="72">
         <v>2</v>
       </c>
@@ -9986,8 +11289,27 @@
       <c r="AT53" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:46" ht="15">
+      <c r="AU53" s="94">
+        <f>VLOOKUP(C53,Sheet3!A:E,3,0)</f>
+        <v>79</v>
+      </c>
+      <c r="AV53" s="94">
+        <f>VLOOKUP(C53,Sheet3!A:E,4,0)</f>
+        <v>33</v>
+      </c>
+      <c r="AW53" s="98">
+        <f>VLOOKUP(C53,Sheet3!A:E,5,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AX53" s="105"/>
+      <c r="AY53" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ53" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
       <c r="A54" s="72">
         <v>2</v>
       </c>
@@ -10128,8 +11450,27 @@
       <c r="AT54" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:46" ht="15">
+      <c r="AU54" s="94">
+        <f>VLOOKUP(C54,Sheet3!A:E,3,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AV54" s="94">
+        <f>VLOOKUP(C54,Sheet3!A:E,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AW54" s="98">
+        <f>VLOOKUP(C54,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX54" s="105"/>
+      <c r="AY54" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ54" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52">
       <c r="A55" s="72">
         <v>2</v>
       </c>
@@ -10270,8 +11611,27 @@
       <c r="AT55" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="56" spans="1:46" ht="15">
+      <c r="AU55" s="94">
+        <f>VLOOKUP(C55,Sheet3!A:E,3,0)</f>
+        <v>72</v>
+      </c>
+      <c r="AV55" s="94">
+        <f>VLOOKUP(C55,Sheet3!A:E,4,0)</f>
+        <v>30</v>
+      </c>
+      <c r="AW55" s="98">
+        <f>VLOOKUP(C55,Sheet3!A:E,5,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AX55" s="105"/>
+      <c r="AY55" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ55" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52">
       <c r="A56" s="72">
         <v>2</v>
       </c>
@@ -10412,8 +11772,27 @@
       <c r="AT56" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:46" ht="15">
+      <c r="AU56" s="94">
+        <f>VLOOKUP(C56,Sheet3!A:E,3,0)</f>
+        <v>82</v>
+      </c>
+      <c r="AV56" s="94">
+        <f>VLOOKUP(C56,Sheet3!A:E,4,0)</f>
+        <v>36</v>
+      </c>
+      <c r="AW56" s="98">
+        <f>VLOOKUP(C56,Sheet3!A:E,5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AX56" s="105"/>
+      <c r="AY56" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ56" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52">
       <c r="A57" s="72">
         <v>2</v>
       </c>
@@ -10554,8 +11933,27 @@
       <c r="AT57" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:46" ht="15">
+      <c r="AU57" s="94">
+        <f>VLOOKUP(C57,Sheet3!A:E,3,0)</f>
+        <v>-8</v>
+      </c>
+      <c r="AV57" s="94">
+        <f>VLOOKUP(C57,Sheet3!A:E,4,0)</f>
+        <v>-8</v>
+      </c>
+      <c r="AW57" s="98">
+        <f>VLOOKUP(C57,Sheet3!A:E,5,0)</f>
+        <v>-2</v>
+      </c>
+      <c r="AX57" s="105"/>
+      <c r="AY57" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ57" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
       <c r="A58" s="72">
         <v>2</v>
       </c>
@@ -10696,8 +12094,27 @@
       <c r="AT58" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:46" ht="15">
+      <c r="AU58" s="94">
+        <f>VLOOKUP(C58,Sheet3!A:E,3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AV58" s="94">
+        <f>VLOOKUP(C58,Sheet3!A:E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW58" s="98">
+        <f>VLOOKUP(C58,Sheet3!A:E,5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AX58" s="105"/>
+      <c r="AY58" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ58" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
       <c r="A59" s="72">
         <v>2</v>
       </c>
@@ -10838,8 +12255,27 @@
       <c r="AT59" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:46" ht="15">
+      <c r="AU59" s="94">
+        <f>VLOOKUP(C59,Sheet3!A:E,3,0)</f>
+        <v>51</v>
+      </c>
+      <c r="AV59" s="94">
+        <f>VLOOKUP(C59,Sheet3!A:E,4,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AW59" s="98">
+        <f>VLOOKUP(C59,Sheet3!A:E,5,0)</f>
+        <v>21</v>
+      </c>
+      <c r="AX59" s="105"/>
+      <c r="AY59" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ59" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
       <c r="A60" s="72">
         <v>2</v>
       </c>
@@ -10980,8 +12416,27 @@
       <c r="AT60" s="91">
         <v>15</v>
       </c>
-    </row>
-    <row r="61" spans="1:46" ht="15">
+      <c r="AU60" s="94">
+        <f>VLOOKUP(C60,Sheet3!A:E,3,0)</f>
+        <v>41</v>
+      </c>
+      <c r="AV60" s="94">
+        <f>VLOOKUP(C60,Sheet3!A:E,4,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AW60" s="98">
+        <f>VLOOKUP(C60,Sheet3!A:E,5,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AX60" s="105"/>
+      <c r="AY60" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ60" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
       <c r="A61" s="72">
         <v>2</v>
       </c>
@@ -11072,8 +12527,27 @@
       <c r="AR61" s="93"/>
       <c r="AS61" s="93"/>
       <c r="AT61" s="93"/>
-    </row>
-    <row r="62" spans="1:46" ht="15">
+      <c r="AU61" s="94">
+        <f>VLOOKUP(C61,Sheet3!A:E,3,0)</f>
+        <v>69</v>
+      </c>
+      <c r="AV61" s="94">
+        <f>VLOOKUP(C61,Sheet3!A:E,4,0)</f>
+        <v>26</v>
+      </c>
+      <c r="AW61" s="98">
+        <f>VLOOKUP(C61,Sheet3!A:E,5,0)</f>
+        <v>19</v>
+      </c>
+      <c r="AX61" s="105"/>
+      <c r="AY61" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ61" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
       <c r="A62" s="72">
         <v>2</v>
       </c>
@@ -11214,8 +12688,27 @@
       <c r="AT62" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:46" ht="15">
+      <c r="AU62" s="94">
+        <f>VLOOKUP(C62,Sheet3!A:E,3,0)</f>
+        <v>35</v>
+      </c>
+      <c r="AV62" s="94">
+        <f>VLOOKUP(C62,Sheet3!A:E,4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AW62" s="98">
+        <f>VLOOKUP(C62,Sheet3!A:E,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AX62" s="105"/>
+      <c r="AY62" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ62" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
       <c r="A63" s="72">
         <v>2</v>
       </c>
@@ -11356,8 +12849,27 @@
       <c r="AT63" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:46" ht="15">
+      <c r="AU63" s="94">
+        <f>VLOOKUP(C63,Sheet3!A:E,3,0)</f>
+        <v>40</v>
+      </c>
+      <c r="AV63" s="94">
+        <f>VLOOKUP(C63,Sheet3!A:E,4,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AW63" s="98">
+        <f>VLOOKUP(C63,Sheet3!A:E,5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AX63" s="105"/>
+      <c r="AY63" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ63" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
       <c r="A64" s="72">
         <v>2</v>
       </c>
@@ -11498,8 +13010,27 @@
       <c r="AT64" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:46" ht="15">
+      <c r="AU64" s="94">
+        <f>VLOOKUP(C64,Sheet3!A:E,3,0)</f>
+        <v>21</v>
+      </c>
+      <c r="AV64" s="94">
+        <f>VLOOKUP(C64,Sheet3!A:E,4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AW64" s="98">
+        <f>VLOOKUP(C64,Sheet3!A:E,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AX64" s="105"/>
+      <c r="AY64" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ64" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52">
       <c r="A65" s="72">
         <v>2</v>
       </c>
@@ -11640,8 +13171,27 @@
       <c r="AT65" s="91">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:46" ht="15">
+      <c r="AU65" s="94">
+        <f>VLOOKUP(C65,Sheet3!A:E,3,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AV65" s="94">
+        <f>VLOOKUP(C65,Sheet3!A:E,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW65" s="98">
+        <f>VLOOKUP(C65,Sheet3!A:E,5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AX65" s="105"/>
+      <c r="AY65" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ65" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52">
       <c r="A66" s="72">
         <v>2</v>
       </c>
@@ -11782,8 +13332,27 @@
       <c r="AT66" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:46" ht="15">
+      <c r="AU66" s="94">
+        <f>VLOOKUP(C66,Sheet3!A:E,3,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AV66" s="94">
+        <f>VLOOKUP(C66,Sheet3!A:E,4,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AW66" s="98">
+        <f>VLOOKUP(C66,Sheet3!A:E,5,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AX66" s="105"/>
+      <c r="AY66" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ66" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52">
       <c r="A67" s="72">
         <v>2</v>
       </c>
@@ -11874,8 +13443,27 @@
       <c r="AR67" s="93"/>
       <c r="AS67" s="93"/>
       <c r="AT67" s="93"/>
-    </row>
-    <row r="68" spans="1:46" ht="15">
+      <c r="AU67" s="94">
+        <f>VLOOKUP(C67,Sheet3!A:E,3,0)</f>
+        <v>39</v>
+      </c>
+      <c r="AV67" s="94">
+        <f>VLOOKUP(C67,Sheet3!A:E,4,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AW67" s="98">
+        <f>VLOOKUP(C67,Sheet3!A:E,5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AX67" s="105"/>
+      <c r="AY67" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ67" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52">
       <c r="A68" s="72">
         <v>2</v>
       </c>
@@ -12016,8 +13604,27 @@
       <c r="AT68" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:46" ht="15">
+      <c r="AU68" s="94">
+        <f>VLOOKUP(C68,Sheet3!A:E,3,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AV68" s="94">
+        <f>VLOOKUP(C68,Sheet3!A:E,4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AW68" s="98">
+        <f>VLOOKUP(C68,Sheet3!A:E,5,0)</f>
+        <v>11</v>
+      </c>
+      <c r="AX68" s="105"/>
+      <c r="AY68" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ68" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52">
       <c r="A69" s="72">
         <v>2</v>
       </c>
@@ -12158,8 +13765,27 @@
       <c r="AT69" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:46" ht="15">
+      <c r="AU69" s="94">
+        <f>VLOOKUP(C69,Sheet3!A:E,3,0)</f>
+        <v>32</v>
+      </c>
+      <c r="AV69" s="94">
+        <f>VLOOKUP(C69,Sheet3!A:E,4,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AW69" s="98">
+        <f>VLOOKUP(C69,Sheet3!A:E,5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AX69" s="105"/>
+      <c r="AY69" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ69" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52">
       <c r="A70" s="72">
         <v>2</v>
       </c>
@@ -12300,8 +13926,27 @@
       <c r="AT70" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:46" ht="15">
+      <c r="AU70" s="94">
+        <f>VLOOKUP(C70,Sheet3!A:E,3,0)</f>
+        <v>25</v>
+      </c>
+      <c r="AV70" s="94">
+        <f>VLOOKUP(C70,Sheet3!A:E,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AW70" s="98">
+        <f>VLOOKUP(C70,Sheet3!A:E,5,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="AX70" s="105"/>
+      <c r="AY70" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ70" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52">
       <c r="A71" s="72">
         <v>2</v>
       </c>
@@ -12442,8 +14087,30 @@
       <c r="AT71" s="91">
         <v>15</v>
       </c>
-    </row>
-    <row r="72" spans="1:46" ht="15">
+      <c r="AU71" s="94">
+        <f>VLOOKUP(C71,Sheet3!A:E,3,0)</f>
+        <v>85</v>
+      </c>
+      <c r="AV71" s="94">
+        <f>VLOOKUP(C71,Sheet3!A:E,4,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AW71" s="98">
+        <f>VLOOKUP(C71,Sheet3!A:E,5,0)</f>
+        <v>23</v>
+      </c>
+      <c r="AX71" s="99">
+        <f>VLOOKUP(C72,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY71" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ71" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52">
       <c r="A72" s="72">
         <v>2</v>
       </c>
@@ -12584,8 +14251,30 @@
       <c r="AT72" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:46" ht="15">
+      <c r="AU72" s="94">
+        <f>VLOOKUP(C72,Sheet3!A:E,3,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AV72" s="94">
+        <f>VLOOKUP(C72,Sheet3!A:E,4,0)</f>
+        <v>-3</v>
+      </c>
+      <c r="AW72" s="98">
+        <f>VLOOKUP(C72,Sheet3!A:E,5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AX72" s="99">
+        <f>VLOOKUP(C73,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY72" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ72" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52">
       <c r="A73" s="72">
         <v>2</v>
       </c>
@@ -12726,8 +14415,30 @@
       <c r="AT73" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:46" ht="15">
+      <c r="AU73" s="94">
+        <f>VLOOKUP(C73,Sheet3!A:E,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AV73" s="94">
+        <f>VLOOKUP(C73,Sheet3!A:E,4,0)</f>
+        <v>-4</v>
+      </c>
+      <c r="AW73" s="98">
+        <f>VLOOKUP(C73,Sheet3!A:E,5,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AX73" s="99">
+        <f>VLOOKUP(C74,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY73" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ73" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52">
       <c r="A74" s="72">
         <v>2</v>
       </c>
@@ -12818,8 +14529,30 @@
       <c r="AR74" s="93"/>
       <c r="AS74" s="93"/>
       <c r="AT74" s="93"/>
-    </row>
-    <row r="75" spans="1:46" ht="15">
+      <c r="AU74" s="94">
+        <f>VLOOKUP(C74,Sheet3!A:E,3,0)</f>
+        <v>45</v>
+      </c>
+      <c r="AV74" s="94">
+        <f>VLOOKUP(C74,Sheet3!A:E,4,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AW74" s="98">
+        <f>VLOOKUP(C74,Sheet3!A:E,5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AX74" s="99">
+        <f>VLOOKUP(C75,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY74" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ74" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52">
       <c r="A75" s="72">
         <v>2</v>
       </c>
@@ -12960,8 +14693,30 @@
       <c r="AT75" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:46" ht="15">
+      <c r="AU75" s="94">
+        <f>VLOOKUP(C75,Sheet3!A:E,3,0)</f>
+        <v>49</v>
+      </c>
+      <c r="AV75" s="94">
+        <f>VLOOKUP(C75,Sheet3!A:E,4,0)</f>
+        <v>15</v>
+      </c>
+      <c r="AW75" s="98">
+        <f>VLOOKUP(C75,Sheet3!A:E,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AX75" s="99">
+        <f>VLOOKUP(C76,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY75" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ75" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52">
       <c r="A76" s="72">
         <v>2</v>
       </c>
@@ -13102,8 +14857,30 @@
       <c r="AT76" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="77" spans="1:46" ht="15">
+      <c r="AU76" s="94">
+        <f>VLOOKUP(C76,Sheet3!A:E,3,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AV76" s="94">
+        <f>VLOOKUP(C76,Sheet3!A:E,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AW76" s="98">
+        <f>VLOOKUP(C76,Sheet3!A:E,5,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AX76" s="99">
+        <f>VLOOKUP(C77,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY76" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ76" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52">
       <c r="A77" s="72">
         <v>2</v>
       </c>
@@ -13244,8 +15021,30 @@
       <c r="AT77" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:46" ht="15">
+      <c r="AU77" s="94">
+        <f>VLOOKUP(C77,Sheet3!A:E,3,0)</f>
+        <v>60</v>
+      </c>
+      <c r="AV77" s="94">
+        <f>VLOOKUP(C77,Sheet3!A:E,4,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AW77" s="98">
+        <f>VLOOKUP(C77,Sheet3!A:E,5,0)</f>
+        <v>24</v>
+      </c>
+      <c r="AX77" s="99">
+        <f>VLOOKUP(C78,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY77" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ77" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52">
       <c r="A78" s="72">
         <v>2</v>
       </c>
@@ -13386,8 +15185,30 @@
       <c r="AT78" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:46" ht="15">
+      <c r="AU78" s="94">
+        <f>VLOOKUP(C78,Sheet3!A:E,3,0)</f>
+        <v>46</v>
+      </c>
+      <c r="AV78" s="94">
+        <f>VLOOKUP(C78,Sheet3!A:E,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AW78" s="98">
+        <f>VLOOKUP(C78,Sheet3!A:E,5,0)</f>
+        <v>17</v>
+      </c>
+      <c r="AX78" s="99">
+        <f>VLOOKUP(C79,Sheet3!A:E,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY78" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ78" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52">
       <c r="A79" s="72">
         <v>2</v>
       </c>
@@ -13528,8 +15349,30 @@
       <c r="AT79" s="91">
         <v>18</v>
       </c>
-    </row>
-    <row r="80" spans="1:46" ht="15">
+      <c r="AU79" s="94">
+        <f>VLOOKUP(C79,Sheet3!A:E,3,0)</f>
+        <v>45</v>
+      </c>
+      <c r="AV79" s="94">
+        <f>VLOOKUP(C79,Sheet3!A:E,4,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AW79" s="98">
+        <f>VLOOKUP(C79,Sheet3!A:E,5,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AX79" s="99">
+        <f>VLOOKUP(C80,Sheet3!A:E,2,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AY79" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ79" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52">
       <c r="A80" s="72">
         <v>2</v>
       </c>
@@ -13670,8 +15513,30 @@
       <c r="AT80" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:46" ht="15">
+      <c r="AU80" s="94">
+        <f>VLOOKUP(C80,Sheet3!A:E,3,0)</f>
+        <v>28</v>
+      </c>
+      <c r="AV80" s="94">
+        <f>VLOOKUP(C80,Sheet3!A:E,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AW80" s="98">
+        <f>VLOOKUP(C80,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX80" s="99">
+        <f>VLOOKUP(C81,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY80" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ80" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52">
       <c r="A81" s="72">
         <v>2</v>
       </c>
@@ -13812,8 +15677,30 @@
       <c r="AT81" s="91">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:46" ht="15">
+      <c r="AU81" s="94">
+        <f>VLOOKUP(C81,Sheet3!A:E,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AV81" s="94">
+        <f>VLOOKUP(C81,Sheet3!A:E,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW81" s="98">
+        <f>VLOOKUP(C81,Sheet3!A:E,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX81" s="99">
+        <f>VLOOKUP(C82,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY81" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ81" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52">
       <c r="A82" s="72">
         <v>2</v>
       </c>
@@ -13954,8 +15841,30 @@
       <c r="AT82" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:46" ht="15">
+      <c r="AU82" s="94">
+        <f>VLOOKUP(C82,Sheet3!A:E,3,0)</f>
+        <v>34</v>
+      </c>
+      <c r="AV82" s="94">
+        <f>VLOOKUP(C82,Sheet3!A:E,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AW82" s="98">
+        <f>VLOOKUP(C82,Sheet3!A:E,5,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AX82" s="99">
+        <f>VLOOKUP(C83,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY82" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ82" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52">
       <c r="A83" s="72">
         <v>2</v>
       </c>
@@ -14096,8 +16005,30 @@
       <c r="AT83" s="91">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="1:46" ht="15">
+      <c r="AU83" s="94">
+        <f>VLOOKUP(C83,Sheet3!A:E,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AV83" s="94">
+        <f>VLOOKUP(C83,Sheet3!A:E,4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AW83" s="98">
+        <f>VLOOKUP(C83,Sheet3!A:E,5,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AX83" s="99">
+        <f>VLOOKUP(C84,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY83" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ83" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52">
       <c r="A84" s="72">
         <v>2</v>
       </c>
@@ -14238,8 +16169,30 @@
       <c r="AT84" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:46" ht="15">
+      <c r="AU84" s="94">
+        <f>VLOOKUP(C84,Sheet3!A:E,3,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AV84" s="94">
+        <f>VLOOKUP(C84,Sheet3!A:E,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW84" s="98">
+        <f>VLOOKUP(C84,Sheet3!A:E,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX84" s="99">
+        <f>VLOOKUP(C85,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY84" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ84" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52">
       <c r="A85" s="72">
         <v>2</v>
       </c>
@@ -14380,8 +16333,30 @@
       <c r="AT85" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:46" ht="15">
+      <c r="AU85" s="94">
+        <f>VLOOKUP(C85,Sheet3!A:E,3,0)</f>
+        <v>27</v>
+      </c>
+      <c r="AV85" s="94">
+        <f>VLOOKUP(C85,Sheet3!A:E,4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AW85" s="98">
+        <f>VLOOKUP(C85,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX85" s="99">
+        <f>VLOOKUP(C86,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY85" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ85" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:52">
       <c r="A86" s="72">
         <v>2</v>
       </c>
@@ -14522,8 +16497,30 @@
       <c r="AT86" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:46" ht="15">
+      <c r="AU86" s="94">
+        <f>VLOOKUP(C86,Sheet3!A:E,3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="AV86" s="94">
+        <f>VLOOKUP(C86,Sheet3!A:E,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AW86" s="98">
+        <f>VLOOKUP(C86,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX86" s="99">
+        <f>VLOOKUP(C87,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY86" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ86" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52">
       <c r="A87" s="72">
         <v>2</v>
       </c>
@@ -14664,8 +16661,30 @@
       <c r="AT87" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:46" ht="15">
+      <c r="AU87" s="94">
+        <f>VLOOKUP(C87,Sheet3!A:E,3,0)</f>
+        <v>41</v>
+      </c>
+      <c r="AV87" s="94">
+        <f>VLOOKUP(C87,Sheet3!A:E,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AW87" s="98">
+        <f>VLOOKUP(C87,Sheet3!A:E,5,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AX87" s="99">
+        <f>VLOOKUP(C88,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY87" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ87" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52">
       <c r="A88" s="72">
         <v>2</v>
       </c>
@@ -14806,8 +16825,30 @@
       <c r="AT88" s="91">
         <v>24</v>
       </c>
-    </row>
-    <row r="89" spans="1:46" ht="15">
+      <c r="AU88" s="94">
+        <f>VLOOKUP(C88,Sheet3!A:E,3,0)</f>
+        <v>22</v>
+      </c>
+      <c r="AV88" s="94">
+        <f>VLOOKUP(C88,Sheet3!A:E,4,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AW88" s="98">
+        <f>VLOOKUP(C88,Sheet3!A:E,5,0)</f>
+        <v>-1</v>
+      </c>
+      <c r="AX88" s="99">
+        <f>VLOOKUP(C89,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY88" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ88" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52">
       <c r="A89" s="72">
         <v>2</v>
       </c>
@@ -14948,8 +16989,30 @@
       <c r="AT89" s="91">
         <v>24</v>
       </c>
-    </row>
-    <row r="90" spans="1:46" ht="15">
+      <c r="AU89" s="94">
+        <f>VLOOKUP(C89,Sheet3!A:E,3,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AV89" s="94">
+        <f>VLOOKUP(C89,Sheet3!A:E,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AW89" s="98">
+        <f>VLOOKUP(C89,Sheet3!A:E,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AX89" s="99">
+        <f>VLOOKUP(C90,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY89" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ89" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52">
       <c r="A90" s="72">
         <v>2</v>
       </c>
@@ -15040,8 +17103,30 @@
       <c r="AR90" s="93"/>
       <c r="AS90" s="93"/>
       <c r="AT90" s="93"/>
-    </row>
-    <row r="91" spans="1:46" ht="15">
+      <c r="AU90" s="94">
+        <f>VLOOKUP(C90,Sheet3!A:E,3,0)</f>
+        <v>25</v>
+      </c>
+      <c r="AV90" s="94">
+        <f>VLOOKUP(C90,Sheet3!A:E,4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AW90" s="98">
+        <f>VLOOKUP(C90,Sheet3!A:E,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AX90" s="99">
+        <f>VLOOKUP(C91,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY90" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ90" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52">
       <c r="A91" s="72">
         <v>2</v>
       </c>
@@ -15182,8 +17267,30 @@
       <c r="AT91" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:46" ht="15">
+      <c r="AU91" s="94">
+        <f>VLOOKUP(C91,Sheet3!A:E,3,0)</f>
+        <v>42</v>
+      </c>
+      <c r="AV91" s="94">
+        <f>VLOOKUP(C91,Sheet3!A:E,4,0)</f>
+        <v>17</v>
+      </c>
+      <c r="AW91" s="98">
+        <f>VLOOKUP(C91,Sheet3!A:E,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AX91" s="99">
+        <f>VLOOKUP(C92,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY91" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ91" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52">
       <c r="A92" s="72">
         <v>2</v>
       </c>
@@ -15324,8 +17431,30 @@
       <c r="AT92" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:46" ht="15">
+      <c r="AU92" s="94">
+        <f>VLOOKUP(C92,Sheet3!A:E,3,0)</f>
+        <v>54</v>
+      </c>
+      <c r="AV92" s="94">
+        <f>VLOOKUP(C92,Sheet3!A:E,4,0)</f>
+        <v>19</v>
+      </c>
+      <c r="AW92" s="98">
+        <f>VLOOKUP(C92,Sheet3!A:E,5,0)</f>
+        <v>16</v>
+      </c>
+      <c r="AX92" s="99">
+        <f>VLOOKUP(C93,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY92" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ92" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52">
       <c r="A93" s="72">
         <v>2</v>
       </c>
@@ -15466,8 +17595,30 @@
       <c r="AT93" s="91">
         <v>16</v>
       </c>
-    </row>
-    <row r="94" spans="1:46" ht="15">
+      <c r="AU93" s="94">
+        <f>VLOOKUP(C93,Sheet3!A:E,3,0)</f>
+        <v>50</v>
+      </c>
+      <c r="AV93" s="94">
+        <f>VLOOKUP(C93,Sheet3!A:E,4,0)</f>
+        <v>21</v>
+      </c>
+      <c r="AW93" s="98">
+        <f>VLOOKUP(C93,Sheet3!A:E,5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AX93" s="99">
+        <f>VLOOKUP(C94,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY93" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ93" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52">
       <c r="A94" s="72">
         <v>2</v>
       </c>
@@ -15608,8 +17759,30 @@
       <c r="AT94" s="91">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:46" ht="30">
+      <c r="AU94" s="94">
+        <f>VLOOKUP(C94,Sheet3!A:E,3,0)</f>
+        <v>46</v>
+      </c>
+      <c r="AV94" s="94">
+        <f>VLOOKUP(C94,Sheet3!A:E,4,0)</f>
+        <v>17</v>
+      </c>
+      <c r="AW94" s="98">
+        <f>VLOOKUP(C94,Sheet3!A:E,5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="AX94" s="99">
+        <f>VLOOKUP(C95,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY94" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ94" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:52" ht="30">
       <c r="A95" s="72">
         <v>2</v>
       </c>
@@ -15750,8 +17923,30 @@
       <c r="AT95" s="91">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:46" ht="15">
+      <c r="AU95" s="94">
+        <f>VLOOKUP(C95,Sheet3!A:E,3,0)</f>
+        <v>23</v>
+      </c>
+      <c r="AV95" s="94">
+        <f>VLOOKUP(C95,Sheet3!A:E,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AW95" s="98">
+        <f>VLOOKUP(C95,Sheet3!A:E,5,0)</f>
+        <v>11</v>
+      </c>
+      <c r="AX95" s="99">
+        <f>VLOOKUP(C96,Sheet3!A:E,2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AY95" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ95" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52">
       <c r="A96" s="72">
         <v>2</v>
       </c>
@@ -15892,8 +18087,30 @@
       <c r="AT96" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="97" spans="1:46" ht="15">
+      <c r="AU96" s="94">
+        <f>VLOOKUP(C96,Sheet3!A:E,3,0)</f>
+        <v>68</v>
+      </c>
+      <c r="AV96" s="94">
+        <f>VLOOKUP(C96,Sheet3!A:E,4,0)</f>
+        <v>31</v>
+      </c>
+      <c r="AW96" s="98">
+        <f>VLOOKUP(C96,Sheet3!A:E,5,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AX96" s="99">
+        <f>VLOOKUP(C97,Sheet3!A:E,2,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AY96" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ96" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:52">
       <c r="A97" s="72">
         <v>2</v>
       </c>
@@ -16034,8 +18251,30 @@
       <c r="AT97" s="91">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:46" ht="30">
+      <c r="AU97" s="94">
+        <f>VLOOKUP(C97,Sheet3!A:E,3,0)</f>
+        <v>20</v>
+      </c>
+      <c r="AV97" s="94">
+        <f>VLOOKUP(C97,Sheet3!A:E,4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="AW97" s="98">
+        <f>VLOOKUP(C97,Sheet3!A:E,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="AX97" s="99">
+        <f>VLOOKUP(C98,Sheet3!A:E,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="AY97" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ97" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:52" ht="30">
       <c r="A98" s="72">
         <v>2</v>
       </c>
@@ -16176,8 +18415,30 @@
       <c r="AT98" s="91">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:46" ht="15">
+      <c r="AU98" s="94">
+        <f>VLOOKUP(C98,Sheet3!A:E,3,0)</f>
+        <v>18</v>
+      </c>
+      <c r="AV98" s="94">
+        <f>VLOOKUP(C98,Sheet3!A:E,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="AW98" s="98">
+        <f>VLOOKUP(C98,Sheet3!A:E,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AX98" s="99">
+        <f>VLOOKUP(C99,Sheet3!A:E,2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AY98" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ98" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:52">
       <c r="A99" s="72">
         <v>2</v>
       </c>
@@ -16317,6 +18578,28 @@
       </c>
       <c r="AT99" s="91">
         <v>24</v>
+      </c>
+      <c r="AU99" s="94">
+        <f>VLOOKUP(C99,Sheet3!A:E,3,0)</f>
+        <v>12</v>
+      </c>
+      <c r="AV99" s="94">
+        <f>VLOOKUP(C99,Sheet3!A:E,4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AW99" s="98">
+        <f>VLOOKUP(C99,Sheet3!A:E,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AX99" s="99" t="e">
+        <f>VLOOKUP(C100,Sheet3!A:E,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="AY99" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AZ99" s="91" t="e">
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -16330,6 +18613,1940 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54F1C00-CD06-4687-B1A9-6A0E4BC734EF}">
+  <dimension ref="A1:E117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="39">
+        <v>107</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-25</v>
+      </c>
+      <c r="D2">
+        <v>-10</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="95">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="95">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="95">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="39">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="39">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>-17</v>
+      </c>
+      <c r="D8">
+        <v>-12</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="95">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>45</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="95">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>46</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="95" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="95">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>-4</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="95">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="95">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="95">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="95">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="95">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>14</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="95">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="95" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="102">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>-3</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="95">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>49</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="95">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="95">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="95">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="102">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="95" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>25</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="39">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33">
+        <v>71</v>
+      </c>
+      <c r="D33">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="39">
+        <v>110</v>
+      </c>
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34">
+        <v>-37</v>
+      </c>
+      <c r="D34">
+        <v>-14</v>
+      </c>
+      <c r="E34">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="39">
+        <v>122</v>
+      </c>
+      <c r="B35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35">
+        <v>-18</v>
+      </c>
+      <c r="D35">
+        <v>-12</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="39">
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36">
+        <v>-28</v>
+      </c>
+      <c r="D36">
+        <v>-8</v>
+      </c>
+      <c r="E36">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="39">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="39">
+        <v>302</v>
+      </c>
+      <c r="B38" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="39">
+        <v>306</v>
+      </c>
+      <c r="B39" t="s">
+        <v>327</v>
+      </c>
+      <c r="C39">
+        <v>-59</v>
+      </c>
+      <c r="D39">
+        <v>-28</v>
+      </c>
+      <c r="E39">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="39">
+        <v>309</v>
+      </c>
+      <c r="B40" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="39">
+        <v>312</v>
+      </c>
+      <c r="B41" t="s">
+        <v>327</v>
+      </c>
+      <c r="C41">
+        <v>-8</v>
+      </c>
+      <c r="D41">
+        <v>-2</v>
+      </c>
+      <c r="E41">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="39">
+        <v>116</v>
+      </c>
+      <c r="B42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="39">
+        <v>119</v>
+      </c>
+      <c r="B43" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="39">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>329</v>
+      </c>
+      <c r="C44">
+        <v>-12</v>
+      </c>
+      <c r="D44">
+        <v>-1</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="39">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45">
+        <v>-31</v>
+      </c>
+      <c r="D45">
+        <v>-13</v>
+      </c>
+      <c r="E45">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="39">
+        <v>204</v>
+      </c>
+      <c r="B46" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46">
+        <v>-17</v>
+      </c>
+      <c r="D46">
+        <v>-13</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="39">
+        <v>219</v>
+      </c>
+      <c r="B47" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="39">
+        <v>305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="39">
+        <v>313</v>
+      </c>
+      <c r="B49" t="s">
+        <v>329</v>
+      </c>
+      <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="39">
+        <v>314</v>
+      </c>
+      <c r="B50" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>-6</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="39">
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51">
+        <v>-50</v>
+      </c>
+      <c r="D51">
+        <v>-22</v>
+      </c>
+      <c r="E51">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="39">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>325</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>-19</v>
+      </c>
+      <c r="E52">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="39">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>325</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="39">
+        <v>207</v>
+      </c>
+      <c r="B54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C54">
+        <v>-3</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="95">
+        <v>212</v>
+      </c>
+      <c r="B55" t="s">
+        <v>325</v>
+      </c>
+      <c r="C55">
+        <v>-36</v>
+      </c>
+      <c r="D55">
+        <v>-15</v>
+      </c>
+      <c r="E55">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="39">
+        <v>215</v>
+      </c>
+      <c r="B56" t="s">
+        <v>325</v>
+      </c>
+      <c r="C56">
+        <v>-12</v>
+      </c>
+      <c r="D56">
+        <v>-11</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="39">
+        <v>220</v>
+      </c>
+      <c r="B57" t="s">
+        <v>325</v>
+      </c>
+      <c r="C57">
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="39">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
+        <v>325</v>
+      </c>
+      <c r="C58">
+        <v>-3</v>
+      </c>
+      <c r="D58">
+        <v>-1</v>
+      </c>
+      <c r="E58">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="39">
+        <v>304</v>
+      </c>
+      <c r="B59" t="s">
+        <v>325</v>
+      </c>
+      <c r="C59">
+        <v>-6</v>
+      </c>
+      <c r="D59">
+        <v>-4</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="39">
+        <v>307</v>
+      </c>
+      <c r="B60" t="s">
+        <v>325</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>-20</v>
+      </c>
+      <c r="E60">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="39">
+        <v>308</v>
+      </c>
+      <c r="B61" t="s">
+        <v>325</v>
+      </c>
+      <c r="C61">
+        <v>-7</v>
+      </c>
+      <c r="D61">
+        <v>-1</v>
+      </c>
+      <c r="E61">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="39">
+        <v>311</v>
+      </c>
+      <c r="B62" t="s">
+        <v>325</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>8</v>
+      </c>
+      <c r="E62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="39">
+        <v>103</v>
+      </c>
+      <c r="B63" t="s">
+        <v>326</v>
+      </c>
+      <c r="C63">
+        <v>-7</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="39">
+        <v>105</v>
+      </c>
+      <c r="B64" t="s">
+        <v>326</v>
+      </c>
+      <c r="C64">
+        <v>20</v>
+      </c>
+      <c r="D64">
+        <v>19</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="39">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
+        <v>326</v>
+      </c>
+      <c r="C65">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1">
+      <c r="A66" s="104">
+        <v>111</v>
+      </c>
+      <c r="B66" t="s">
+        <v>326</v>
+      </c>
+      <c r="C66">
+        <v>-17</v>
+      </c>
+      <c r="D66">
+        <v>-10</v>
+      </c>
+      <c r="E66">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickTop="1">
+      <c r="A67" s="39">
+        <v>114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="39">
+        <v>117</v>
+      </c>
+      <c r="B68" t="s">
+        <v>326</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="39">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>326</v>
+      </c>
+      <c r="C69">
+        <v>-17</v>
+      </c>
+      <c r="D69">
+        <v>-12</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="39">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>326</v>
+      </c>
+      <c r="C70">
+        <v>-25</v>
+      </c>
+      <c r="D70">
+        <v>-20</v>
+      </c>
+      <c r="E70">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="39">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71">
+        <v>-5</v>
+      </c>
+      <c r="D71">
+        <v>-6</v>
+      </c>
+      <c r="E71">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="39">
+        <v>205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>326</v>
+      </c>
+      <c r="C72">
+        <v>-24</v>
+      </c>
+      <c r="D72">
+        <v>-13</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="39">
+        <v>209</v>
+      </c>
+      <c r="B73" t="s">
+        <v>326</v>
+      </c>
+      <c r="C73">
+        <v>-24</v>
+      </c>
+      <c r="D73">
+        <v>-15</v>
+      </c>
+      <c r="E73">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="39">
+        <v>210</v>
+      </c>
+      <c r="B74" t="s">
+        <v>326</v>
+      </c>
+      <c r="C74">
+        <v>19</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="39">
+        <v>213</v>
+      </c>
+      <c r="B75" t="s">
+        <v>326</v>
+      </c>
+      <c r="C75">
+        <v>-40</v>
+      </c>
+      <c r="D75">
+        <v>-26</v>
+      </c>
+      <c r="E75">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="39">
+        <v>216</v>
+      </c>
+      <c r="B76" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76">
+        <v>62</v>
+      </c>
+      <c r="D76">
+        <v>20</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="39">
+        <v>218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77">
+        <v>-4</v>
+      </c>
+      <c r="D77">
+        <v>-3</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="102">
+        <v>315</v>
+      </c>
+      <c r="B78" t="s">
+        <v>326</v>
+      </c>
+      <c r="C78">
+        <v>-48</v>
+      </c>
+      <c r="D78">
+        <v>-30</v>
+      </c>
+      <c r="E78">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="39">
+        <v>106</v>
+      </c>
+      <c r="B79" t="s">
+        <v>328</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="39">
+        <v>112</v>
+      </c>
+      <c r="B80" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80">
+        <v>41</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="39">
+        <v>121</v>
+      </c>
+      <c r="B81" t="s">
+        <v>328</v>
+      </c>
+      <c r="C81">
+        <v>-10</v>
+      </c>
+      <c r="D81">
+        <v>-6</v>
+      </c>
+      <c r="E81">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="39">
+        <v>123</v>
+      </c>
+      <c r="B82" t="s">
+        <v>328</v>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>-3</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="39">
+        <v>128</v>
+      </c>
+      <c r="B83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="39">
+        <v>129</v>
+      </c>
+      <c r="B84" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>11</v>
+      </c>
+      <c r="E84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="39">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="39">
+        <v>203</v>
+      </c>
+      <c r="B86" t="s">
+        <v>328</v>
+      </c>
+      <c r="C86">
+        <v>46</v>
+      </c>
+      <c r="D86">
+        <v>13</v>
+      </c>
+      <c r="E86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="39">
+        <v>214</v>
+      </c>
+      <c r="B87" t="s">
+        <v>328</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="39">
+        <v>303</v>
+      </c>
+      <c r="B88" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88">
+        <v>-1</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="103">
+        <v>120</v>
+      </c>
+      <c r="B89" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89">
+        <v>-4</v>
+      </c>
+      <c r="D89">
+        <v>-6</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="39">
+        <v>206</v>
+      </c>
+      <c r="B90" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90">
+        <v>-14</v>
+      </c>
+      <c r="D90">
+        <v>-11</v>
+      </c>
+      <c r="E90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="39">
+        <v>217</v>
+      </c>
+      <c r="B91" t="s">
+        <v>330</v>
+      </c>
+      <c r="C91">
+        <v>-38</v>
+      </c>
+      <c r="D91">
+        <v>-19</v>
+      </c>
+      <c r="E91">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="39">
+        <v>301</v>
+      </c>
+      <c r="B92" t="s">
+        <v>330</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>-1</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="39">
+        <v>310</v>
+      </c>
+      <c r="B93" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93">
+        <v>39</v>
+      </c>
+      <c r="D93">
+        <v>15</v>
+      </c>
+      <c r="E93">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="39">
+        <v>113</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="39">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>-2</v>
+      </c>
+      <c r="D95">
+        <v>-7</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="39">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>51</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="39">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>29</v>
+      </c>
+      <c r="D97">
+        <v>13</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="39">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>79</v>
+      </c>
+      <c r="D98">
+        <v>33</v>
+      </c>
+      <c r="E98">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="39">
+        <v>5</v>
+      </c>
+      <c r="C99">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="96">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>72</v>
+      </c>
+      <c r="D100">
+        <v>30</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="96">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>82</v>
+      </c>
+      <c r="D101">
+        <v>36</v>
+      </c>
+      <c r="E101">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="96">
+        <v>9</v>
+      </c>
+      <c r="C102">
+        <v>-8</v>
+      </c>
+      <c r="D102">
+        <v>-8</v>
+      </c>
+      <c r="E102">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="96">
+        <v>10</v>
+      </c>
+      <c r="C103">
+        <v>16</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="39">
+        <v>13</v>
+      </c>
+      <c r="C104">
+        <v>51</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="E104">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="39">
+        <v>14</v>
+      </c>
+      <c r="C105">
+        <v>41</v>
+      </c>
+      <c r="D105">
+        <v>16</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15" thickBot="1">
+      <c r="A106" s="97">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>69</v>
+      </c>
+      <c r="D106">
+        <v>26</v>
+      </c>
+      <c r="E106">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="95">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>35</v>
+      </c>
+      <c r="D107">
+        <v>18</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="95">
+        <v>17</v>
+      </c>
+      <c r="C108">
+        <v>40</v>
+      </c>
+      <c r="D108">
+        <v>13</v>
+      </c>
+      <c r="E108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="95">
+        <v>18</v>
+      </c>
+      <c r="C109">
+        <v>21</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="95">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>16</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="95">
+        <v>20</v>
+      </c>
+      <c r="C111">
+        <v>42</v>
+      </c>
+      <c r="D111">
+        <v>13</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="95">
+        <v>21</v>
+      </c>
+      <c r="C112">
+        <v>39</v>
+      </c>
+      <c r="D112">
+        <v>16</v>
+      </c>
+      <c r="E112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="95">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>27</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="95">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>32</v>
+      </c>
+      <c r="D114">
+        <v>12</v>
+      </c>
+      <c r="E114">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="95">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>25</v>
+      </c>
+      <c r="D115">
+        <v>10</v>
+      </c>
+      <c r="E115">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="95">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>85</v>
+      </c>
+      <c r="D116">
+        <v>31</v>
+      </c>
+      <c r="E116">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="95"/>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E225">
+    <sortCondition ref="B1"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFEC108-9254-473C-B574-4043C373FF0A}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V62"/>
@@ -20309,7 +24526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA2CFCA-5425-4E95-97F5-42F2E20FBD33}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB136"/>
@@ -31950,7 +36167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE99EC0F-654B-4779-BE51-16C89A07CE49}">
   <dimension ref="A1:E133"/>
   <sheetViews>
@@ -34221,7 +38438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FB8EED-4414-468B-9161-DFD4643F94E1}">
   <dimension ref="A1:C48"/>
   <sheetViews>
@@ -34765,7 +38982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4C0DF3-3E48-4713-92C4-405094B95233}">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -35330,5 +39547,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/score_total.xlsx
+++ b/data/score_total.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495D0CF1-54A1-42B8-A9FB-45B6808E2175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AFA3D3-CC7A-4833-87A3-BE7C34F10335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="765" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
     <sheet name="ASD touch" sheetId="2" r:id="rId6"/>
     <sheet name="TD touch" sheetId="4" r:id="rId7"/>
+    <sheet name="RBS" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AQ$99</definedName>
@@ -184,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="465">
   <si>
     <t>group</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1660,6 +1661,390 @@
   <si>
     <t>pain_threshold</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>rbs_total</t>
+  </si>
+  <si>
+    <t>stereotyped</t>
+  </si>
+  <si>
+    <t>self_injurious</t>
+  </si>
+  <si>
+    <t>compulsive</t>
+  </si>
+  <si>
+    <t>ritual</t>
+  </si>
+  <si>
+    <t>monotonous</t>
+  </si>
+  <si>
+    <t>restricted</t>
+  </si>
+  <si>
+    <t>192秒</t>
+  </si>
+  <si>
+    <t>234秒</t>
+  </si>
+  <si>
+    <t>263秒</t>
+  </si>
+  <si>
+    <t>115秒</t>
+  </si>
+  <si>
+    <t>390秒</t>
+  </si>
+  <si>
+    <t>475秒</t>
+  </si>
+  <si>
+    <t>113秒</t>
+  </si>
+  <si>
+    <t>185秒</t>
+  </si>
+  <si>
+    <t>108秒</t>
+  </si>
+  <si>
+    <t>387秒</t>
+  </si>
+  <si>
+    <t>511秒</t>
+  </si>
+  <si>
+    <t>193秒</t>
+  </si>
+  <si>
+    <t>183秒</t>
+  </si>
+  <si>
+    <t>221秒</t>
+  </si>
+  <si>
+    <t>220秒</t>
+  </si>
+  <si>
+    <t>255秒</t>
+  </si>
+  <si>
+    <t>110秒</t>
+  </si>
+  <si>
+    <t>257秒</t>
+  </si>
+  <si>
+    <t>319秒</t>
+  </si>
+  <si>
+    <t>203秒</t>
+  </si>
+  <si>
+    <t>279秒</t>
+  </si>
+  <si>
+    <t>529秒</t>
+  </si>
+  <si>
+    <t>200秒</t>
+  </si>
+  <si>
+    <t>411秒</t>
+  </si>
+  <si>
+    <t>278秒</t>
+  </si>
+  <si>
+    <t>146秒</t>
+  </si>
+  <si>
+    <t>241秒</t>
+  </si>
+  <si>
+    <t>136秒</t>
+  </si>
+  <si>
+    <t>114秒</t>
+  </si>
+  <si>
+    <t>154秒</t>
+  </si>
+  <si>
+    <t>167秒</t>
+  </si>
+  <si>
+    <t>187秒</t>
+  </si>
+  <si>
+    <t>释若涵</t>
+  </si>
+  <si>
+    <t>210秒</t>
+  </si>
+  <si>
+    <t>179秒</t>
+  </si>
+  <si>
+    <t>194秒</t>
+  </si>
+  <si>
+    <t>144秒</t>
+  </si>
+  <si>
+    <t>208秒</t>
+  </si>
+  <si>
+    <t>444秒</t>
+  </si>
+  <si>
+    <t>119秒</t>
+  </si>
+  <si>
+    <t>280秒</t>
+  </si>
+  <si>
+    <t>112秒</t>
+  </si>
+  <si>
+    <t>298秒</t>
+  </si>
+  <si>
+    <t>116秒</t>
+  </si>
+  <si>
+    <t>500秒</t>
+  </si>
+  <si>
+    <t>1922秒</t>
+  </si>
+  <si>
+    <t>171秒</t>
+  </si>
+  <si>
+    <t>465秒</t>
+  </si>
+  <si>
+    <t>355秒</t>
+  </si>
+  <si>
+    <t>487秒</t>
+  </si>
+  <si>
+    <t>428秒</t>
+  </si>
+  <si>
+    <t>814秒</t>
+  </si>
+  <si>
+    <t>366秒</t>
+  </si>
+  <si>
+    <t>320秒</t>
+  </si>
+  <si>
+    <t>458秒</t>
+  </si>
+  <si>
+    <t>296秒</t>
+  </si>
+  <si>
+    <t>290秒</t>
+  </si>
+  <si>
+    <t>266秒</t>
+  </si>
+  <si>
+    <t>199秒</t>
+  </si>
+  <si>
+    <t>471秒</t>
+  </si>
+  <si>
+    <t>368秒</t>
+  </si>
+  <si>
+    <t>238秒</t>
+  </si>
+  <si>
+    <t>153秒</t>
+  </si>
+  <si>
+    <t>673秒</t>
+  </si>
+  <si>
+    <t>300秒</t>
+  </si>
+  <si>
+    <t>341秒</t>
+  </si>
+  <si>
+    <t>438秒</t>
+  </si>
+  <si>
+    <t>850秒</t>
+  </si>
+  <si>
+    <t>317秒</t>
+  </si>
+  <si>
+    <t>336秒</t>
+  </si>
+  <si>
+    <t>347秒</t>
+  </si>
+  <si>
+    <t>166秒</t>
+  </si>
+  <si>
+    <t>286秒</t>
+  </si>
+  <si>
+    <t>164秒</t>
+  </si>
+  <si>
+    <t>334秒</t>
+  </si>
+  <si>
+    <t>134秒</t>
+  </si>
+  <si>
+    <t>1335秒</t>
+  </si>
+  <si>
+    <t>261秒</t>
+  </si>
+  <si>
+    <t>632秒</t>
+  </si>
+  <si>
+    <t>485秒</t>
+  </si>
+  <si>
+    <t>455秒</t>
+  </si>
+  <si>
+    <t>408秒</t>
+  </si>
+  <si>
+    <t>197秒</t>
+  </si>
+  <si>
+    <t>466秒</t>
+  </si>
+  <si>
+    <t>294秒</t>
+  </si>
+  <si>
+    <t>86秒</t>
+  </si>
+  <si>
+    <t>360秒</t>
+  </si>
+  <si>
+    <t>157秒</t>
+  </si>
+  <si>
+    <t>211秒</t>
+  </si>
+  <si>
+    <t>351秒</t>
+  </si>
+  <si>
+    <t>892秒</t>
+  </si>
+  <si>
+    <t>236秒</t>
+  </si>
+  <si>
+    <t>165秒</t>
+  </si>
+  <si>
+    <t>198秒</t>
+  </si>
+  <si>
+    <t>348秒</t>
+  </si>
+  <si>
+    <t>232秒</t>
+  </si>
+  <si>
+    <t>240秒</t>
+  </si>
+  <si>
+    <t>100秒</t>
+  </si>
+  <si>
+    <t>400秒</t>
+  </si>
+  <si>
+    <t>1001秒</t>
+  </si>
+  <si>
+    <t>676秒</t>
+  </si>
+  <si>
+    <t>247秒</t>
+  </si>
+  <si>
+    <t>453秒</t>
+  </si>
+  <si>
+    <t>222秒</t>
+  </si>
+  <si>
+    <t>2417秒</t>
+  </si>
+  <si>
+    <t>b2414</t>
+  </si>
+  <si>
+    <t>223秒</t>
+  </si>
+  <si>
+    <t>712秒</t>
+  </si>
+  <si>
+    <t>442秒</t>
+  </si>
+  <si>
+    <t>460秒</t>
+  </si>
+  <si>
+    <t>71秒</t>
+  </si>
+  <si>
+    <t>170秒</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>89秒</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>120秒</t>
+  </si>
+  <si>
+    <t>香蕉41号</t>
+  </si>
+  <si>
+    <t>69秒</t>
+  </si>
 </sst>
 </file>
 
@@ -2033,7 +2418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2332,6 +2717,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2624,11 +3016,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AZ99"/>
+  <dimension ref="A1:BG99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY96" sqref="AY96"/>
+      <selection pane="bottomLeft" activeCell="BD7" sqref="A1:BG99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
@@ -2638,7 +3030,7 @@
     <col min="51" max="52" width="8.875" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="63">
+    <row r="1" spans="1:59" ht="63">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2795,8 +3187,29 @@
       <c r="AZ1" s="106" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="2" spans="1:52">
+      <c r="BA1" s="110" t="s">
+        <v>340</v>
+      </c>
+      <c r="BB1" s="110" t="s">
+        <v>341</v>
+      </c>
+      <c r="BC1" s="110" t="s">
+        <v>342</v>
+      </c>
+      <c r="BD1" s="110" t="s">
+        <v>343</v>
+      </c>
+      <c r="BE1" s="110" t="s">
+        <v>344</v>
+      </c>
+      <c r="BF1" s="110" t="s">
+        <v>345</v>
+      </c>
+      <c r="BG1" s="110" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2959,8 +3372,36 @@
       <c r="AZ2" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="3" spans="1:52">
+      <c r="BA2" s="109">
+        <f>VLOOKUP(C2,RBS!A:J,4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BB2" s="109">
+        <f>VLOOKUP(C2,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC2" s="109">
+        <f>VLOOKUP(C2,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD2" s="109">
+        <f>VLOOKUP(C2,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE2" s="109">
+        <f>VLOOKUP(C2,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF2" s="109">
+        <f>VLOOKUP(C2,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG2" s="109">
+        <f>VLOOKUP(C2,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3123,8 +3564,36 @@
       <c r="AZ3" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="4" spans="1:52">
+      <c r="BA3" s="109">
+        <f>VLOOKUP(C3,RBS!A:J,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BB3" s="109">
+        <f>VLOOKUP(C3,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC3" s="109">
+        <f>VLOOKUP(C3,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD3" s="109">
+        <f>VLOOKUP(C3,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE3" s="109">
+        <f>VLOOKUP(C3,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF3" s="109">
+        <f>VLOOKUP(C3,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG3" s="109">
+        <f>VLOOKUP(C3,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -3287,8 +3756,36 @@
       <c r="AZ4" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="BA4" s="109">
+        <f>VLOOKUP(C4,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB4" s="109">
+        <f>VLOOKUP(C4,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC4" s="109">
+        <f>VLOOKUP(C4,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="109">
+        <f>VLOOKUP(C4,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE4" s="109">
+        <f>VLOOKUP(C4,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF4" s="109">
+        <f>VLOOKUP(C4,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG4" s="109">
+        <f>VLOOKUP(C4,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -3451,8 +3948,36 @@
       <c r="AZ5" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="6" spans="1:52">
+      <c r="BA5" s="109">
+        <f>VLOOKUP(C5,RBS!A:J,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BB5" s="109">
+        <f>VLOOKUP(C5,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC5" s="109">
+        <f>VLOOKUP(C5,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD5" s="109">
+        <f>VLOOKUP(C5,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE5" s="109">
+        <f>VLOOKUP(C5,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF5" s="109">
+        <f>VLOOKUP(C5,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG5" s="109">
+        <f>VLOOKUP(C5,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -3615,8 +4140,36 @@
       <c r="AZ6" s="91">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="7" spans="1:52">
+      <c r="BA6" s="109">
+        <f>VLOOKUP(C6,RBS!A:J,4,0)</f>
+        <v>28</v>
+      </c>
+      <c r="BB6" s="109">
+        <f>VLOOKUP(C6,RBS!A:J,5,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BC6" s="109">
+        <f>VLOOKUP(C6,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD6" s="109">
+        <f>VLOOKUP(C6,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE6" s="109">
+        <f>VLOOKUP(C6,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF6" s="109">
+        <f>VLOOKUP(C6,RBS!A:J,9,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BG6" s="109">
+        <f>VLOOKUP(C6,RBS!A:J,10,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -3779,8 +4332,36 @@
       <c r="AZ7" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="8" spans="1:52">
+      <c r="BA7" s="109">
+        <f>VLOOKUP(C7,RBS!A:J,4,0)</f>
+        <v>24</v>
+      </c>
+      <c r="BB7" s="109">
+        <f>VLOOKUP(C7,RBS!A:J,5,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BC7" s="109">
+        <f>VLOOKUP(C7,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD7" s="109">
+        <f>VLOOKUP(C7,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE7" s="109">
+        <f>VLOOKUP(C7,RBS!A:J,8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BF7" s="109">
+        <f>VLOOKUP(C7,RBS!A:J,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BG7" s="109">
+        <f>VLOOKUP(C7,RBS!A:J,10,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -3943,8 +4524,36 @@
       <c r="AZ8" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="9" spans="1:52">
+      <c r="BA8" s="109">
+        <f>VLOOKUP(C8,RBS!A:J,4,0)</f>
+        <v>11</v>
+      </c>
+      <c r="BB8" s="109">
+        <f>VLOOKUP(C8,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC8" s="109">
+        <f>VLOOKUP(C8,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD8" s="109">
+        <f>VLOOKUP(C8,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE8" s="109">
+        <f>VLOOKUP(C8,RBS!A:J,8,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BF8" s="109">
+        <f>VLOOKUP(C8,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG8" s="109">
+        <f>VLOOKUP(C8,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -4107,8 +4716,36 @@
       <c r="AZ9" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="10" spans="1:52">
+      <c r="BA9" s="109">
+        <f>VLOOKUP(C9,RBS!A:J,4,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BB9" s="109">
+        <f>VLOOKUP(C9,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC9" s="109">
+        <f>VLOOKUP(C9,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD9" s="109">
+        <f>VLOOKUP(C9,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE9" s="109">
+        <f>VLOOKUP(C9,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF9" s="109">
+        <f>VLOOKUP(C9,RBS!A:J,9,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BG9" s="109">
+        <f>VLOOKUP(C9,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -4271,8 +4908,36 @@
       <c r="AZ10" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="11" spans="1:52">
+      <c r="BA10" s="109">
+        <f>VLOOKUP(C10,RBS!A:J,4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BB10" s="109">
+        <f>VLOOKUP(C10,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC10" s="109">
+        <f>VLOOKUP(C10,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD10" s="109">
+        <f>VLOOKUP(C10,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE10" s="109">
+        <f>VLOOKUP(C10,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF10" s="109">
+        <f>VLOOKUP(C10,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG10" s="109">
+        <f>VLOOKUP(C10,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4435,8 +5100,36 @@
       <c r="AZ11" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="12" spans="1:52">
+      <c r="BA11" s="109">
+        <f>VLOOKUP(C11,RBS!A:J,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="BB11" s="109">
+        <f>VLOOKUP(C11,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC11" s="109">
+        <f>VLOOKUP(C11,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD11" s="109">
+        <f>VLOOKUP(C11,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE11" s="109">
+        <f>VLOOKUP(C11,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF11" s="109">
+        <f>VLOOKUP(C11,RBS!A:J,9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BG11" s="109">
+        <f>VLOOKUP(C11,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4599,8 +5292,36 @@
       <c r="AZ12" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="13" spans="1:52">
+      <c r="BA12" s="109">
+        <f>VLOOKUP(C12,RBS!A:J,4,0)</f>
+        <v>20</v>
+      </c>
+      <c r="BB12" s="109">
+        <f>VLOOKUP(C12,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC12" s="109">
+        <f>VLOOKUP(C12,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD12" s="109">
+        <f>VLOOKUP(C12,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE12" s="109">
+        <f>VLOOKUP(C12,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF12" s="109">
+        <f>VLOOKUP(C12,RBS!A:J,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BG12" s="109">
+        <f>VLOOKUP(C12,RBS!A:J,10,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -4763,8 +5484,36 @@
       <c r="AZ13" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="14" spans="1:52">
+      <c r="BA13" s="109">
+        <f>VLOOKUP(C13,RBS!A:J,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BB13" s="109">
+        <f>VLOOKUP(C13,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC13" s="109">
+        <f>VLOOKUP(C13,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD13" s="109">
+        <f>VLOOKUP(C13,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE13" s="109">
+        <f>VLOOKUP(C13,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF13" s="109">
+        <f>VLOOKUP(C13,RBS!A:J,9,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BG13" s="109">
+        <f>VLOOKUP(C13,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4927,8 +5676,36 @@
       <c r="AZ14" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="15" spans="1:52">
+      <c r="BA14" s="109">
+        <f>VLOOKUP(C14,RBS!A:J,4,0)</f>
+        <v>15</v>
+      </c>
+      <c r="BB14" s="109">
+        <f>VLOOKUP(C14,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC14" s="109">
+        <f>VLOOKUP(C14,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="109">
+        <f>VLOOKUP(C14,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE14" s="109">
+        <f>VLOOKUP(C14,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF14" s="109">
+        <f>VLOOKUP(C14,RBS!A:J,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BG14" s="109">
+        <f>VLOOKUP(C14,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -5091,8 +5868,36 @@
       <c r="AZ15" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="16" spans="1:52">
+      <c r="BA15" s="109">
+        <f>VLOOKUP(C15,RBS!A:J,4,0)</f>
+        <v>15</v>
+      </c>
+      <c r="BB15" s="109">
+        <f>VLOOKUP(C15,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC15" s="109">
+        <f>VLOOKUP(C15,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD15" s="109">
+        <f>VLOOKUP(C15,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="109">
+        <f>VLOOKUP(C15,RBS!A:J,8,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BF15" s="109">
+        <f>VLOOKUP(C15,RBS!A:J,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BG15" s="109">
+        <f>VLOOKUP(C15,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -5255,8 +6060,36 @@
       <c r="AZ16" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="17" spans="1:52">
+      <c r="BA16" s="109">
+        <f>VLOOKUP(C16,RBS!A:J,4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="BB16" s="109">
+        <f>VLOOKUP(C16,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC16" s="109">
+        <f>VLOOKUP(C16,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD16" s="109">
+        <f>VLOOKUP(C16,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE16" s="109">
+        <f>VLOOKUP(C16,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF16" s="109">
+        <f>VLOOKUP(C16,RBS!A:J,9,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BG16" s="109">
+        <f>VLOOKUP(C16,RBS!A:J,10,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -5419,8 +6252,36 @@
       <c r="AZ17" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="18" spans="1:52">
+      <c r="BA17" s="109">
+        <f>VLOOKUP(C17,RBS!A:J,4,0)</f>
+        <v>22</v>
+      </c>
+      <c r="BB17" s="109">
+        <f>VLOOKUP(C17,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC17" s="109">
+        <f>VLOOKUP(C17,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD17" s="109">
+        <f>VLOOKUP(C17,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE17" s="109">
+        <f>VLOOKUP(C17,RBS!A:J,8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BF17" s="109">
+        <f>VLOOKUP(C17,RBS!A:J,9,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BG17" s="109">
+        <f>VLOOKUP(C17,RBS!A:J,10,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -5583,8 +6444,36 @@
       <c r="AZ18" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="19" spans="1:52">
+      <c r="BA18" s="109">
+        <f>VLOOKUP(C18,RBS!A:J,4,0)</f>
+        <v>16</v>
+      </c>
+      <c r="BB18" s="109">
+        <f>VLOOKUP(C18,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC18" s="109">
+        <f>VLOOKUP(C18,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="109">
+        <f>VLOOKUP(C18,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE18" s="109">
+        <f>VLOOKUP(C18,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF18" s="109">
+        <f>VLOOKUP(C18,RBS!A:J,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BG18" s="109">
+        <f>VLOOKUP(C18,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -5747,8 +6636,36 @@
       <c r="AZ19" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="20" spans="1:52">
+      <c r="BA19" s="109">
+        <f>VLOOKUP(C19,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB19" s="109">
+        <f>VLOOKUP(C19,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="109">
+        <f>VLOOKUP(C19,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="109">
+        <f>VLOOKUP(C19,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="109">
+        <f>VLOOKUP(C19,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF19" s="109">
+        <f>VLOOKUP(C19,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG19" s="109">
+        <f>VLOOKUP(C19,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5911,8 +6828,36 @@
       <c r="AZ20" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="21" spans="1:52">
+      <c r="BA20" s="109">
+        <f>VLOOKUP(C20,RBS!A:J,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BB20" s="109">
+        <f>VLOOKUP(C20,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC20" s="109">
+        <f>VLOOKUP(C20,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="109">
+        <f>VLOOKUP(C20,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE20" s="109">
+        <f>VLOOKUP(C20,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF20" s="109">
+        <f>VLOOKUP(C20,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG20" s="109">
+        <f>VLOOKUP(C20,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -6075,8 +7020,36 @@
       <c r="AZ21" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="22" spans="1:52">
+      <c r="BA21" s="109">
+        <f>VLOOKUP(C21,RBS!A:J,4,0)</f>
+        <v>23</v>
+      </c>
+      <c r="BB21" s="109">
+        <f>VLOOKUP(C21,RBS!A:J,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BC21" s="109">
+        <f>VLOOKUP(C21,RBS!A:J,6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BD21" s="109">
+        <f>VLOOKUP(C21,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE21" s="109">
+        <f>VLOOKUP(C21,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="109">
+        <f>VLOOKUP(C21,RBS!A:J,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BG21" s="109">
+        <f>VLOOKUP(C21,RBS!A:J,10,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -6239,8 +7212,36 @@
       <c r="AZ22" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="23" spans="1:52">
+      <c r="BA22" s="109">
+        <f>VLOOKUP(C22,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB22" s="109">
+        <f>VLOOKUP(C22,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC22" s="109">
+        <f>VLOOKUP(C22,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD22" s="109">
+        <f>VLOOKUP(C22,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE22" s="109">
+        <f>VLOOKUP(C22,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF22" s="109">
+        <f>VLOOKUP(C22,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG22" s="109">
+        <f>VLOOKUP(C22,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -6403,8 +7404,36 @@
       <c r="AZ23" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="24" spans="1:52">
+      <c r="BA23" s="109">
+        <f>VLOOKUP(C23,RBS!A:J,4,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BB23" s="109">
+        <f>VLOOKUP(C23,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC23" s="109">
+        <f>VLOOKUP(C23,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD23" s="109">
+        <f>VLOOKUP(C23,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE23" s="109">
+        <f>VLOOKUP(C23,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF23" s="109">
+        <f>VLOOKUP(C23,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG23" s="109">
+        <f>VLOOKUP(C23,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -6567,8 +7596,36 @@
       <c r="AZ24" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="25" spans="1:52">
+      <c r="BA24" s="109">
+        <f>VLOOKUP(C24,RBS!A:J,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BB24" s="109">
+        <f>VLOOKUP(C24,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="109">
+        <f>VLOOKUP(C24,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="109">
+        <f>VLOOKUP(C24,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="109">
+        <f>VLOOKUP(C24,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="109">
+        <f>VLOOKUP(C24,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG24" s="109">
+        <f>VLOOKUP(C24,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -6731,8 +7788,36 @@
       <c r="AZ25" s="91">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="26" spans="1:52">
+      <c r="BA25" s="109">
+        <f>VLOOKUP(C25,RBS!A:J,4,0)</f>
+        <v>42</v>
+      </c>
+      <c r="BB25" s="109">
+        <f>VLOOKUP(C25,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC25" s="109">
+        <f>VLOOKUP(C25,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD25" s="109">
+        <f>VLOOKUP(C25,RBS!A:J,7,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BE25" s="109">
+        <f>VLOOKUP(C25,RBS!A:J,8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BF25" s="109">
+        <f>VLOOKUP(C25,RBS!A:J,9,0)</f>
+        <v>11</v>
+      </c>
+      <c r="BG25" s="109">
+        <f>VLOOKUP(C25,RBS!A:J,10,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -6895,8 +7980,36 @@
       <c r="AZ26" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="27" spans="1:52">
+      <c r="BA26" s="109">
+        <f>VLOOKUP(C26,RBS!A:J,4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BB26" s="109">
+        <f>VLOOKUP(C26,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC26" s="109">
+        <f>VLOOKUP(C26,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD26" s="109">
+        <f>VLOOKUP(C26,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="109">
+        <f>VLOOKUP(C26,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF26" s="109">
+        <f>VLOOKUP(C26,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG26" s="109">
+        <f>VLOOKUP(C26,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -7059,8 +8172,36 @@
       <c r="AZ27" s="91">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:52">
+      <c r="BA27" s="109">
+        <f>VLOOKUP(C27,RBS!A:J,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BB27" s="109">
+        <f>VLOOKUP(C27,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC27" s="109">
+        <f>VLOOKUP(C27,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD27" s="109">
+        <f>VLOOKUP(C27,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE27" s="109">
+        <f>VLOOKUP(C27,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF27" s="109">
+        <f>VLOOKUP(C27,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG27" s="109">
+        <f>VLOOKUP(C27,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -7223,8 +8364,36 @@
       <c r="AZ28" s="91">
         <v>4.08</v>
       </c>
-    </row>
-    <row r="29" spans="1:52">
+      <c r="BA28" s="109">
+        <f>VLOOKUP(C28,RBS!A:J,4,0)</f>
+        <v>13</v>
+      </c>
+      <c r="BB28" s="109">
+        <f>VLOOKUP(C28,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC28" s="109">
+        <f>VLOOKUP(C28,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD28" s="109">
+        <f>VLOOKUP(C28,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE28" s="109">
+        <f>VLOOKUP(C28,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF28" s="109">
+        <f>VLOOKUP(C28,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG28" s="109">
+        <f>VLOOKUP(C28,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -7387,8 +8556,36 @@
       <c r="AZ29" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="30" spans="1:52">
+      <c r="BA29" s="109">
+        <f>VLOOKUP(C29,RBS!A:J,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB29" s="109">
+        <f>VLOOKUP(C29,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="109">
+        <f>VLOOKUP(C29,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="109">
+        <f>VLOOKUP(C29,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="109">
+        <f>VLOOKUP(C29,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="109">
+        <f>VLOOKUP(C29,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="109">
+        <f>VLOOKUP(C29,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -7551,8 +8748,36 @@
       <c r="AZ30" s="91">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="31" spans="1:52">
+      <c r="BA30" s="109">
+        <f>VLOOKUP(C30,RBS!A:J,4,0)</f>
+        <v>21</v>
+      </c>
+      <c r="BB30" s="109">
+        <f>VLOOKUP(C30,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC30" s="109">
+        <f>VLOOKUP(C30,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD30" s="109">
+        <f>VLOOKUP(C30,RBS!A:J,7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BE30" s="109">
+        <f>VLOOKUP(C30,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF30" s="109">
+        <f>VLOOKUP(C30,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG30" s="109">
+        <f>VLOOKUP(C30,RBS!A:J,10,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -7715,8 +8940,36 @@
       <c r="AZ31" s="91">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:52">
+      <c r="BA31" s="109">
+        <f>VLOOKUP(C31,RBS!A:J,4,0)</f>
+        <v>35</v>
+      </c>
+      <c r="BB31" s="109">
+        <f>VLOOKUP(C31,RBS!A:J,5,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BC31" s="109">
+        <f>VLOOKUP(C31,RBS!A:J,6,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BD31" s="109">
+        <f>VLOOKUP(C31,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE31" s="109">
+        <f>VLOOKUP(C31,RBS!A:J,8,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BF31" s="109">
+        <f>VLOOKUP(C31,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG31" s="109">
+        <f>VLOOKUP(C31,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -7879,8 +9132,36 @@
       <c r="AZ32" s="91">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="33" spans="1:52">
+      <c r="BA32" s="109">
+        <f>VLOOKUP(C32,RBS!A:J,4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BB32" s="109">
+        <f>VLOOKUP(C32,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC32" s="109">
+        <f>VLOOKUP(C32,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD32" s="109">
+        <f>VLOOKUP(C32,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE32" s="109">
+        <f>VLOOKUP(C32,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF32" s="109">
+        <f>VLOOKUP(C32,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG32" s="109">
+        <f>VLOOKUP(C32,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -8043,8 +9324,36 @@
       <c r="AZ33" s="91">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="34" spans="1:52">
+      <c r="BA33" s="109">
+        <f>VLOOKUP(C33,RBS!A:J,4,0)</f>
+        <v>27</v>
+      </c>
+      <c r="BB33" s="109">
+        <f>VLOOKUP(C33,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC33" s="109">
+        <f>VLOOKUP(C33,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD33" s="109">
+        <f>VLOOKUP(C33,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE33" s="109">
+        <f>VLOOKUP(C33,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF33" s="109">
+        <f>VLOOKUP(C33,RBS!A:J,9,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BG33" s="109">
+        <f>VLOOKUP(C33,RBS!A:J,10,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -8207,8 +9516,36 @@
       <c r="AZ34" s="91">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="35" spans="1:52">
+      <c r="BA34" s="109">
+        <f>VLOOKUP(C34,RBS!A:J,4,0)</f>
+        <v>26</v>
+      </c>
+      <c r="BB34" s="109">
+        <f>VLOOKUP(C34,RBS!A:J,5,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BC34" s="109">
+        <f>VLOOKUP(C34,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD34" s="109">
+        <f>VLOOKUP(C34,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE34" s="109">
+        <f>VLOOKUP(C34,RBS!A:J,8,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BF34" s="109">
+        <f>VLOOKUP(C34,RBS!A:J,9,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BG34" s="109">
+        <f>VLOOKUP(C34,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -8371,8 +9708,36 @@
       <c r="AZ35" s="91">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="36" spans="1:52">
+      <c r="BA35" s="109">
+        <f>VLOOKUP(C35,RBS!A:J,4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BB35" s="109">
+        <f>VLOOKUP(C35,RBS!A:J,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BC35" s="109">
+        <f>VLOOKUP(C35,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD35" s="109">
+        <f>VLOOKUP(C35,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE35" s="109">
+        <f>VLOOKUP(C35,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="109">
+        <f>VLOOKUP(C35,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="109">
+        <f>VLOOKUP(C35,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -8535,8 +9900,36 @@
       <c r="AZ36" s="91">
         <v>4.08</v>
       </c>
-    </row>
-    <row r="37" spans="1:52">
+      <c r="BA36" s="109">
+        <f>VLOOKUP(C36,RBS!A:J,4,0)</f>
+        <v>36</v>
+      </c>
+      <c r="BB36" s="109">
+        <f>VLOOKUP(C36,RBS!A:J,5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BC36" s="109">
+        <f>VLOOKUP(C36,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD36" s="109">
+        <f>VLOOKUP(C36,RBS!A:J,7,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BE36" s="109">
+        <f>VLOOKUP(C36,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF36" s="109">
+        <f>VLOOKUP(C36,RBS!A:J,9,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BG36" s="109">
+        <f>VLOOKUP(C36,RBS!A:J,10,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -8699,8 +10092,36 @@
       <c r="AZ37" s="91">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="38" spans="1:52">
+      <c r="BA37" s="109">
+        <f>VLOOKUP(C37,RBS!A:J,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BB37" s="109">
+        <f>VLOOKUP(C37,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC37" s="109">
+        <f>VLOOKUP(C37,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD37" s="109">
+        <f>VLOOKUP(C37,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="109">
+        <f>VLOOKUP(C37,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF37" s="109">
+        <f>VLOOKUP(C37,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG37" s="109">
+        <f>VLOOKUP(C37,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -8863,8 +10284,36 @@
       <c r="AZ38" s="91">
         <v>4.5599999999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:52">
+      <c r="BA38" s="109">
+        <f>VLOOKUP(C38,RBS!A:J,4,0)</f>
+        <v>26</v>
+      </c>
+      <c r="BB38" s="109">
+        <f>VLOOKUP(C38,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC38" s="109">
+        <f>VLOOKUP(C38,RBS!A:J,6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BD38" s="109">
+        <f>VLOOKUP(C38,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE38" s="109">
+        <f>VLOOKUP(C38,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF38" s="109">
+        <f>VLOOKUP(C38,RBS!A:J,9,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BG38" s="109">
+        <f>VLOOKUP(C38,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -9027,8 +10476,36 @@
       <c r="AZ39" s="91">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:52">
+      <c r="BA39" s="109">
+        <f>VLOOKUP(C39,RBS!A:J,4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BB39" s="109">
+        <f>VLOOKUP(C39,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC39" s="109">
+        <f>VLOOKUP(C39,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="109">
+        <f>VLOOKUP(C39,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="109">
+        <f>VLOOKUP(C39,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF39" s="109">
+        <f>VLOOKUP(C39,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG39" s="109">
+        <f>VLOOKUP(C39,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -9191,8 +10668,36 @@
       <c r="AZ40" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="41" spans="1:52">
+      <c r="BA40" s="109">
+        <f>VLOOKUP(C40,RBS!A:J,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BB40" s="109">
+        <f>VLOOKUP(C40,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC40" s="109">
+        <f>VLOOKUP(C40,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD40" s="109">
+        <f>VLOOKUP(C40,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE40" s="109">
+        <f>VLOOKUP(C40,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF40" s="109">
+        <f>VLOOKUP(C40,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG40" s="109">
+        <f>VLOOKUP(C40,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -9355,8 +10860,36 @@
       <c r="AZ41" s="91">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="42" spans="1:52">
+      <c r="BA41" s="109">
+        <f>VLOOKUP(C41,RBS!A:J,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BB41" s="109">
+        <f>VLOOKUP(C41,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC41" s="109">
+        <f>VLOOKUP(C41,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD41" s="109">
+        <f>VLOOKUP(C41,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE41" s="109">
+        <f>VLOOKUP(C41,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF41" s="109">
+        <f>VLOOKUP(C41,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG41" s="109">
+        <f>VLOOKUP(C41,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -9519,8 +11052,36 @@
       <c r="AZ42" s="91">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="43" spans="1:52">
+      <c r="BA42" s="109">
+        <f>VLOOKUP(C42,RBS!A:J,4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="BB42" s="109">
+        <f>VLOOKUP(C42,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC42" s="109">
+        <f>VLOOKUP(C42,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD42" s="109">
+        <f>VLOOKUP(C42,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE42" s="109">
+        <f>VLOOKUP(C42,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF42" s="109">
+        <f>VLOOKUP(C42,RBS!A:J,9,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BG42" s="109">
+        <f>VLOOKUP(C42,RBS!A:J,10,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -9683,8 +11244,36 @@
       <c r="AZ43" s="91">
         <v>5.88</v>
       </c>
-    </row>
-    <row r="44" spans="1:52">
+      <c r="BA43" s="109">
+        <f>VLOOKUP(C43,RBS!A:J,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB43" s="109">
+        <f>VLOOKUP(C43,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC43" s="109">
+        <f>VLOOKUP(C43,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD43" s="109">
+        <f>VLOOKUP(C43,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE43" s="109">
+        <f>VLOOKUP(C43,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF43" s="109">
+        <f>VLOOKUP(C43,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG43" s="109">
+        <f>VLOOKUP(C43,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -9847,8 +11436,36 @@
       <c r="AZ44" s="91">
         <v>6.65</v>
       </c>
-    </row>
-    <row r="45" spans="1:52">
+      <c r="BA44" s="109">
+        <f>VLOOKUP(C44,RBS!A:J,4,0)</f>
+        <v>13</v>
+      </c>
+      <c r="BB44" s="109">
+        <f>VLOOKUP(C44,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC44" s="109">
+        <f>VLOOKUP(C44,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD44" s="109">
+        <f>VLOOKUP(C44,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE44" s="109">
+        <f>VLOOKUP(C44,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF44" s="109">
+        <f>VLOOKUP(C44,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG44" s="109">
+        <f>VLOOKUP(C44,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -10011,8 +11628,36 @@
       <c r="AZ45" s="91">
         <v>3.84</v>
       </c>
-    </row>
-    <row r="46" spans="1:52">
+      <c r="BA45" s="109">
+        <f>VLOOKUP(C45,RBS!A:J,4,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BB45" s="109">
+        <f>VLOOKUP(C45,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC45" s="109">
+        <f>VLOOKUP(C45,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD45" s="109">
+        <f>VLOOKUP(C45,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE45" s="109">
+        <f>VLOOKUP(C45,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF45" s="109">
+        <f>VLOOKUP(C45,RBS!A:J,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BG45" s="109">
+        <f>VLOOKUP(C45,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -10175,8 +11820,36 @@
       <c r="AZ46" s="91">
         <v>3.61</v>
       </c>
-    </row>
-    <row r="47" spans="1:52">
+      <c r="BA46" s="109">
+        <f>VLOOKUP(C46,RBS!A:J,4,0)</f>
+        <v>12</v>
+      </c>
+      <c r="BB46" s="109">
+        <f>VLOOKUP(C46,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC46" s="109">
+        <f>VLOOKUP(C46,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD46" s="109">
+        <f>VLOOKUP(C46,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE46" s="109">
+        <f>VLOOKUP(C46,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF46" s="109">
+        <f>VLOOKUP(C46,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG46" s="109">
+        <f>VLOOKUP(C46,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -10339,8 +12012,36 @@
       <c r="AZ47" s="91">
         <v>5.07</v>
       </c>
-    </row>
-    <row r="48" spans="1:52">
+      <c r="BA47" s="109">
+        <f>VLOOKUP(C47,RBS!A:J,4,0)</f>
+        <v>29</v>
+      </c>
+      <c r="BB47" s="109">
+        <f>VLOOKUP(C47,RBS!A:J,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BC47" s="109">
+        <f>VLOOKUP(C47,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD47" s="109">
+        <f>VLOOKUP(C47,RBS!A:J,7,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BE47" s="109">
+        <f>VLOOKUP(C47,RBS!A:J,8,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BF47" s="109">
+        <f>VLOOKUP(C47,RBS!A:J,9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BG47" s="109">
+        <f>VLOOKUP(C47,RBS!A:J,10,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -10503,8 +12204,36 @@
       <c r="AZ48" s="91">
         <v>4.3099999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:52">
+      <c r="BA48" s="109">
+        <f>VLOOKUP(C48,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB48" s="109">
+        <f>VLOOKUP(C48,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC48" s="109">
+        <f>VLOOKUP(C48,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD48" s="109">
+        <f>VLOOKUP(C48,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE48" s="109">
+        <f>VLOOKUP(C48,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF48" s="109">
+        <f>VLOOKUP(C48,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG48" s="109">
+        <f>VLOOKUP(C48,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -10664,8 +12393,36 @@
       <c r="AZ49" s="91">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:52">
+      <c r="BA49" s="109">
+        <f>VLOOKUP(C49,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB49" s="109">
+        <f>VLOOKUP(C49,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC49" s="109">
+        <f>VLOOKUP(C49,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD49" s="109">
+        <f>VLOOKUP(C49,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE49" s="109">
+        <f>VLOOKUP(C49,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF49" s="109">
+        <f>VLOOKUP(C49,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG49" s="109">
+        <f>VLOOKUP(C49,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59">
       <c r="A50" s="72">
         <v>2</v>
       </c>
@@ -10825,8 +12582,36 @@
       <c r="AZ50" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="51" spans="1:52">
+      <c r="BA50" s="109">
+        <f>VLOOKUP(C50,RBS!A:J,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BB50" s="109">
+        <f>VLOOKUP(C50,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC50" s="109">
+        <f>VLOOKUP(C50,RBS!A:J,6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BD50" s="109">
+        <f>VLOOKUP(C50,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE50" s="109">
+        <f>VLOOKUP(C50,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF50" s="109">
+        <f>VLOOKUP(C50,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG50" s="109">
+        <f>VLOOKUP(C50,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59">
       <c r="A51" s="72">
         <v>2</v>
       </c>
@@ -10986,8 +12771,36 @@
       <c r="AZ51" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="52" spans="1:52">
+      <c r="BA51" s="109">
+        <f>VLOOKUP(C51,RBS!A:J,4,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BB51" s="109">
+        <f>VLOOKUP(C51,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC51" s="109">
+        <f>VLOOKUP(C51,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD51" s="109">
+        <f>VLOOKUP(C51,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE51" s="109">
+        <f>VLOOKUP(C51,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF51" s="109">
+        <f>VLOOKUP(C51,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG51" s="109">
+        <f>VLOOKUP(C51,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:59">
       <c r="A52" s="72">
         <v>2</v>
       </c>
@@ -11147,8 +12960,36 @@
       <c r="AZ52" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="53" spans="1:52">
+      <c r="BA52" s="109">
+        <f>VLOOKUP(C52,RBS!A:J,4,0)</f>
+        <v>25</v>
+      </c>
+      <c r="BB52" s="109">
+        <f>VLOOKUP(C52,RBS!A:J,5,0)</f>
+        <v>11</v>
+      </c>
+      <c r="BC52" s="109">
+        <f>VLOOKUP(C52,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD52" s="109">
+        <f>VLOOKUP(C52,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE52" s="109">
+        <f>VLOOKUP(C52,RBS!A:J,8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BF52" s="109">
+        <f>VLOOKUP(C52,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG52" s="109">
+        <f>VLOOKUP(C52,RBS!A:J,10,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:59">
       <c r="A53" s="72">
         <v>2</v>
       </c>
@@ -11308,8 +13149,36 @@
       <c r="AZ53" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="54" spans="1:52">
+      <c r="BA53" s="109">
+        <f>VLOOKUP(C53,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB53" s="109">
+        <f>VLOOKUP(C53,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC53" s="109">
+        <f>VLOOKUP(C53,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD53" s="109">
+        <f>VLOOKUP(C53,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE53" s="109">
+        <f>VLOOKUP(C53,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF53" s="109">
+        <f>VLOOKUP(C53,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG53" s="109">
+        <f>VLOOKUP(C53,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59">
       <c r="A54" s="72">
         <v>2</v>
       </c>
@@ -11469,8 +13338,36 @@
       <c r="AZ54" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="55" spans="1:52">
+      <c r="BA54" s="109">
+        <f>VLOOKUP(C54,RBS!A:J,4,0)</f>
+        <v>16</v>
+      </c>
+      <c r="BB54" s="109">
+        <f>VLOOKUP(C54,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC54" s="109">
+        <f>VLOOKUP(C54,RBS!A:J,6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BD54" s="109">
+        <f>VLOOKUP(C54,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE54" s="109">
+        <f>VLOOKUP(C54,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF54" s="109">
+        <f>VLOOKUP(C54,RBS!A:J,9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BG54" s="109">
+        <f>VLOOKUP(C54,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59">
       <c r="A55" s="72">
         <v>2</v>
       </c>
@@ -11630,8 +13527,36 @@
       <c r="AZ55" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="56" spans="1:52">
+      <c r="BA55" s="109">
+        <f>VLOOKUP(C55,RBS!A:J,4,0)</f>
+        <v>42</v>
+      </c>
+      <c r="BB55" s="109">
+        <f>VLOOKUP(C55,RBS!A:J,5,0)</f>
+        <v>17</v>
+      </c>
+      <c r="BC55" s="109">
+        <f>VLOOKUP(C55,RBS!A:J,6,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BD55" s="109">
+        <f>VLOOKUP(C55,RBS!A:J,7,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BE55" s="109">
+        <f>VLOOKUP(C55,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF55" s="109">
+        <f>VLOOKUP(C55,RBS!A:J,9,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BG55" s="109">
+        <f>VLOOKUP(C55,RBS!A:J,10,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59">
       <c r="A56" s="72">
         <v>2</v>
       </c>
@@ -11791,8 +13716,36 @@
       <c r="AZ56" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="57" spans="1:52">
+      <c r="BA56" s="109">
+        <f>VLOOKUP(C56,RBS!A:J,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="BB56" s="109">
+        <f>VLOOKUP(C56,RBS!A:J,5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BC56" s="109">
+        <f>VLOOKUP(C56,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD56" s="109">
+        <f>VLOOKUP(C56,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE56" s="109">
+        <f>VLOOKUP(C56,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF56" s="109">
+        <f>VLOOKUP(C56,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG56" s="109">
+        <f>VLOOKUP(C56,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59">
       <c r="A57" s="72">
         <v>2</v>
       </c>
@@ -11952,8 +13905,36 @@
       <c r="AZ57" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="58" spans="1:52">
+      <c r="BA57" s="109">
+        <f>VLOOKUP(C57,RBS!A:J,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB57" s="109">
+        <f>VLOOKUP(C57,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC57" s="109">
+        <f>VLOOKUP(C57,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD57" s="109">
+        <f>VLOOKUP(C57,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE57" s="109">
+        <f>VLOOKUP(C57,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF57" s="109">
+        <f>VLOOKUP(C57,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG57" s="109">
+        <f>VLOOKUP(C57,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59">
       <c r="A58" s="72">
         <v>2</v>
       </c>
@@ -12113,8 +14094,36 @@
       <c r="AZ58" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="59" spans="1:52">
+      <c r="BA58" s="109">
+        <f>VLOOKUP(C58,RBS!A:J,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB58" s="109">
+        <f>VLOOKUP(C58,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC58" s="109">
+        <f>VLOOKUP(C58,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD58" s="109">
+        <f>VLOOKUP(C58,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE58" s="109">
+        <f>VLOOKUP(C58,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF58" s="109">
+        <f>VLOOKUP(C58,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG58" s="109">
+        <f>VLOOKUP(C58,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59">
       <c r="A59" s="72">
         <v>2</v>
       </c>
@@ -12274,8 +14283,36 @@
       <c r="AZ59" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="60" spans="1:52">
+      <c r="BA59" s="109">
+        <f>VLOOKUP(C59,RBS!A:J,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BB59" s="109">
+        <f>VLOOKUP(C59,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC59" s="109">
+        <f>VLOOKUP(C59,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD59" s="109">
+        <f>VLOOKUP(C59,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE59" s="109">
+        <f>VLOOKUP(C59,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF59" s="109">
+        <f>VLOOKUP(C59,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG59" s="109">
+        <f>VLOOKUP(C59,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59">
       <c r="A60" s="72">
         <v>2</v>
       </c>
@@ -12435,8 +14472,36 @@
       <c r="AZ60" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="61" spans="1:52">
+      <c r="BA60" s="109">
+        <f>VLOOKUP(C60,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB60" s="109">
+        <f>VLOOKUP(C60,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC60" s="109">
+        <f>VLOOKUP(C60,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD60" s="109">
+        <f>VLOOKUP(C60,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE60" s="109">
+        <f>VLOOKUP(C60,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF60" s="109">
+        <f>VLOOKUP(C60,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG60" s="109">
+        <f>VLOOKUP(C60,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59">
       <c r="A61" s="72">
         <v>2</v>
       </c>
@@ -12546,8 +14611,36 @@
       <c r="AZ61" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="62" spans="1:52">
+      <c r="BA61" s="109" t="e">
+        <f>VLOOKUP(C61,RBS!A:J,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BB61" s="109" t="e">
+        <f>VLOOKUP(C61,RBS!A:J,5,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BC61" s="109" t="e">
+        <f>VLOOKUP(C61,RBS!A:J,6,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BD61" s="109" t="e">
+        <f>VLOOKUP(C61,RBS!A:J,7,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BE61" s="109" t="e">
+        <f>VLOOKUP(C61,RBS!A:J,8,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BF61" s="109" t="e">
+        <f>VLOOKUP(C61,RBS!A:J,9,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="BG61" s="109" t="e">
+        <f>VLOOKUP(C61,RBS!A:J,10,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59">
       <c r="A62" s="72">
         <v>2</v>
       </c>
@@ -12707,8 +14800,36 @@
       <c r="AZ62" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="63" spans="1:52">
+      <c r="BA62" s="109">
+        <f>VLOOKUP(C62,RBS!A:J,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB62" s="109">
+        <f>VLOOKUP(C62,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC62" s="109">
+        <f>VLOOKUP(C62,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD62" s="109">
+        <f>VLOOKUP(C62,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE62" s="109">
+        <f>VLOOKUP(C62,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF62" s="109">
+        <f>VLOOKUP(C62,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG62" s="109">
+        <f>VLOOKUP(C62,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59">
       <c r="A63" s="72">
         <v>2</v>
       </c>
@@ -12868,8 +14989,36 @@
       <c r="AZ63" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="64" spans="1:52">
+      <c r="BA63" s="109">
+        <f>VLOOKUP(C63,RBS!A:J,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="BB63" s="109">
+        <f>VLOOKUP(C63,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC63" s="109">
+        <f>VLOOKUP(C63,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD63" s="109">
+        <f>VLOOKUP(C63,RBS!A:J,7,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BE63" s="109">
+        <f>VLOOKUP(C63,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF63" s="109">
+        <f>VLOOKUP(C63,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG63" s="109">
+        <f>VLOOKUP(C63,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59">
       <c r="A64" s="72">
         <v>2</v>
       </c>
@@ -13029,8 +15178,36 @@
       <c r="AZ64" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="65" spans="1:52">
+      <c r="BA64" s="109">
+        <f>VLOOKUP(C64,RBS!A:J,4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="BB64" s="109">
+        <f>VLOOKUP(C64,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC64" s="109">
+        <f>VLOOKUP(C64,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD64" s="109">
+        <f>VLOOKUP(C64,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE64" s="109">
+        <f>VLOOKUP(C64,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF64" s="109">
+        <f>VLOOKUP(C64,RBS!A:J,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BG64" s="109">
+        <f>VLOOKUP(C64,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:59">
       <c r="A65" s="72">
         <v>2</v>
       </c>
@@ -13190,8 +15367,36 @@
       <c r="AZ65" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="66" spans="1:52">
+      <c r="BA65" s="109">
+        <f>VLOOKUP(C65,RBS!A:J,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BB65" s="109">
+        <f>VLOOKUP(C65,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC65" s="109">
+        <f>VLOOKUP(C65,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD65" s="109">
+        <f>VLOOKUP(C65,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE65" s="109">
+        <f>VLOOKUP(C65,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF65" s="109">
+        <f>VLOOKUP(C65,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG65" s="109">
+        <f>VLOOKUP(C65,RBS!A:J,10,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:59">
       <c r="A66" s="72">
         <v>2</v>
       </c>
@@ -13351,8 +15556,36 @@
       <c r="AZ66" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="67" spans="1:52">
+      <c r="BA66" s="109">
+        <f>VLOOKUP(C66,RBS!A:J,4,0)</f>
+        <v>36</v>
+      </c>
+      <c r="BB66" s="109">
+        <f>VLOOKUP(C66,RBS!A:J,5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BC66" s="109">
+        <f>VLOOKUP(C66,RBS!A:J,6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BD66" s="109">
+        <f>VLOOKUP(C66,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE66" s="109">
+        <f>VLOOKUP(C66,RBS!A:J,8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BF66" s="109">
+        <f>VLOOKUP(C66,RBS!A:J,9,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BG66" s="109">
+        <f>VLOOKUP(C66,RBS!A:J,10,0)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:59">
       <c r="A67" s="72">
         <v>2</v>
       </c>
@@ -13462,8 +15695,36 @@
       <c r="AZ67" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="68" spans="1:52">
+      <c r="BA67" s="109">
+        <f>VLOOKUP(C67,RBS!A:J,4,0)</f>
+        <v>30</v>
+      </c>
+      <c r="BB67" s="109">
+        <f>VLOOKUP(C67,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC67" s="109">
+        <f>VLOOKUP(C67,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD67" s="109">
+        <f>VLOOKUP(C67,RBS!A:J,7,0)</f>
+        <v>13</v>
+      </c>
+      <c r="BE67" s="109">
+        <f>VLOOKUP(C67,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF67" s="109">
+        <f>VLOOKUP(C67,RBS!A:J,9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BG67" s="109">
+        <f>VLOOKUP(C67,RBS!A:J,10,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59">
       <c r="A68" s="72">
         <v>2</v>
       </c>
@@ -13623,8 +15884,36 @@
       <c r="AZ68" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="69" spans="1:52">
+      <c r="BA68" s="109">
+        <f>VLOOKUP(C68,RBS!A:J,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB68" s="109">
+        <f>VLOOKUP(C68,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC68" s="109">
+        <f>VLOOKUP(C68,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD68" s="109">
+        <f>VLOOKUP(C68,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE68" s="109">
+        <f>VLOOKUP(C68,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF68" s="109">
+        <f>VLOOKUP(C68,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG68" s="109">
+        <f>VLOOKUP(C68,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:59">
       <c r="A69" s="72">
         <v>2</v>
       </c>
@@ -13784,8 +16073,36 @@
       <c r="AZ69" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="70" spans="1:52">
+      <c r="BA69" s="109">
+        <f>VLOOKUP(C69,RBS!A:J,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BB69" s="109">
+        <f>VLOOKUP(C69,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC69" s="109">
+        <f>VLOOKUP(C69,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD69" s="109">
+        <f>VLOOKUP(C69,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE69" s="109">
+        <f>VLOOKUP(C69,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF69" s="109">
+        <f>VLOOKUP(C69,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG69" s="109">
+        <f>VLOOKUP(C69,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:59">
       <c r="A70" s="72">
         <v>2</v>
       </c>
@@ -13945,8 +16262,36 @@
       <c r="AZ70" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="71" spans="1:52">
+      <c r="BA70" s="109">
+        <f>VLOOKUP(C70,RBS!A:J,4,0)</f>
+        <v>26</v>
+      </c>
+      <c r="BB70" s="109">
+        <f>VLOOKUP(C70,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC70" s="109">
+        <f>VLOOKUP(C70,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD70" s="109">
+        <f>VLOOKUP(C70,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE70" s="109">
+        <f>VLOOKUP(C70,RBS!A:J,8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BF70" s="109">
+        <f>VLOOKUP(C70,RBS!A:J,9,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BG70" s="109">
+        <f>VLOOKUP(C70,RBS!A:J,10,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:59">
       <c r="A71" s="72">
         <v>2</v>
       </c>
@@ -14109,8 +16454,36 @@
       <c r="AZ71" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="72" spans="1:52">
+      <c r="BA71" s="109">
+        <f>VLOOKUP(C71,RBS!A:J,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB71" s="109">
+        <f>VLOOKUP(C71,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC71" s="109">
+        <f>VLOOKUP(C71,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD71" s="109">
+        <f>VLOOKUP(C71,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE71" s="109">
+        <f>VLOOKUP(C71,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF71" s="109">
+        <f>VLOOKUP(C71,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG71" s="109">
+        <f>VLOOKUP(C71,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:59">
       <c r="A72" s="72">
         <v>2</v>
       </c>
@@ -14273,8 +16646,36 @@
       <c r="AZ72" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="73" spans="1:52">
+      <c r="BA72" s="109">
+        <f>VLOOKUP(C72,RBS!A:J,4,0)</f>
+        <v>17</v>
+      </c>
+      <c r="BB72" s="109">
+        <f>VLOOKUP(C72,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC72" s="109">
+        <f>VLOOKUP(C72,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD72" s="109">
+        <f>VLOOKUP(C72,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE72" s="109">
+        <f>VLOOKUP(C72,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF72" s="109">
+        <f>VLOOKUP(C72,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG72" s="109">
+        <f>VLOOKUP(C72,RBS!A:J,10,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59">
       <c r="A73" s="72">
         <v>2</v>
       </c>
@@ -14437,8 +16838,36 @@
       <c r="AZ73" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="74" spans="1:52">
+      <c r="BA73" s="109">
+        <f>VLOOKUP(C73,RBS!A:J,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BB73" s="109">
+        <f>VLOOKUP(C73,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC73" s="109">
+        <f>VLOOKUP(C73,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD73" s="109">
+        <f>VLOOKUP(C73,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE73" s="109">
+        <f>VLOOKUP(C73,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF73" s="109">
+        <f>VLOOKUP(C73,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG73" s="109">
+        <f>VLOOKUP(C73,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:59">
       <c r="A74" s="72">
         <v>2</v>
       </c>
@@ -14551,8 +16980,36 @@
       <c r="AZ74" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="75" spans="1:52">
+      <c r="BA74" s="109">
+        <f>VLOOKUP(C74,RBS!A:J,4,0)</f>
+        <v>17</v>
+      </c>
+      <c r="BB74" s="109">
+        <f>VLOOKUP(C74,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC74" s="109">
+        <f>VLOOKUP(C74,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD74" s="109">
+        <f>VLOOKUP(C74,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE74" s="109">
+        <f>VLOOKUP(C74,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF74" s="109">
+        <f>VLOOKUP(C74,RBS!A:J,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BG74" s="109">
+        <f>VLOOKUP(C74,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59">
       <c r="A75" s="72">
         <v>2</v>
       </c>
@@ -14715,8 +17172,36 @@
       <c r="AZ75" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="76" spans="1:52">
+      <c r="BA75" s="109">
+        <f>VLOOKUP(C75,RBS!A:J,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB75" s="109">
+        <f>VLOOKUP(C75,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC75" s="109">
+        <f>VLOOKUP(C75,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD75" s="109">
+        <f>VLOOKUP(C75,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE75" s="109">
+        <f>VLOOKUP(C75,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF75" s="109">
+        <f>VLOOKUP(C75,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG75" s="109">
+        <f>VLOOKUP(C75,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59">
       <c r="A76" s="72">
         <v>2</v>
       </c>
@@ -14879,8 +17364,36 @@
       <c r="AZ76" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="77" spans="1:52">
+      <c r="BA76" s="109">
+        <f>VLOOKUP(C76,RBS!A:J,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BB76" s="109">
+        <f>VLOOKUP(C76,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC76" s="109">
+        <f>VLOOKUP(C76,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD76" s="109">
+        <f>VLOOKUP(C76,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE76" s="109">
+        <f>VLOOKUP(C76,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF76" s="109">
+        <f>VLOOKUP(C76,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG76" s="109">
+        <f>VLOOKUP(C76,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:59">
       <c r="A77" s="72">
         <v>2</v>
       </c>
@@ -15043,8 +17556,36 @@
       <c r="AZ77" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="78" spans="1:52">
+      <c r="BA77" s="109">
+        <f>VLOOKUP(C77,RBS!A:J,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BB77" s="109">
+        <f>VLOOKUP(C77,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC77" s="109">
+        <f>VLOOKUP(C77,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD77" s="109">
+        <f>VLOOKUP(C77,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE77" s="109">
+        <f>VLOOKUP(C77,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF77" s="109">
+        <f>VLOOKUP(C77,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG77" s="109">
+        <f>VLOOKUP(C77,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:59">
       <c r="A78" s="72">
         <v>2</v>
       </c>
@@ -15207,8 +17748,36 @@
       <c r="AZ78" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="79" spans="1:52">
+      <c r="BA78" s="109">
+        <f>VLOOKUP(C78,RBS!A:J,4,0)</f>
+        <v>14</v>
+      </c>
+      <c r="BB78" s="109">
+        <f>VLOOKUP(C78,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC78" s="109">
+        <f>VLOOKUP(C78,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD78" s="109">
+        <f>VLOOKUP(C78,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE78" s="109">
+        <f>VLOOKUP(C78,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF78" s="109">
+        <f>VLOOKUP(C78,RBS!A:J,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BG78" s="109">
+        <f>VLOOKUP(C78,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:59">
       <c r="A79" s="72">
         <v>2</v>
       </c>
@@ -15371,8 +17940,36 @@
       <c r="AZ79" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="80" spans="1:52">
+      <c r="BA79" s="109">
+        <f>VLOOKUP(C79,RBS!A:J,4,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BB79" s="109">
+        <f>VLOOKUP(C79,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC79" s="109">
+        <f>VLOOKUP(C79,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD79" s="109">
+        <f>VLOOKUP(C79,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE79" s="109">
+        <f>VLOOKUP(C79,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF79" s="109">
+        <f>VLOOKUP(C79,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG79" s="109">
+        <f>VLOOKUP(C79,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:59">
       <c r="A80" s="72">
         <v>2</v>
       </c>
@@ -15535,8 +18132,36 @@
       <c r="AZ80" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="81" spans="1:52">
+      <c r="BA80" s="109">
+        <f>VLOOKUP(C80,RBS!A:J,4,0)</f>
+        <v>30</v>
+      </c>
+      <c r="BB80" s="109">
+        <f>VLOOKUP(C80,RBS!A:J,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BC80" s="109">
+        <f>VLOOKUP(C80,RBS!A:J,6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BD80" s="109">
+        <f>VLOOKUP(C80,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE80" s="109">
+        <f>VLOOKUP(C80,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF80" s="109">
+        <f>VLOOKUP(C80,RBS!A:J,9,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BG80" s="109">
+        <f>VLOOKUP(C80,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:59">
       <c r="A81" s="72">
         <v>2</v>
       </c>
@@ -15699,8 +18324,36 @@
       <c r="AZ81" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="82" spans="1:52">
+      <c r="BA81" s="109">
+        <f>VLOOKUP(C81,RBS!A:J,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BB81" s="109">
+        <f>VLOOKUP(C81,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC81" s="109">
+        <f>VLOOKUP(C81,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD81" s="109">
+        <f>VLOOKUP(C81,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE81" s="109">
+        <f>VLOOKUP(C81,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF81" s="109">
+        <f>VLOOKUP(C81,RBS!A:J,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BG81" s="109">
+        <f>VLOOKUP(C81,RBS!A:J,10,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:59">
       <c r="A82" s="72">
         <v>2</v>
       </c>
@@ -15863,8 +18516,36 @@
       <c r="AZ82" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="83" spans="1:52">
+      <c r="BA82" s="109">
+        <f>VLOOKUP(C82,RBS!A:J,4,0)</f>
+        <v>20</v>
+      </c>
+      <c r="BB82" s="109">
+        <f>VLOOKUP(C82,RBS!A:J,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC82" s="109">
+        <f>VLOOKUP(C82,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD82" s="109">
+        <f>VLOOKUP(C82,RBS!A:J,7,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BE82" s="109">
+        <f>VLOOKUP(C82,RBS!A:J,8,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BF82" s="109">
+        <f>VLOOKUP(C82,RBS!A:J,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BG82" s="109">
+        <f>VLOOKUP(C82,RBS!A:J,10,0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:59">
       <c r="A83" s="72">
         <v>2</v>
       </c>
@@ -16027,8 +18708,36 @@
       <c r="AZ83" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="84" spans="1:52">
+      <c r="BA83" s="109">
+        <f>VLOOKUP(C83,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB83" s="109">
+        <f>VLOOKUP(C83,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC83" s="109">
+        <f>VLOOKUP(C83,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD83" s="109">
+        <f>VLOOKUP(C83,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE83" s="109">
+        <f>VLOOKUP(C83,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF83" s="109">
+        <f>VLOOKUP(C83,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG83" s="109">
+        <f>VLOOKUP(C83,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:59">
       <c r="A84" s="72">
         <v>2</v>
       </c>
@@ -16191,8 +18900,36 @@
       <c r="AZ84" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="85" spans="1:52">
+      <c r="BA84" s="109">
+        <f>VLOOKUP(C84,RBS!A:J,4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BB84" s="109">
+        <f>VLOOKUP(C84,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC84" s="109">
+        <f>VLOOKUP(C84,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD84" s="109">
+        <f>VLOOKUP(C84,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE84" s="109">
+        <f>VLOOKUP(C84,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF84" s="109">
+        <f>VLOOKUP(C84,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG84" s="109">
+        <f>VLOOKUP(C84,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:59">
       <c r="A85" s="72">
         <v>2</v>
       </c>
@@ -16355,8 +19092,36 @@
       <c r="AZ85" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="86" spans="1:52">
+      <c r="BA85" s="109">
+        <f>VLOOKUP(C85,RBS!A:J,4,0)</f>
+        <v>35</v>
+      </c>
+      <c r="BB85" s="109">
+        <f>VLOOKUP(C85,RBS!A:J,5,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BC85" s="109">
+        <f>VLOOKUP(C85,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD85" s="109">
+        <f>VLOOKUP(C85,RBS!A:J,7,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BE85" s="109">
+        <f>VLOOKUP(C85,RBS!A:J,8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BF85" s="109">
+        <f>VLOOKUP(C85,RBS!A:J,9,0)</f>
+        <v>10</v>
+      </c>
+      <c r="BG85" s="109">
+        <f>VLOOKUP(C85,RBS!A:J,10,0)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:59">
       <c r="A86" s="72">
         <v>2</v>
       </c>
@@ -16519,8 +19284,36 @@
       <c r="AZ86" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="87" spans="1:52">
+      <c r="BA86" s="109">
+        <f>VLOOKUP(C86,RBS!A:J,4,0)</f>
+        <v>20</v>
+      </c>
+      <c r="BB86" s="109">
+        <f>VLOOKUP(C86,RBS!A:J,5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BC86" s="109">
+        <f>VLOOKUP(C86,RBS!A:J,6,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BD86" s="109">
+        <f>VLOOKUP(C86,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE86" s="109">
+        <f>VLOOKUP(C86,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF86" s="109">
+        <f>VLOOKUP(C86,RBS!A:J,9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BG86" s="109">
+        <f>VLOOKUP(C86,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:59">
       <c r="A87" s="72">
         <v>2</v>
       </c>
@@ -16683,8 +19476,36 @@
       <c r="AZ87" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="88" spans="1:52">
+      <c r="BA87" s="109">
+        <f>VLOOKUP(C87,RBS!A:J,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BB87" s="109">
+        <f>VLOOKUP(C87,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC87" s="109">
+        <f>VLOOKUP(C87,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD87" s="109">
+        <f>VLOOKUP(C87,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE87" s="109">
+        <f>VLOOKUP(C87,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF87" s="109">
+        <f>VLOOKUP(C87,RBS!A:J,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG87" s="109">
+        <f>VLOOKUP(C87,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:59">
       <c r="A88" s="72">
         <v>2</v>
       </c>
@@ -16847,8 +19668,36 @@
       <c r="AZ88" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="89" spans="1:52">
+      <c r="BA88" s="109">
+        <f>VLOOKUP(C88,RBS!A:J,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="BB88" s="109">
+        <f>VLOOKUP(C88,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC88" s="109">
+        <f>VLOOKUP(C88,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD88" s="109">
+        <f>VLOOKUP(C88,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE88" s="109">
+        <f>VLOOKUP(C88,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF88" s="109">
+        <f>VLOOKUP(C88,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG88" s="109">
+        <f>VLOOKUP(C88,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:59">
       <c r="A89" s="72">
         <v>2</v>
       </c>
@@ -17011,8 +19860,36 @@
       <c r="AZ89" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="90" spans="1:52">
+      <c r="BA89" s="109">
+        <f>VLOOKUP(C89,RBS!A:J,4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="BB89" s="109">
+        <f>VLOOKUP(C89,RBS!A:J,5,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BC89" s="109">
+        <f>VLOOKUP(C89,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD89" s="109">
+        <f>VLOOKUP(C89,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE89" s="109">
+        <f>VLOOKUP(C89,RBS!A:J,8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BF89" s="109">
+        <f>VLOOKUP(C89,RBS!A:J,9,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BG89" s="109">
+        <f>VLOOKUP(C89,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:59">
       <c r="A90" s="72">
         <v>2</v>
       </c>
@@ -17125,8 +20002,36 @@
       <c r="AZ90" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="91" spans="1:52">
+      <c r="BA90" s="109">
+        <f>VLOOKUP(C90,RBS!A:J,4,0)</f>
+        <v>29</v>
+      </c>
+      <c r="BB90" s="109">
+        <f>VLOOKUP(C90,RBS!A:J,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BC90" s="109">
+        <f>VLOOKUP(C90,RBS!A:J,6,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BD90" s="109">
+        <f>VLOOKUP(C90,RBS!A:J,7,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BE90" s="109">
+        <f>VLOOKUP(C90,RBS!A:J,8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BF90" s="109">
+        <f>VLOOKUP(C90,RBS!A:J,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BG90" s="109">
+        <f>VLOOKUP(C90,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:59">
       <c r="A91" s="72">
         <v>2</v>
       </c>
@@ -17289,8 +20194,36 @@
       <c r="AZ91" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="92" spans="1:52">
+      <c r="BA91" s="109">
+        <f>VLOOKUP(C91,RBS!A:J,4,0)</f>
+        <v>17</v>
+      </c>
+      <c r="BB91" s="109">
+        <f>VLOOKUP(C91,RBS!A:J,5,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BC91" s="109">
+        <f>VLOOKUP(C91,RBS!A:J,6,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BD91" s="109">
+        <f>VLOOKUP(C91,RBS!A:J,7,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BE91" s="109">
+        <f>VLOOKUP(C91,RBS!A:J,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF91" s="109">
+        <f>VLOOKUP(C91,RBS!A:J,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BG91" s="109">
+        <f>VLOOKUP(C91,RBS!A:J,10,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:59">
       <c r="A92" s="72">
         <v>2</v>
       </c>
@@ -17453,8 +20386,36 @@
       <c r="AZ92" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="93" spans="1:52">
+      <c r="BA92" s="109">
+        <f>VLOOKUP(C92,RBS!A:J,4,0)</f>
+        <v>10</v>
+      </c>
+      <c r="BB92" s="109">
+        <f>VLOOKUP(C92,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC92" s="109">
+        <f>VLOOKUP(C92,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD92" s="109">
+        <f>VLOOKUP(C92,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE92" s="109">
+        <f>VLOOKUP(C92,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF92" s="109">
+        <f>VLOOKUP(C92,RBS!A:J,9,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BG92" s="109">
+        <f>VLOOKUP(C92,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:59">
       <c r="A93" s="72">
         <v>2</v>
       </c>
@@ -17617,8 +20578,36 @@
       <c r="AZ93" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="94" spans="1:52">
+      <c r="BA93" s="109">
+        <f>VLOOKUP(C93,RBS!A:J,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="BB93" s="109">
+        <f>VLOOKUP(C93,RBS!A:J,5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BC93" s="109">
+        <f>VLOOKUP(C93,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD93" s="109">
+        <f>VLOOKUP(C93,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE93" s="109">
+        <f>VLOOKUP(C93,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF93" s="109">
+        <f>VLOOKUP(C93,RBS!A:J,9,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BG93" s="109">
+        <f>VLOOKUP(C93,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:59">
       <c r="A94" s="72">
         <v>2</v>
       </c>
@@ -17781,8 +20770,36 @@
       <c r="AZ94" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="95" spans="1:52" ht="30">
+      <c r="BA94" s="109">
+        <f>VLOOKUP(C94,RBS!A:J,4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BB94" s="109">
+        <f>VLOOKUP(C94,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC94" s="109">
+        <f>VLOOKUP(C94,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD94" s="109">
+        <f>VLOOKUP(C94,RBS!A:J,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE94" s="109">
+        <f>VLOOKUP(C94,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF94" s="109">
+        <f>VLOOKUP(C94,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG94" s="109">
+        <f>VLOOKUP(C94,RBS!A:J,10,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:59" ht="30">
       <c r="A95" s="72">
         <v>2</v>
       </c>
@@ -17945,8 +20962,36 @@
       <c r="AZ95" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="96" spans="1:52">
+      <c r="BA95" s="109">
+        <f>VLOOKUP(C95,RBS!A:J,4,0)</f>
+        <v>11</v>
+      </c>
+      <c r="BB95" s="109">
+        <f>VLOOKUP(C95,RBS!A:J,5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BC95" s="109">
+        <f>VLOOKUP(C95,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD95" s="109">
+        <f>VLOOKUP(C95,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE95" s="109">
+        <f>VLOOKUP(C95,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF95" s="109">
+        <f>VLOOKUP(C95,RBS!A:J,9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG95" s="109">
+        <f>VLOOKUP(C95,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:59">
       <c r="A96" s="72">
         <v>2</v>
       </c>
@@ -18109,8 +21154,36 @@
       <c r="AZ96" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="97" spans="1:52">
+      <c r="BA96" s="109">
+        <f>VLOOKUP(C96,RBS!A:J,4,0)</f>
+        <v>18</v>
+      </c>
+      <c r="BB96" s="109">
+        <f>VLOOKUP(C96,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC96" s="109">
+        <f>VLOOKUP(C96,RBS!A:J,6,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BD96" s="109">
+        <f>VLOOKUP(C96,RBS!A:J,7,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE96" s="109">
+        <f>VLOOKUP(C96,RBS!A:J,8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BF96" s="109">
+        <f>VLOOKUP(C96,RBS!A:J,9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BG96" s="109">
+        <f>VLOOKUP(C96,RBS!A:J,10,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:59">
       <c r="A97" s="72">
         <v>2</v>
       </c>
@@ -18273,8 +21346,36 @@
       <c r="AZ97" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="98" spans="1:52" ht="30">
+      <c r="BA97" s="109">
+        <f>VLOOKUP(C97,RBS!A:J,4,0)</f>
+        <v>16</v>
+      </c>
+      <c r="BB97" s="109">
+        <f>VLOOKUP(C97,RBS!A:J,5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BC97" s="109">
+        <f>VLOOKUP(C97,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD97" s="109">
+        <f>VLOOKUP(C97,RBS!A:J,7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BE97" s="109">
+        <f>VLOOKUP(C97,RBS!A:J,8,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF97" s="109">
+        <f>VLOOKUP(C97,RBS!A:J,9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="BG97" s="109">
+        <f>VLOOKUP(C97,RBS!A:J,10,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:59" ht="30">
       <c r="A98" s="72">
         <v>2</v>
       </c>
@@ -18437,8 +21538,36 @@
       <c r="AZ98" s="91" t="e">
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="99" spans="1:52">
+      <c r="BA98" s="109">
+        <f>VLOOKUP(C98,RBS!A:J,4,0)</f>
+        <v>29</v>
+      </c>
+      <c r="BB98" s="109">
+        <f>VLOOKUP(C98,RBS!A:J,5,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BC98" s="109">
+        <f>VLOOKUP(C98,RBS!A:J,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD98" s="109">
+        <f>VLOOKUP(C98,RBS!A:J,7,0)</f>
+        <v>8</v>
+      </c>
+      <c r="BE98" s="109">
+        <f>VLOOKUP(C98,RBS!A:J,8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BF98" s="109">
+        <f>VLOOKUP(C98,RBS!A:J,9,0)</f>
+        <v>7</v>
+      </c>
+      <c r="BG98" s="109">
+        <f>VLOOKUP(C98,RBS!A:J,10,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:59">
       <c r="A99" s="72">
         <v>2</v>
       </c>
@@ -18600,6 +21729,34 @@
       </c>
       <c r="AZ99" s="91" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="BA99" s="109">
+        <f>VLOOKUP(C99,RBS!A:J,4,0)</f>
+        <v>21</v>
+      </c>
+      <c r="BB99" s="109">
+        <f>VLOOKUP(C99,RBS!A:J,5,0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC99" s="109">
+        <f>VLOOKUP(C99,RBS!A:J,6,0)</f>
+        <v>5</v>
+      </c>
+      <c r="BD99" s="109">
+        <f>VLOOKUP(C99,RBS!A:J,7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="BE99" s="109">
+        <f>VLOOKUP(C99,RBS!A:J,8,0)</f>
+        <v>2</v>
+      </c>
+      <c r="BF99" s="109">
+        <f>VLOOKUP(C99,RBS!A:J,9,0)</f>
+        <v>6</v>
+      </c>
+      <c r="BG99" s="109">
+        <f>VLOOKUP(C99,RBS!A:J,10,0)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -18617,7 +21774,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -39549,4 +42706,4180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D8817E-2E06-470F-B03F-20DB84B0E41F}">
+  <dimension ref="A1:J130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="108" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" s="108" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="108" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" s="108" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="108">
+        <v>1</v>
+      </c>
+      <c r="B2" s="108" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" s="108">
+        <v>4</v>
+      </c>
+      <c r="E2" s="108">
+        <v>0</v>
+      </c>
+      <c r="F2" s="108">
+        <v>2</v>
+      </c>
+      <c r="G2" s="108">
+        <v>0</v>
+      </c>
+      <c r="H2" s="108">
+        <v>0</v>
+      </c>
+      <c r="I2" s="108">
+        <v>2</v>
+      </c>
+      <c r="J2" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="108">
+        <v>2</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="108" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="108">
+        <v>8</v>
+      </c>
+      <c r="E3" s="108">
+        <v>1</v>
+      </c>
+      <c r="F3" s="108">
+        <v>0</v>
+      </c>
+      <c r="G3" s="108">
+        <v>1</v>
+      </c>
+      <c r="H3" s="108">
+        <v>0</v>
+      </c>
+      <c r="I3" s="108">
+        <v>2</v>
+      </c>
+      <c r="J3" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="108">
+        <v>3</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="108">
+        <v>25</v>
+      </c>
+      <c r="E4" s="108">
+        <v>11</v>
+      </c>
+      <c r="F4" s="108">
+        <v>0</v>
+      </c>
+      <c r="G4" s="108">
+        <v>4</v>
+      </c>
+      <c r="H4" s="108">
+        <v>5</v>
+      </c>
+      <c r="I4" s="108">
+        <v>0</v>
+      </c>
+      <c r="J4" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="108">
+        <v>4</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="108" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="108">
+        <v>6</v>
+      </c>
+      <c r="E5" s="108">
+        <v>1</v>
+      </c>
+      <c r="F5" s="108">
+        <v>0</v>
+      </c>
+      <c r="G5" s="108">
+        <v>0</v>
+      </c>
+      <c r="H5" s="108">
+        <v>0</v>
+      </c>
+      <c r="I5" s="108">
+        <v>2</v>
+      </c>
+      <c r="J5" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="108">
+        <v>5</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="108" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="108">
+        <v>16</v>
+      </c>
+      <c r="E6" s="108">
+        <v>4</v>
+      </c>
+      <c r="F6" s="108">
+        <v>2</v>
+      </c>
+      <c r="G6" s="108">
+        <v>1</v>
+      </c>
+      <c r="H6" s="108">
+        <v>2</v>
+      </c>
+      <c r="I6" s="108">
+        <v>4</v>
+      </c>
+      <c r="J6" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="108">
+        <v>7</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="108">
+        <v>42</v>
+      </c>
+      <c r="E7" s="108">
+        <v>17</v>
+      </c>
+      <c r="F7" s="108">
+        <v>3</v>
+      </c>
+      <c r="G7" s="108">
+        <v>6</v>
+      </c>
+      <c r="H7" s="108">
+        <v>0</v>
+      </c>
+      <c r="I7" s="108">
+        <v>9</v>
+      </c>
+      <c r="J7" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="108">
+        <v>8</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="108" t="s">
+        <v>353</v>
+      </c>
+      <c r="D8" s="108">
+        <v>10</v>
+      </c>
+      <c r="E8" s="108">
+        <v>9</v>
+      </c>
+      <c r="F8" s="108">
+        <v>0</v>
+      </c>
+      <c r="G8" s="108">
+        <v>0</v>
+      </c>
+      <c r="H8" s="108">
+        <v>0</v>
+      </c>
+      <c r="I8" s="108">
+        <v>0</v>
+      </c>
+      <c r="J8" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="108">
+        <v>9</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" s="108">
+        <v>0</v>
+      </c>
+      <c r="E9" s="108">
+        <v>0</v>
+      </c>
+      <c r="F9" s="108">
+        <v>0</v>
+      </c>
+      <c r="G9" s="108">
+        <v>0</v>
+      </c>
+      <c r="H9" s="108">
+        <v>0</v>
+      </c>
+      <c r="I9" s="108">
+        <v>0</v>
+      </c>
+      <c r="J9" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="108">
+        <v>10</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>355</v>
+      </c>
+      <c r="D10" s="108">
+        <v>0</v>
+      </c>
+      <c r="E10" s="108">
+        <v>0</v>
+      </c>
+      <c r="F10" s="108">
+        <v>0</v>
+      </c>
+      <c r="G10" s="108">
+        <v>0</v>
+      </c>
+      <c r="H10" s="108">
+        <v>0</v>
+      </c>
+      <c r="I10" s="108">
+        <v>0</v>
+      </c>
+      <c r="J10" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="108">
+        <v>11</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="108">
+        <v>2</v>
+      </c>
+      <c r="E11" s="108">
+        <v>0</v>
+      </c>
+      <c r="F11" s="108">
+        <v>0</v>
+      </c>
+      <c r="G11" s="108">
+        <v>0</v>
+      </c>
+      <c r="H11" s="108">
+        <v>0</v>
+      </c>
+      <c r="I11" s="108">
+        <v>0</v>
+      </c>
+      <c r="J11" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="108">
+        <v>12</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" s="108">
+        <v>15</v>
+      </c>
+      <c r="E12" s="108">
+        <v>2</v>
+      </c>
+      <c r="F12" s="108">
+        <v>0</v>
+      </c>
+      <c r="G12" s="108">
+        <v>4</v>
+      </c>
+      <c r="H12" s="108">
+        <v>3</v>
+      </c>
+      <c r="I12" s="108">
+        <v>4</v>
+      </c>
+      <c r="J12" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="108">
+        <v>13</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="108">
+        <v>2</v>
+      </c>
+      <c r="E13" s="108">
+        <v>1</v>
+      </c>
+      <c r="F13" s="108">
+        <v>0</v>
+      </c>
+      <c r="G13" s="108">
+        <v>0</v>
+      </c>
+      <c r="H13" s="108">
+        <v>0</v>
+      </c>
+      <c r="I13" s="108">
+        <v>1</v>
+      </c>
+      <c r="J13" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="108">
+        <v>14</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="108" t="s">
+        <v>359</v>
+      </c>
+      <c r="D14" s="108">
+        <v>6</v>
+      </c>
+      <c r="E14" s="108">
+        <v>4</v>
+      </c>
+      <c r="F14" s="108">
+        <v>0</v>
+      </c>
+      <c r="G14" s="108">
+        <v>1</v>
+      </c>
+      <c r="H14" s="108">
+        <v>0</v>
+      </c>
+      <c r="I14" s="108">
+        <v>1</v>
+      </c>
+      <c r="J14" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="108">
+        <v>16</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="108" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="108">
+        <v>1</v>
+      </c>
+      <c r="E15" s="108">
+        <v>1</v>
+      </c>
+      <c r="F15" s="108">
+        <v>0</v>
+      </c>
+      <c r="G15" s="108">
+        <v>0</v>
+      </c>
+      <c r="H15" s="108">
+        <v>0</v>
+      </c>
+      <c r="I15" s="108">
+        <v>0</v>
+      </c>
+      <c r="J15" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="108">
+        <v>17</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="108" t="s">
+        <v>361</v>
+      </c>
+      <c r="D16" s="108">
+        <v>10</v>
+      </c>
+      <c r="E16" s="108">
+        <v>1</v>
+      </c>
+      <c r="F16" s="108">
+        <v>0</v>
+      </c>
+      <c r="G16" s="108">
+        <v>6</v>
+      </c>
+      <c r="H16" s="108">
+        <v>1</v>
+      </c>
+      <c r="I16" s="108">
+        <v>0</v>
+      </c>
+      <c r="J16" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="108">
+        <v>18</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="108" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="108">
+        <v>18</v>
+      </c>
+      <c r="E17" s="108">
+        <v>4</v>
+      </c>
+      <c r="F17" s="108">
+        <v>1</v>
+      </c>
+      <c r="G17" s="108">
+        <v>2</v>
+      </c>
+      <c r="H17" s="108">
+        <v>2</v>
+      </c>
+      <c r="I17" s="108">
+        <v>5</v>
+      </c>
+      <c r="J17" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="108">
+        <v>19</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="108" t="s">
+        <v>363</v>
+      </c>
+      <c r="D18" s="108">
+        <v>7</v>
+      </c>
+      <c r="E18" s="108">
+        <v>0</v>
+      </c>
+      <c r="F18" s="108">
+        <v>0</v>
+      </c>
+      <c r="G18" s="108">
+        <v>0</v>
+      </c>
+      <c r="H18" s="108">
+        <v>0</v>
+      </c>
+      <c r="I18" s="108">
+        <v>1</v>
+      </c>
+      <c r="J18" s="108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="108">
+        <v>20</v>
+      </c>
+      <c r="B19" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="108" t="s">
+        <v>364</v>
+      </c>
+      <c r="D19" s="108">
+        <v>36</v>
+      </c>
+      <c r="E19" s="108">
+        <v>9</v>
+      </c>
+      <c r="F19" s="108">
+        <v>2</v>
+      </c>
+      <c r="G19" s="108">
+        <v>4</v>
+      </c>
+      <c r="H19" s="108">
+        <v>5</v>
+      </c>
+      <c r="I19" s="108">
+        <v>6</v>
+      </c>
+      <c r="J19" s="108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="108">
+        <v>21</v>
+      </c>
+      <c r="B20" s="108" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="108" t="s">
+        <v>365</v>
+      </c>
+      <c r="D20" s="108">
+        <v>30</v>
+      </c>
+      <c r="E20" s="108">
+        <v>2</v>
+      </c>
+      <c r="F20" s="108">
+        <v>1</v>
+      </c>
+      <c r="G20" s="108">
+        <v>13</v>
+      </c>
+      <c r="H20" s="108">
+        <v>4</v>
+      </c>
+      <c r="I20" s="108">
+        <v>4</v>
+      </c>
+      <c r="J20" s="108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="108">
+        <v>22</v>
+      </c>
+      <c r="B21" s="108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="108" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" s="108">
+        <v>0</v>
+      </c>
+      <c r="E21" s="108">
+        <v>0</v>
+      </c>
+      <c r="F21" s="108">
+        <v>0</v>
+      </c>
+      <c r="G21" s="108">
+        <v>0</v>
+      </c>
+      <c r="H21" s="108">
+        <v>0</v>
+      </c>
+      <c r="I21" s="108">
+        <v>0</v>
+      </c>
+      <c r="J21" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="108">
+        <v>23</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="108" t="s">
+        <v>367</v>
+      </c>
+      <c r="D22" s="108">
+        <v>7</v>
+      </c>
+      <c r="E22" s="108">
+        <v>2</v>
+      </c>
+      <c r="F22" s="108">
+        <v>0</v>
+      </c>
+      <c r="G22" s="108">
+        <v>2</v>
+      </c>
+      <c r="H22" s="108">
+        <v>0</v>
+      </c>
+      <c r="I22" s="108">
+        <v>2</v>
+      </c>
+      <c r="J22" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="108">
+        <v>24</v>
+      </c>
+      <c r="B23" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="108" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" s="108">
+        <v>26</v>
+      </c>
+      <c r="E23" s="108">
+        <v>3</v>
+      </c>
+      <c r="F23" s="108">
+        <v>0</v>
+      </c>
+      <c r="G23" s="108">
+        <v>3</v>
+      </c>
+      <c r="H23" s="108">
+        <v>3</v>
+      </c>
+      <c r="I23" s="108">
+        <v>9</v>
+      </c>
+      <c r="J23" s="108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="108">
+        <v>25</v>
+      </c>
+      <c r="B24" s="108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="108">
+        <v>1</v>
+      </c>
+      <c r="E24" s="108">
+        <v>0</v>
+      </c>
+      <c r="F24" s="108">
+        <v>0</v>
+      </c>
+      <c r="G24" s="108">
+        <v>0</v>
+      </c>
+      <c r="H24" s="108">
+        <v>1</v>
+      </c>
+      <c r="I24" s="108">
+        <v>0</v>
+      </c>
+      <c r="J24" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="108">
+        <v>27</v>
+      </c>
+      <c r="B25" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" s="108" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" s="108">
+        <v>19</v>
+      </c>
+      <c r="E25" s="108">
+        <v>9</v>
+      </c>
+      <c r="F25" s="108">
+        <v>0</v>
+      </c>
+      <c r="G25" s="108">
+        <v>4</v>
+      </c>
+      <c r="H25" s="108">
+        <v>2</v>
+      </c>
+      <c r="I25" s="108">
+        <v>3</v>
+      </c>
+      <c r="J25" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="108">
+        <v>31</v>
+      </c>
+      <c r="B26" s="108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="108" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="108">
+        <v>17</v>
+      </c>
+      <c r="E26" s="108">
+        <v>2</v>
+      </c>
+      <c r="F26" s="108">
+        <v>1</v>
+      </c>
+      <c r="G26" s="108">
+        <v>2</v>
+      </c>
+      <c r="H26" s="108">
+        <v>2</v>
+      </c>
+      <c r="I26" s="108">
+        <v>2</v>
+      </c>
+      <c r="J26" s="108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="108">
+        <v>32</v>
+      </c>
+      <c r="B27" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="108" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" s="108">
+        <v>7</v>
+      </c>
+      <c r="E27" s="108">
+        <v>5</v>
+      </c>
+      <c r="F27" s="108">
+        <v>0</v>
+      </c>
+      <c r="G27" s="108">
+        <v>1</v>
+      </c>
+      <c r="H27" s="108">
+        <v>0</v>
+      </c>
+      <c r="I27" s="108">
+        <v>1</v>
+      </c>
+      <c r="J27" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="108">
+        <v>33</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="108" t="s">
+        <v>373</v>
+      </c>
+      <c r="D28" s="108">
+        <v>17</v>
+      </c>
+      <c r="E28" s="108">
+        <v>5</v>
+      </c>
+      <c r="F28" s="108">
+        <v>1</v>
+      </c>
+      <c r="G28" s="108">
+        <v>4</v>
+      </c>
+      <c r="H28" s="108">
+        <v>2</v>
+      </c>
+      <c r="I28" s="108">
+        <v>3</v>
+      </c>
+      <c r="J28" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="108">
+        <v>34</v>
+      </c>
+      <c r="B29" s="108" t="s">
+        <v>224</v>
+      </c>
+      <c r="C29" s="108" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="108">
+        <v>0</v>
+      </c>
+      <c r="E29" s="108">
+        <v>0</v>
+      </c>
+      <c r="F29" s="108">
+        <v>0</v>
+      </c>
+      <c r="G29" s="108">
+        <v>0</v>
+      </c>
+      <c r="H29" s="108">
+        <v>0</v>
+      </c>
+      <c r="I29" s="108">
+        <v>0</v>
+      </c>
+      <c r="J29" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="108">
+        <v>35</v>
+      </c>
+      <c r="B30" s="108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C30" s="108" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="108">
+        <v>0</v>
+      </c>
+      <c r="E30" s="108">
+        <v>0</v>
+      </c>
+      <c r="F30" s="108">
+        <v>0</v>
+      </c>
+      <c r="G30" s="108">
+        <v>0</v>
+      </c>
+      <c r="H30" s="108">
+        <v>0</v>
+      </c>
+      <c r="I30" s="108">
+        <v>0</v>
+      </c>
+      <c r="J30" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="108">
+        <v>36</v>
+      </c>
+      <c r="B31" s="108" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>376</v>
+      </c>
+      <c r="D31" s="108">
+        <v>1</v>
+      </c>
+      <c r="E31" s="108">
+        <v>0</v>
+      </c>
+      <c r="F31" s="108">
+        <v>0</v>
+      </c>
+      <c r="G31" s="108">
+        <v>0</v>
+      </c>
+      <c r="H31" s="108">
+        <v>0</v>
+      </c>
+      <c r="I31" s="108">
+        <v>0</v>
+      </c>
+      <c r="J31" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="108">
+        <v>37</v>
+      </c>
+      <c r="B32" s="108" t="s">
+        <v>231</v>
+      </c>
+      <c r="C32" s="108" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" s="108">
+        <v>14</v>
+      </c>
+      <c r="E32" s="108">
+        <v>3</v>
+      </c>
+      <c r="F32" s="108">
+        <v>0</v>
+      </c>
+      <c r="G32" s="108">
+        <v>1</v>
+      </c>
+      <c r="H32" s="108">
+        <v>4</v>
+      </c>
+      <c r="I32" s="108">
+        <v>3</v>
+      </c>
+      <c r="J32" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="108">
+        <v>38</v>
+      </c>
+      <c r="B33" s="108" t="s">
+        <v>232</v>
+      </c>
+      <c r="C33" s="108" t="s">
+        <v>378</v>
+      </c>
+      <c r="D33" s="108">
+        <v>2</v>
+      </c>
+      <c r="E33" s="108">
+        <v>1</v>
+      </c>
+      <c r="F33" s="108">
+        <v>0</v>
+      </c>
+      <c r="G33" s="108">
+        <v>0</v>
+      </c>
+      <c r="H33" s="108">
+        <v>0</v>
+      </c>
+      <c r="I33" s="108">
+        <v>1</v>
+      </c>
+      <c r="J33" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="108">
+        <v>39</v>
+      </c>
+      <c r="B34" s="108" t="s">
+        <v>379</v>
+      </c>
+      <c r="C34" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="D34" s="108">
+        <v>30</v>
+      </c>
+      <c r="E34" s="108">
+        <v>7</v>
+      </c>
+      <c r="F34" s="108">
+        <v>2</v>
+      </c>
+      <c r="G34" s="108">
+        <v>4</v>
+      </c>
+      <c r="H34" s="108">
+        <v>4</v>
+      </c>
+      <c r="I34" s="108">
+        <v>9</v>
+      </c>
+      <c r="J34" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="108">
+        <v>40</v>
+      </c>
+      <c r="B35" s="108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C35" s="108" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" s="108">
+        <v>9</v>
+      </c>
+      <c r="E35" s="108">
+        <v>0</v>
+      </c>
+      <c r="F35" s="108">
+        <v>0</v>
+      </c>
+      <c r="G35" s="108">
+        <v>0</v>
+      </c>
+      <c r="H35" s="108">
+        <v>1</v>
+      </c>
+      <c r="I35" s="108">
+        <v>3</v>
+      </c>
+      <c r="J35" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="108">
+        <v>41</v>
+      </c>
+      <c r="B36" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="108" t="s">
+        <v>366</v>
+      </c>
+      <c r="D36" s="108">
+        <v>20</v>
+      </c>
+      <c r="E36" s="108">
+        <v>0</v>
+      </c>
+      <c r="F36" s="108">
+        <v>0</v>
+      </c>
+      <c r="G36" s="108">
+        <v>4</v>
+      </c>
+      <c r="H36" s="108">
+        <v>6</v>
+      </c>
+      <c r="I36" s="108">
+        <v>5</v>
+      </c>
+      <c r="J36" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="108">
+        <v>42</v>
+      </c>
+      <c r="B37" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="108" t="s">
+        <v>382</v>
+      </c>
+      <c r="D37" s="108">
+        <v>6</v>
+      </c>
+      <c r="E37" s="108">
+        <v>3</v>
+      </c>
+      <c r="F37" s="108">
+        <v>0</v>
+      </c>
+      <c r="G37" s="108">
+        <v>1</v>
+      </c>
+      <c r="H37" s="108">
+        <v>0</v>
+      </c>
+      <c r="I37" s="108">
+        <v>1</v>
+      </c>
+      <c r="J37" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="108">
+        <v>43</v>
+      </c>
+      <c r="B38" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38" s="108" t="s">
+        <v>383</v>
+      </c>
+      <c r="D38" s="108">
+        <v>7</v>
+      </c>
+      <c r="E38" s="108">
+        <v>2</v>
+      </c>
+      <c r="F38" s="108">
+        <v>0</v>
+      </c>
+      <c r="G38" s="108">
+        <v>0</v>
+      </c>
+      <c r="H38" s="108">
+        <v>2</v>
+      </c>
+      <c r="I38" s="108">
+        <v>1</v>
+      </c>
+      <c r="J38" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="108">
+        <v>44</v>
+      </c>
+      <c r="B39" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="108" t="s">
+        <v>384</v>
+      </c>
+      <c r="D39" s="108">
+        <v>35</v>
+      </c>
+      <c r="E39" s="108">
+        <v>6</v>
+      </c>
+      <c r="F39" s="108">
+        <v>1</v>
+      </c>
+      <c r="G39" s="108">
+        <v>7</v>
+      </c>
+      <c r="H39" s="108">
+        <v>5</v>
+      </c>
+      <c r="I39" s="108">
+        <v>10</v>
+      </c>
+      <c r="J39" s="108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="108">
+        <v>45</v>
+      </c>
+      <c r="B40" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="108" t="s">
+        <v>385</v>
+      </c>
+      <c r="D40" s="108">
+        <v>20</v>
+      </c>
+      <c r="E40" s="108">
+        <v>9</v>
+      </c>
+      <c r="F40" s="108">
+        <v>6</v>
+      </c>
+      <c r="G40" s="108">
+        <v>1</v>
+      </c>
+      <c r="H40" s="108">
+        <v>0</v>
+      </c>
+      <c r="I40" s="108">
+        <v>4</v>
+      </c>
+      <c r="J40" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="108">
+        <v>46</v>
+      </c>
+      <c r="B41" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="108" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="108">
+        <v>6</v>
+      </c>
+      <c r="E41" s="108">
+        <v>3</v>
+      </c>
+      <c r="F41" s="108">
+        <v>0</v>
+      </c>
+      <c r="G41" s="108">
+        <v>2</v>
+      </c>
+      <c r="H41" s="108">
+        <v>1</v>
+      </c>
+      <c r="I41" s="108">
+        <v>0</v>
+      </c>
+      <c r="J41" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="108">
+        <v>47</v>
+      </c>
+      <c r="B42" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="108" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="108">
+        <v>10</v>
+      </c>
+      <c r="E42" s="108">
+        <v>4</v>
+      </c>
+      <c r="F42" s="108">
+        <v>0</v>
+      </c>
+      <c r="G42" s="108">
+        <v>2</v>
+      </c>
+      <c r="H42" s="108">
+        <v>2</v>
+      </c>
+      <c r="I42" s="108">
+        <v>2</v>
+      </c>
+      <c r="J42" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="108">
+        <v>48</v>
+      </c>
+      <c r="B43" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="108" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" s="108">
+        <v>18</v>
+      </c>
+      <c r="E43" s="108">
+        <v>3</v>
+      </c>
+      <c r="F43" s="108">
+        <v>0</v>
+      </c>
+      <c r="G43" s="108">
+        <v>0</v>
+      </c>
+      <c r="H43" s="108">
+        <v>4</v>
+      </c>
+      <c r="I43" s="108">
+        <v>9</v>
+      </c>
+      <c r="J43" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="108">
+        <v>101</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="108" t="s">
+        <v>388</v>
+      </c>
+      <c r="D44" s="108">
+        <v>5</v>
+      </c>
+      <c r="E44" s="108">
+        <v>3</v>
+      </c>
+      <c r="F44" s="108">
+        <v>0</v>
+      </c>
+      <c r="G44" s="108">
+        <v>2</v>
+      </c>
+      <c r="H44" s="108">
+        <v>0</v>
+      </c>
+      <c r="I44" s="108">
+        <v>0</v>
+      </c>
+      <c r="J44" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="108">
+        <v>102</v>
+      </c>
+      <c r="B45" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="108" t="s">
+        <v>382</v>
+      </c>
+      <c r="D45" s="108">
+        <v>7</v>
+      </c>
+      <c r="E45" s="108">
+        <v>4</v>
+      </c>
+      <c r="F45" s="108">
+        <v>0</v>
+      </c>
+      <c r="G45" s="108">
+        <v>1</v>
+      </c>
+      <c r="H45" s="108">
+        <v>0</v>
+      </c>
+      <c r="I45" s="108">
+        <v>2</v>
+      </c>
+      <c r="J45" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="108">
+        <v>103</v>
+      </c>
+      <c r="B46" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="108" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" s="108">
+        <v>6</v>
+      </c>
+      <c r="E46" s="108">
+        <v>2</v>
+      </c>
+      <c r="F46" s="108">
+        <v>0</v>
+      </c>
+      <c r="G46" s="108">
+        <v>2</v>
+      </c>
+      <c r="H46" s="108">
+        <v>1</v>
+      </c>
+      <c r="I46" s="108">
+        <v>0</v>
+      </c>
+      <c r="J46" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="108">
+        <v>104</v>
+      </c>
+      <c r="B47" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="108" t="s">
+        <v>390</v>
+      </c>
+      <c r="D47" s="108">
+        <v>9</v>
+      </c>
+      <c r="E47" s="108">
+        <v>1</v>
+      </c>
+      <c r="F47" s="108">
+        <v>0</v>
+      </c>
+      <c r="G47" s="108">
+        <v>0</v>
+      </c>
+      <c r="H47" s="108">
+        <v>2</v>
+      </c>
+      <c r="I47" s="108">
+        <v>2</v>
+      </c>
+      <c r="J47" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="108">
+        <v>105</v>
+      </c>
+      <c r="B48" s="108" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="108" t="s">
+        <v>391</v>
+      </c>
+      <c r="D48" s="108">
+        <v>28</v>
+      </c>
+      <c r="E48" s="108">
+        <v>8</v>
+      </c>
+      <c r="F48" s="108">
+        <v>0</v>
+      </c>
+      <c r="G48" s="108">
+        <v>1</v>
+      </c>
+      <c r="H48" s="108">
+        <v>4</v>
+      </c>
+      <c r="I48" s="108">
+        <v>8</v>
+      </c>
+      <c r="J48" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="108">
+        <v>106</v>
+      </c>
+      <c r="B49" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="108" t="s">
+        <v>392</v>
+      </c>
+      <c r="D49" s="108">
+        <v>24</v>
+      </c>
+      <c r="E49" s="108">
+        <v>6</v>
+      </c>
+      <c r="F49" s="108">
+        <v>1</v>
+      </c>
+      <c r="G49" s="108">
+        <v>4</v>
+      </c>
+      <c r="H49" s="108">
+        <v>3</v>
+      </c>
+      <c r="I49" s="108">
+        <v>5</v>
+      </c>
+      <c r="J49" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="108">
+        <v>107</v>
+      </c>
+      <c r="B50" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="108" t="s">
+        <v>362</v>
+      </c>
+      <c r="D50" s="108">
+        <v>11</v>
+      </c>
+      <c r="E50" s="108">
+        <v>1</v>
+      </c>
+      <c r="F50" s="108">
+        <v>0</v>
+      </c>
+      <c r="G50" s="108">
+        <v>1</v>
+      </c>
+      <c r="H50" s="108">
+        <v>6</v>
+      </c>
+      <c r="I50" s="108">
+        <v>2</v>
+      </c>
+      <c r="J50" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="108">
+        <v>108</v>
+      </c>
+      <c r="B51" s="108" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="108" t="s">
+        <v>393</v>
+      </c>
+      <c r="D51" s="108">
+        <v>12</v>
+      </c>
+      <c r="E51" s="108">
+        <v>1</v>
+      </c>
+      <c r="F51" s="108">
+        <v>0</v>
+      </c>
+      <c r="G51" s="108">
+        <v>3</v>
+      </c>
+      <c r="H51" s="108">
+        <v>1</v>
+      </c>
+      <c r="I51" s="108">
+        <v>7</v>
+      </c>
+      <c r="J51" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="108">
+        <v>109</v>
+      </c>
+      <c r="B52" s="108" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="108" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52" s="108">
+        <v>5</v>
+      </c>
+      <c r="E52" s="108">
+        <v>3</v>
+      </c>
+      <c r="F52" s="108">
+        <v>0</v>
+      </c>
+      <c r="G52" s="108">
+        <v>1</v>
+      </c>
+      <c r="H52" s="108">
+        <v>1</v>
+      </c>
+      <c r="I52" s="108">
+        <v>0</v>
+      </c>
+      <c r="J52" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="108">
+        <v>110</v>
+      </c>
+      <c r="B53" s="108" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="108" t="s">
+        <v>395</v>
+      </c>
+      <c r="D53" s="108">
+        <v>10</v>
+      </c>
+      <c r="E53" s="108">
+        <v>3</v>
+      </c>
+      <c r="F53" s="108">
+        <v>0</v>
+      </c>
+      <c r="G53" s="108">
+        <v>0</v>
+      </c>
+      <c r="H53" s="108">
+        <v>1</v>
+      </c>
+      <c r="I53" s="108">
+        <v>4</v>
+      </c>
+      <c r="J53" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="108">
+        <v>111</v>
+      </c>
+      <c r="B54" s="108" t="s">
+        <v>136</v>
+      </c>
+      <c r="C54" s="108" t="s">
+        <v>396</v>
+      </c>
+      <c r="D54" s="108">
+        <v>20</v>
+      </c>
+      <c r="E54" s="108">
+        <v>3</v>
+      </c>
+      <c r="F54" s="108">
+        <v>1</v>
+      </c>
+      <c r="G54" s="108">
+        <v>2</v>
+      </c>
+      <c r="H54" s="108">
+        <v>4</v>
+      </c>
+      <c r="I54" s="108">
+        <v>5</v>
+      </c>
+      <c r="J54" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="108">
+        <v>112</v>
+      </c>
+      <c r="B55" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="108" t="s">
+        <v>397</v>
+      </c>
+      <c r="D55" s="108">
+        <v>9</v>
+      </c>
+      <c r="E55" s="108">
+        <v>1</v>
+      </c>
+      <c r="F55" s="108">
+        <v>0</v>
+      </c>
+      <c r="G55" s="108">
+        <v>0</v>
+      </c>
+      <c r="H55" s="108">
+        <v>0</v>
+      </c>
+      <c r="I55" s="108">
+        <v>6</v>
+      </c>
+      <c r="J55" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="108">
+        <v>115</v>
+      </c>
+      <c r="B56" s="108" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="108" t="s">
+        <v>398</v>
+      </c>
+      <c r="D56" s="108">
+        <v>15</v>
+      </c>
+      <c r="E56" s="108">
+        <v>0</v>
+      </c>
+      <c r="F56" s="108">
+        <v>0</v>
+      </c>
+      <c r="G56" s="108">
+        <v>0</v>
+      </c>
+      <c r="H56" s="108">
+        <v>6</v>
+      </c>
+      <c r="I56" s="108">
+        <v>5</v>
+      </c>
+      <c r="J56" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="108">
+        <v>116</v>
+      </c>
+      <c r="B57" s="108" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="108" t="s">
+        <v>377</v>
+      </c>
+      <c r="D57" s="108">
+        <v>18</v>
+      </c>
+      <c r="E57" s="108">
+        <v>3</v>
+      </c>
+      <c r="F57" s="108">
+        <v>0</v>
+      </c>
+      <c r="G57" s="108">
+        <v>3</v>
+      </c>
+      <c r="H57" s="108">
+        <v>0</v>
+      </c>
+      <c r="I57" s="108">
+        <v>6</v>
+      </c>
+      <c r="J57" s="108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="108">
+        <v>117</v>
+      </c>
+      <c r="B58" s="108" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="108" t="s">
+        <v>399</v>
+      </c>
+      <c r="D58" s="108">
+        <v>22</v>
+      </c>
+      <c r="E58" s="108">
+        <v>3</v>
+      </c>
+      <c r="F58" s="108">
+        <v>0</v>
+      </c>
+      <c r="G58" s="108">
+        <v>3</v>
+      </c>
+      <c r="H58" s="108">
+        <v>5</v>
+      </c>
+      <c r="I58" s="108">
+        <v>6</v>
+      </c>
+      <c r="J58" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="108">
+        <v>118</v>
+      </c>
+      <c r="B59" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="108" t="s">
+        <v>400</v>
+      </c>
+      <c r="D59" s="108">
+        <v>16</v>
+      </c>
+      <c r="E59" s="108">
+        <v>5</v>
+      </c>
+      <c r="F59" s="108">
+        <v>0</v>
+      </c>
+      <c r="G59" s="108">
+        <v>2</v>
+      </c>
+      <c r="H59" s="108">
+        <v>2</v>
+      </c>
+      <c r="I59" s="108">
+        <v>5</v>
+      </c>
+      <c r="J59" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="108">
+        <v>119</v>
+      </c>
+      <c r="B60" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="108" t="s">
+        <v>401</v>
+      </c>
+      <c r="D60" s="108">
+        <v>6</v>
+      </c>
+      <c r="E60" s="108">
+        <v>0</v>
+      </c>
+      <c r="F60" s="108">
+        <v>0</v>
+      </c>
+      <c r="G60" s="108">
+        <v>0</v>
+      </c>
+      <c r="H60" s="108">
+        <v>4</v>
+      </c>
+      <c r="I60" s="108">
+        <v>1</v>
+      </c>
+      <c r="J60" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="108">
+        <v>120</v>
+      </c>
+      <c r="B61" s="108" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="108" t="s">
+        <v>402</v>
+      </c>
+      <c r="D61" s="108">
+        <v>9</v>
+      </c>
+      <c r="E61" s="108">
+        <v>3</v>
+      </c>
+      <c r="F61" s="108">
+        <v>0</v>
+      </c>
+      <c r="G61" s="108">
+        <v>4</v>
+      </c>
+      <c r="H61" s="108">
+        <v>0</v>
+      </c>
+      <c r="I61" s="108">
+        <v>1</v>
+      </c>
+      <c r="J61" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="108">
+        <v>121</v>
+      </c>
+      <c r="B62" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62" s="108" t="s">
+        <v>377</v>
+      </c>
+      <c r="D62" s="108">
+        <v>23</v>
+      </c>
+      <c r="E62" s="108">
+        <v>7</v>
+      </c>
+      <c r="F62" s="108">
+        <v>2</v>
+      </c>
+      <c r="G62" s="108">
+        <v>4</v>
+      </c>
+      <c r="H62" s="108">
+        <v>0</v>
+      </c>
+      <c r="I62" s="108">
+        <v>3</v>
+      </c>
+      <c r="J62" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="108">
+        <v>122</v>
+      </c>
+      <c r="B63" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="108" t="s">
+        <v>403</v>
+      </c>
+      <c r="D63" s="108">
+        <v>6</v>
+      </c>
+      <c r="E63" s="108">
+        <v>4</v>
+      </c>
+      <c r="F63" s="108">
+        <v>0</v>
+      </c>
+      <c r="G63" s="108">
+        <v>0</v>
+      </c>
+      <c r="H63" s="108">
+        <v>1</v>
+      </c>
+      <c r="I63" s="108">
+        <v>0</v>
+      </c>
+      <c r="J63" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="108">
+        <v>123</v>
+      </c>
+      <c r="B64" s="108" t="s">
+        <v>157</v>
+      </c>
+      <c r="C64" s="108" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="108">
+        <v>12</v>
+      </c>
+      <c r="E64" s="108">
+        <v>3</v>
+      </c>
+      <c r="F64" s="108">
+        <v>1</v>
+      </c>
+      <c r="G64" s="108">
+        <v>2</v>
+      </c>
+      <c r="H64" s="108">
+        <v>2</v>
+      </c>
+      <c r="I64" s="108">
+        <v>2</v>
+      </c>
+      <c r="J64" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="108">
+        <v>124</v>
+      </c>
+      <c r="B65" s="108" t="s">
+        <v>204</v>
+      </c>
+      <c r="C65" s="108" t="s">
+        <v>405</v>
+      </c>
+      <c r="D65" s="108">
+        <v>2</v>
+      </c>
+      <c r="E65" s="108">
+        <v>0</v>
+      </c>
+      <c r="F65" s="108">
+        <v>0</v>
+      </c>
+      <c r="G65" s="108">
+        <v>0</v>
+      </c>
+      <c r="H65" s="108">
+        <v>0</v>
+      </c>
+      <c r="I65" s="108">
+        <v>2</v>
+      </c>
+      <c r="J65" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="108">
+        <v>125</v>
+      </c>
+      <c r="B66" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="108" t="s">
+        <v>406</v>
+      </c>
+      <c r="D66" s="108">
+        <v>42</v>
+      </c>
+      <c r="E66" s="108">
+        <v>4</v>
+      </c>
+      <c r="F66" s="108">
+        <v>1</v>
+      </c>
+      <c r="G66" s="108">
+        <v>8</v>
+      </c>
+      <c r="H66" s="108">
+        <v>8</v>
+      </c>
+      <c r="I66" s="108">
+        <v>11</v>
+      </c>
+      <c r="J66" s="108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="108">
+        <v>126</v>
+      </c>
+      <c r="B67" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="108" t="s">
+        <v>359</v>
+      </c>
+      <c r="D67" s="108">
+        <v>5</v>
+      </c>
+      <c r="E67" s="108">
+        <v>0</v>
+      </c>
+      <c r="F67" s="108">
+        <v>0</v>
+      </c>
+      <c r="G67" s="108">
+        <v>0</v>
+      </c>
+      <c r="H67" s="108">
+        <v>0</v>
+      </c>
+      <c r="I67" s="108">
+        <v>2</v>
+      </c>
+      <c r="J67" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="108">
+        <v>127</v>
+      </c>
+      <c r="B68" s="108" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="108" t="s">
+        <v>407</v>
+      </c>
+      <c r="D68" s="108">
+        <v>4</v>
+      </c>
+      <c r="E68" s="108">
+        <v>1</v>
+      </c>
+      <c r="F68" s="108">
+        <v>0</v>
+      </c>
+      <c r="G68" s="108">
+        <v>2</v>
+      </c>
+      <c r="H68" s="108">
+        <v>0</v>
+      </c>
+      <c r="I68" s="108">
+        <v>1</v>
+      </c>
+      <c r="J68" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="108">
+        <v>128</v>
+      </c>
+      <c r="B69" s="108" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="108" t="s">
+        <v>408</v>
+      </c>
+      <c r="D69" s="108">
+        <v>13</v>
+      </c>
+      <c r="E69" s="108">
+        <v>4</v>
+      </c>
+      <c r="F69" s="108">
+        <v>0</v>
+      </c>
+      <c r="G69" s="108">
+        <v>3</v>
+      </c>
+      <c r="H69" s="108">
+        <v>1</v>
+      </c>
+      <c r="I69" s="108">
+        <v>2</v>
+      </c>
+      <c r="J69" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="108">
+        <v>129</v>
+      </c>
+      <c r="B70" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="108" t="s">
+        <v>409</v>
+      </c>
+      <c r="D70" s="108">
+        <v>0</v>
+      </c>
+      <c r="E70" s="108">
+        <v>0</v>
+      </c>
+      <c r="F70" s="108">
+        <v>0</v>
+      </c>
+      <c r="G70" s="108">
+        <v>0</v>
+      </c>
+      <c r="H70" s="108">
+        <v>0</v>
+      </c>
+      <c r="I70" s="108">
+        <v>0</v>
+      </c>
+      <c r="J70" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="108">
+        <v>201</v>
+      </c>
+      <c r="B71" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="108" t="s">
+        <v>410</v>
+      </c>
+      <c r="D71" s="108">
+        <v>21</v>
+      </c>
+      <c r="E71" s="108">
+        <v>5</v>
+      </c>
+      <c r="F71" s="108">
+        <v>0</v>
+      </c>
+      <c r="G71" s="108">
+        <v>5</v>
+      </c>
+      <c r="H71" s="108">
+        <v>2</v>
+      </c>
+      <c r="I71" s="108">
+        <v>2</v>
+      </c>
+      <c r="J71" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="108">
+        <v>202</v>
+      </c>
+      <c r="B72" s="108" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="108" t="s">
+        <v>411</v>
+      </c>
+      <c r="D72" s="108">
+        <v>35</v>
+      </c>
+      <c r="E72" s="108">
+        <v>12</v>
+      </c>
+      <c r="F72" s="108">
+        <v>8</v>
+      </c>
+      <c r="G72" s="108">
+        <v>3</v>
+      </c>
+      <c r="H72" s="108">
+        <v>6</v>
+      </c>
+      <c r="I72" s="108">
+        <v>2</v>
+      </c>
+      <c r="J72" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="108">
+        <v>203</v>
+      </c>
+      <c r="B73" s="108" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="108" t="s">
+        <v>412</v>
+      </c>
+      <c r="D73" s="108">
+        <v>3</v>
+      </c>
+      <c r="E73" s="108">
+        <v>1</v>
+      </c>
+      <c r="F73" s="108">
+        <v>0</v>
+      </c>
+      <c r="G73" s="108">
+        <v>0</v>
+      </c>
+      <c r="H73" s="108">
+        <v>1</v>
+      </c>
+      <c r="I73" s="108">
+        <v>1</v>
+      </c>
+      <c r="J73" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="108">
+        <v>204</v>
+      </c>
+      <c r="B74" s="108" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="108" t="s">
+        <v>413</v>
+      </c>
+      <c r="D74" s="108">
+        <v>27</v>
+      </c>
+      <c r="E74" s="108">
+        <v>5</v>
+      </c>
+      <c r="F74" s="108">
+        <v>0</v>
+      </c>
+      <c r="G74" s="108">
+        <v>4</v>
+      </c>
+      <c r="H74" s="108">
+        <v>2</v>
+      </c>
+      <c r="I74" s="108">
+        <v>9</v>
+      </c>
+      <c r="J74" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="108">
+        <v>205</v>
+      </c>
+      <c r="B75" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="108" t="s">
+        <v>414</v>
+      </c>
+      <c r="D75" s="108">
+        <v>26</v>
+      </c>
+      <c r="E75" s="108">
+        <v>6</v>
+      </c>
+      <c r="F75" s="108">
+        <v>0</v>
+      </c>
+      <c r="G75" s="108">
+        <v>2</v>
+      </c>
+      <c r="H75" s="108">
+        <v>7</v>
+      </c>
+      <c r="I75" s="108">
+        <v>7</v>
+      </c>
+      <c r="J75" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="108">
+        <v>206</v>
+      </c>
+      <c r="B76" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="108" t="s">
+        <v>415</v>
+      </c>
+      <c r="D76" s="108">
+        <v>8</v>
+      </c>
+      <c r="E76" s="108">
+        <v>7</v>
+      </c>
+      <c r="F76" s="108">
+        <v>0</v>
+      </c>
+      <c r="G76" s="108">
+        <v>1</v>
+      </c>
+      <c r="H76" s="108">
+        <v>0</v>
+      </c>
+      <c r="I76" s="108">
+        <v>0</v>
+      </c>
+      <c r="J76" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="108">
+        <v>207</v>
+      </c>
+      <c r="B77" s="108" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="108" t="s">
+        <v>416</v>
+      </c>
+      <c r="D77" s="108">
+        <v>36</v>
+      </c>
+      <c r="E77" s="108">
+        <v>9</v>
+      </c>
+      <c r="F77" s="108">
+        <v>0</v>
+      </c>
+      <c r="G77" s="108">
+        <v>7</v>
+      </c>
+      <c r="H77" s="108">
+        <v>4</v>
+      </c>
+      <c r="I77" s="108">
+        <v>9</v>
+      </c>
+      <c r="J77" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="108">
+        <v>208</v>
+      </c>
+      <c r="B78" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="C78" s="108" t="s">
+        <v>393</v>
+      </c>
+      <c r="D78" s="108">
+        <v>7</v>
+      </c>
+      <c r="E78" s="108">
+        <v>2</v>
+      </c>
+      <c r="F78" s="108">
+        <v>0</v>
+      </c>
+      <c r="G78" s="108">
+        <v>0</v>
+      </c>
+      <c r="H78" s="108">
+        <v>1</v>
+      </c>
+      <c r="I78" s="108">
+        <v>1</v>
+      </c>
+      <c r="J78" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="108">
+        <v>209</v>
+      </c>
+      <c r="B79" s="108" t="s">
+        <v>195</v>
+      </c>
+      <c r="C79" s="108" t="s">
+        <v>417</v>
+      </c>
+      <c r="D79" s="108">
+        <v>26</v>
+      </c>
+      <c r="E79" s="108">
+        <v>5</v>
+      </c>
+      <c r="F79" s="108">
+        <v>2</v>
+      </c>
+      <c r="G79" s="108">
+        <v>3</v>
+      </c>
+      <c r="H79" s="108">
+        <v>4</v>
+      </c>
+      <c r="I79" s="108">
+        <v>8</v>
+      </c>
+      <c r="J79" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="108">
+        <v>210</v>
+      </c>
+      <c r="B80" s="108" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="108" t="s">
+        <v>418</v>
+      </c>
+      <c r="D80" s="108">
+        <v>3</v>
+      </c>
+      <c r="E80" s="108">
+        <v>1</v>
+      </c>
+      <c r="F80" s="108">
+        <v>0</v>
+      </c>
+      <c r="G80" s="108">
+        <v>0</v>
+      </c>
+      <c r="H80" s="108">
+        <v>1</v>
+      </c>
+      <c r="I80" s="108">
+        <v>1</v>
+      </c>
+      <c r="J80" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="108">
+        <v>211</v>
+      </c>
+      <c r="B81" s="108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="108" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" s="108">
+        <v>2</v>
+      </c>
+      <c r="E81" s="108">
+        <v>2</v>
+      </c>
+      <c r="F81" s="108">
+        <v>0</v>
+      </c>
+      <c r="G81" s="108">
+        <v>0</v>
+      </c>
+      <c r="H81" s="108">
+        <v>0</v>
+      </c>
+      <c r="I81" s="108">
+        <v>0</v>
+      </c>
+      <c r="J81" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="108">
+        <v>212</v>
+      </c>
+      <c r="B82" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="108" t="s">
+        <v>419</v>
+      </c>
+      <c r="D82" s="108">
+        <v>4</v>
+      </c>
+      <c r="E82" s="108">
+        <v>1</v>
+      </c>
+      <c r="F82" s="108">
+        <v>0</v>
+      </c>
+      <c r="G82" s="108">
+        <v>3</v>
+      </c>
+      <c r="H82" s="108">
+        <v>0</v>
+      </c>
+      <c r="I82" s="108">
+        <v>0</v>
+      </c>
+      <c r="J82" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="108">
+        <v>213</v>
+      </c>
+      <c r="B83" s="108" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" s="108" t="s">
+        <v>420</v>
+      </c>
+      <c r="D83" s="108">
+        <v>18</v>
+      </c>
+      <c r="E83" s="108">
+        <v>5</v>
+      </c>
+      <c r="F83" s="108">
+        <v>0</v>
+      </c>
+      <c r="G83" s="108">
+        <v>0</v>
+      </c>
+      <c r="H83" s="108">
+        <v>0</v>
+      </c>
+      <c r="I83" s="108">
+        <v>6</v>
+      </c>
+      <c r="J83" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="108">
+        <v>214</v>
+      </c>
+      <c r="B84" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="C84" s="108" t="s">
+        <v>421</v>
+      </c>
+      <c r="D84" s="108">
+        <v>0</v>
+      </c>
+      <c r="E84" s="108">
+        <v>0</v>
+      </c>
+      <c r="F84" s="108">
+        <v>0</v>
+      </c>
+      <c r="G84" s="108">
+        <v>0</v>
+      </c>
+      <c r="H84" s="108">
+        <v>0</v>
+      </c>
+      <c r="I84" s="108">
+        <v>0</v>
+      </c>
+      <c r="J84" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="108">
+        <v>215</v>
+      </c>
+      <c r="B85" s="108" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="108" t="s">
+        <v>422</v>
+      </c>
+      <c r="D85" s="108">
+        <v>13</v>
+      </c>
+      <c r="E85" s="108">
+        <v>4</v>
+      </c>
+      <c r="F85" s="108">
+        <v>0</v>
+      </c>
+      <c r="G85" s="108">
+        <v>2</v>
+      </c>
+      <c r="H85" s="108">
+        <v>1</v>
+      </c>
+      <c r="I85" s="108">
+        <v>2</v>
+      </c>
+      <c r="J85" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="108">
+        <v>216</v>
+      </c>
+      <c r="B86" s="108" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="108" t="s">
+        <v>423</v>
+      </c>
+      <c r="D86" s="108">
+        <v>12</v>
+      </c>
+      <c r="E86" s="108">
+        <v>2</v>
+      </c>
+      <c r="F86" s="108">
+        <v>1</v>
+      </c>
+      <c r="G86" s="108">
+        <v>1</v>
+      </c>
+      <c r="H86" s="108">
+        <v>2</v>
+      </c>
+      <c r="I86" s="108">
+        <v>3</v>
+      </c>
+      <c r="J86" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="108">
+        <v>217</v>
+      </c>
+      <c r="B87" s="108" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="108" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="108">
+        <v>12</v>
+      </c>
+      <c r="E87" s="108">
+        <v>3</v>
+      </c>
+      <c r="F87" s="108">
+        <v>0</v>
+      </c>
+      <c r="G87" s="108">
+        <v>2</v>
+      </c>
+      <c r="H87" s="108">
+        <v>2</v>
+      </c>
+      <c r="I87" s="108">
+        <v>2</v>
+      </c>
+      <c r="J87" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="108">
+        <v>218</v>
+      </c>
+      <c r="B88" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" s="108" t="s">
+        <v>425</v>
+      </c>
+      <c r="D88" s="108">
+        <v>29</v>
+      </c>
+      <c r="E88" s="108">
+        <v>7</v>
+      </c>
+      <c r="F88" s="108">
+        <v>0</v>
+      </c>
+      <c r="G88" s="108">
+        <v>5</v>
+      </c>
+      <c r="H88" s="108">
+        <v>8</v>
+      </c>
+      <c r="I88" s="108">
+        <v>4</v>
+      </c>
+      <c r="J88" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="108">
+        <v>219</v>
+      </c>
+      <c r="B89" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="108" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="108">
+        <v>6</v>
+      </c>
+      <c r="E89" s="108">
+        <v>4</v>
+      </c>
+      <c r="F89" s="108">
+        <v>0</v>
+      </c>
+      <c r="G89" s="108">
+        <v>1</v>
+      </c>
+      <c r="H89" s="108">
+        <v>0</v>
+      </c>
+      <c r="I89" s="108">
+        <v>1</v>
+      </c>
+      <c r="J89" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="108">
+        <v>220</v>
+      </c>
+      <c r="B90" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="C90" s="108" t="s">
+        <v>426</v>
+      </c>
+      <c r="D90" s="108">
+        <v>6</v>
+      </c>
+      <c r="E90" s="108">
+        <v>5</v>
+      </c>
+      <c r="F90" s="108">
+        <v>0</v>
+      </c>
+      <c r="G90" s="108">
+        <v>0</v>
+      </c>
+      <c r="H90" s="108">
+        <v>0</v>
+      </c>
+      <c r="I90" s="108">
+        <v>0</v>
+      </c>
+      <c r="J90" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="108">
+        <v>221</v>
+      </c>
+      <c r="B91" s="108" t="s">
+        <v>191</v>
+      </c>
+      <c r="C91" s="108" t="s">
+        <v>427</v>
+      </c>
+      <c r="D91" s="108">
+        <v>34</v>
+      </c>
+      <c r="E91" s="108">
+        <v>7</v>
+      </c>
+      <c r="F91" s="108">
+        <v>1</v>
+      </c>
+      <c r="G91" s="108">
+        <v>4</v>
+      </c>
+      <c r="H91" s="108">
+        <v>4</v>
+      </c>
+      <c r="I91" s="108">
+        <v>7</v>
+      </c>
+      <c r="J91" s="108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="108">
+        <v>301</v>
+      </c>
+      <c r="B92" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="D92" s="108">
+        <v>12</v>
+      </c>
+      <c r="E92" s="108">
+        <v>2</v>
+      </c>
+      <c r="F92" s="108">
+        <v>0</v>
+      </c>
+      <c r="G92" s="108">
+        <v>2</v>
+      </c>
+      <c r="H92" s="108">
+        <v>1</v>
+      </c>
+      <c r="I92" s="108">
+        <v>0</v>
+      </c>
+      <c r="J92" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="108">
+        <v>302</v>
+      </c>
+      <c r="B93" s="108" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="108" t="s">
+        <v>429</v>
+      </c>
+      <c r="D93" s="108">
+        <v>15</v>
+      </c>
+      <c r="E93" s="108">
+        <v>1</v>
+      </c>
+      <c r="F93" s="108">
+        <v>0</v>
+      </c>
+      <c r="G93" s="108">
+        <v>3</v>
+      </c>
+      <c r="H93" s="108">
+        <v>1</v>
+      </c>
+      <c r="I93" s="108">
+        <v>3</v>
+      </c>
+      <c r="J93" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="108">
+        <v>303</v>
+      </c>
+      <c r="B94" s="108" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="108" t="s">
+        <v>430</v>
+      </c>
+      <c r="D94" s="108">
+        <v>10</v>
+      </c>
+      <c r="E94" s="108">
+        <v>4</v>
+      </c>
+      <c r="F94" s="108">
+        <v>0</v>
+      </c>
+      <c r="G94" s="108">
+        <v>1</v>
+      </c>
+      <c r="H94" s="108">
+        <v>2</v>
+      </c>
+      <c r="I94" s="108">
+        <v>2</v>
+      </c>
+      <c r="J94" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="108">
+        <v>304</v>
+      </c>
+      <c r="B95" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="C95" s="108" t="s">
+        <v>431</v>
+      </c>
+      <c r="D95" s="108">
+        <v>58</v>
+      </c>
+      <c r="E95" s="108">
+        <v>7</v>
+      </c>
+      <c r="F95" s="108">
+        <v>6</v>
+      </c>
+      <c r="G95" s="108">
+        <v>13</v>
+      </c>
+      <c r="H95" s="108">
+        <v>9</v>
+      </c>
+      <c r="I95" s="108">
+        <v>16</v>
+      </c>
+      <c r="J95" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="108">
+        <v>305</v>
+      </c>
+      <c r="B96" s="108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C96" s="108" t="s">
+        <v>432</v>
+      </c>
+      <c r="D96" s="108">
+        <v>3</v>
+      </c>
+      <c r="E96" s="108">
+        <v>2</v>
+      </c>
+      <c r="F96" s="108">
+        <v>0</v>
+      </c>
+      <c r="G96" s="108">
+        <v>0</v>
+      </c>
+      <c r="H96" s="108">
+        <v>0</v>
+      </c>
+      <c r="I96" s="108">
+        <v>1</v>
+      </c>
+      <c r="J96" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="108">
+        <v>306</v>
+      </c>
+      <c r="B97" s="108" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="D97" s="108">
+        <v>29</v>
+      </c>
+      <c r="E97" s="108">
+        <v>8</v>
+      </c>
+      <c r="F97" s="108">
+        <v>1</v>
+      </c>
+      <c r="G97" s="108">
+        <v>4</v>
+      </c>
+      <c r="H97" s="108">
+        <v>1</v>
+      </c>
+      <c r="I97" s="108">
+        <v>8</v>
+      </c>
+      <c r="J97" s="108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="108">
+        <v>307</v>
+      </c>
+      <c r="B98" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="C98" s="108" t="s">
+        <v>360</v>
+      </c>
+      <c r="D98" s="108">
+        <v>2</v>
+      </c>
+      <c r="E98" s="108">
+        <v>0</v>
+      </c>
+      <c r="F98" s="108">
+        <v>0</v>
+      </c>
+      <c r="G98" s="108">
+        <v>0</v>
+      </c>
+      <c r="H98" s="108">
+        <v>0</v>
+      </c>
+      <c r="I98" s="108">
+        <v>1</v>
+      </c>
+      <c r="J98" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="108">
+        <v>309</v>
+      </c>
+      <c r="B99" s="108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="108" t="s">
+        <v>434</v>
+      </c>
+      <c r="D99" s="108">
+        <v>10</v>
+      </c>
+      <c r="E99" s="108">
+        <v>0</v>
+      </c>
+      <c r="F99" s="108">
+        <v>0</v>
+      </c>
+      <c r="G99" s="108">
+        <v>3</v>
+      </c>
+      <c r="H99" s="108">
+        <v>5</v>
+      </c>
+      <c r="I99" s="108">
+        <v>2</v>
+      </c>
+      <c r="J99" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="108">
+        <v>310</v>
+      </c>
+      <c r="B100" s="108" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" s="108" t="s">
+        <v>435</v>
+      </c>
+      <c r="D100" s="108">
+        <v>10</v>
+      </c>
+      <c r="E100" s="108">
+        <v>4</v>
+      </c>
+      <c r="F100" s="108">
+        <v>0</v>
+      </c>
+      <c r="G100" s="108">
+        <v>1</v>
+      </c>
+      <c r="H100" s="108">
+        <v>2</v>
+      </c>
+      <c r="I100" s="108">
+        <v>1</v>
+      </c>
+      <c r="J100" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="108">
+        <v>311</v>
+      </c>
+      <c r="B101" s="108" t="s">
+        <v>187</v>
+      </c>
+      <c r="C101" s="108" t="s">
+        <v>436</v>
+      </c>
+      <c r="D101" s="108">
+        <v>10</v>
+      </c>
+      <c r="E101" s="108">
+        <v>3</v>
+      </c>
+      <c r="F101" s="108">
+        <v>0</v>
+      </c>
+      <c r="G101" s="108">
+        <v>0</v>
+      </c>
+      <c r="H101" s="108">
+        <v>2</v>
+      </c>
+      <c r="I101" s="108">
+        <v>2</v>
+      </c>
+      <c r="J101" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="108">
+        <v>312</v>
+      </c>
+      <c r="B102" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="108" t="s">
+        <v>437</v>
+      </c>
+      <c r="D102" s="108">
+        <v>2</v>
+      </c>
+      <c r="E102" s="108">
+        <v>1</v>
+      </c>
+      <c r="F102" s="108">
+        <v>0</v>
+      </c>
+      <c r="G102" s="108">
+        <v>0</v>
+      </c>
+      <c r="H102" s="108">
+        <v>0</v>
+      </c>
+      <c r="I102" s="108">
+        <v>0</v>
+      </c>
+      <c r="J102" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="108">
+        <v>313</v>
+      </c>
+      <c r="B103" s="108" t="s">
+        <v>196</v>
+      </c>
+      <c r="C103" s="108" t="s">
+        <v>408</v>
+      </c>
+      <c r="D103" s="108">
+        <v>2</v>
+      </c>
+      <c r="E103" s="108">
+        <v>0</v>
+      </c>
+      <c r="F103" s="108">
+        <v>0</v>
+      </c>
+      <c r="G103" s="108">
+        <v>0</v>
+      </c>
+      <c r="H103" s="108">
+        <v>0</v>
+      </c>
+      <c r="I103" s="108">
+        <v>2</v>
+      </c>
+      <c r="J103" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="108">
+        <v>314</v>
+      </c>
+      <c r="B104" s="108" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="108" t="s">
+        <v>438</v>
+      </c>
+      <c r="D104" s="108">
+        <v>6</v>
+      </c>
+      <c r="E104" s="108">
+        <v>1</v>
+      </c>
+      <c r="F104" s="108">
+        <v>0</v>
+      </c>
+      <c r="G104" s="108">
+        <v>0</v>
+      </c>
+      <c r="H104" s="108">
+        <v>3</v>
+      </c>
+      <c r="I104" s="108">
+        <v>1</v>
+      </c>
+      <c r="J104" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="108">
+        <v>315</v>
+      </c>
+      <c r="B105" s="108" t="s">
+        <v>198</v>
+      </c>
+      <c r="C105" s="108" t="s">
+        <v>439</v>
+      </c>
+      <c r="D105" s="108">
+        <v>14</v>
+      </c>
+      <c r="E105" s="108">
+        <v>2</v>
+      </c>
+      <c r="F105" s="108">
+        <v>1</v>
+      </c>
+      <c r="G105" s="108">
+        <v>1</v>
+      </c>
+      <c r="H105" s="108">
+        <v>2</v>
+      </c>
+      <c r="I105" s="108">
+        <v>5</v>
+      </c>
+      <c r="J105" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="108">
+        <v>998</v>
+      </c>
+      <c r="B106" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="108" t="s">
+        <v>380</v>
+      </c>
+      <c r="D106" s="108">
+        <v>20</v>
+      </c>
+      <c r="E106" s="108">
+        <v>2</v>
+      </c>
+      <c r="F106" s="108">
+        <v>0</v>
+      </c>
+      <c r="G106" s="108">
+        <v>5</v>
+      </c>
+      <c r="H106" s="108">
+        <v>5</v>
+      </c>
+      <c r="I106" s="108">
+        <v>3</v>
+      </c>
+      <c r="J106" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="108">
+        <v>999</v>
+      </c>
+      <c r="B107" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="108" t="s">
+        <v>440</v>
+      </c>
+      <c r="D107" s="108">
+        <v>5</v>
+      </c>
+      <c r="E107" s="108">
+        <v>2</v>
+      </c>
+      <c r="F107" s="108">
+        <v>0</v>
+      </c>
+      <c r="G107" s="108">
+        <v>1</v>
+      </c>
+      <c r="H107" s="108">
+        <v>0</v>
+      </c>
+      <c r="I107" s="108">
+        <v>1</v>
+      </c>
+      <c r="J107" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="108" t="s">
+        <v>254</v>
+      </c>
+      <c r="B108" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="C108" s="108" t="s">
+        <v>441</v>
+      </c>
+      <c r="D108" s="108">
+        <v>21</v>
+      </c>
+      <c r="E108" s="108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="108">
+        <v>5</v>
+      </c>
+      <c r="G108" s="108">
+        <v>3</v>
+      </c>
+      <c r="H108" s="108">
+        <v>2</v>
+      </c>
+      <c r="I108" s="108">
+        <v>6</v>
+      </c>
+      <c r="J108" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="108">
+        <v>114</v>
+      </c>
+      <c r="B109" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="C109" s="108" t="s">
+        <v>442</v>
+      </c>
+      <c r="D109" s="108">
+        <v>15</v>
+      </c>
+      <c r="E109" s="108">
+        <v>4</v>
+      </c>
+      <c r="F109" s="108">
+        <v>0</v>
+      </c>
+      <c r="G109" s="108">
+        <v>3</v>
+      </c>
+      <c r="H109" s="108">
+        <v>2</v>
+      </c>
+      <c r="I109" s="108">
+        <v>3</v>
+      </c>
+      <c r="J109" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="B110" s="108" t="s">
+        <v>209</v>
+      </c>
+      <c r="C110" s="108" t="s">
+        <v>378</v>
+      </c>
+      <c r="D110" s="108">
+        <v>37</v>
+      </c>
+      <c r="E110" s="108">
+        <v>4</v>
+      </c>
+      <c r="F110" s="108">
+        <v>0</v>
+      </c>
+      <c r="G110" s="108">
+        <v>6</v>
+      </c>
+      <c r="H110" s="108">
+        <v>9</v>
+      </c>
+      <c r="I110" s="108">
+        <v>13</v>
+      </c>
+      <c r="J110" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="108" t="s">
+        <v>210</v>
+      </c>
+      <c r="B111" s="108" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="108" t="s">
+        <v>402</v>
+      </c>
+      <c r="D111" s="108">
+        <v>11</v>
+      </c>
+      <c r="E111" s="108">
+        <v>3</v>
+      </c>
+      <c r="F111" s="108">
+        <v>0</v>
+      </c>
+      <c r="G111" s="108">
+        <v>1</v>
+      </c>
+      <c r="H111" s="108">
+        <v>1</v>
+      </c>
+      <c r="I111" s="108">
+        <v>1</v>
+      </c>
+      <c r="J111" s="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="108" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="D112" s="108">
+        <v>7</v>
+      </c>
+      <c r="E112" s="108">
+        <v>1</v>
+      </c>
+      <c r="F112" s="108">
+        <v>0</v>
+      </c>
+      <c r="G112" s="108">
+        <v>0</v>
+      </c>
+      <c r="H112" s="108">
+        <v>2</v>
+      </c>
+      <c r="I112" s="108">
+        <v>1</v>
+      </c>
+      <c r="J112" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="B113" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="D113" s="108">
+        <v>8</v>
+      </c>
+      <c r="E113" s="108">
+        <v>5</v>
+      </c>
+      <c r="F113" s="108">
+        <v>0</v>
+      </c>
+      <c r="G113" s="108">
+        <v>0</v>
+      </c>
+      <c r="H113" s="108">
+        <v>2</v>
+      </c>
+      <c r="I113" s="108">
+        <v>1</v>
+      </c>
+      <c r="J113" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="108" t="s">
+        <v>283</v>
+      </c>
+      <c r="B114" s="108" t="s">
+        <v>100</v>
+      </c>
+      <c r="C114" s="108" t="s">
+        <v>445</v>
+      </c>
+      <c r="D114" s="108">
+        <v>29</v>
+      </c>
+      <c r="E114" s="108">
+        <v>7</v>
+      </c>
+      <c r="F114" s="108">
+        <v>4</v>
+      </c>
+      <c r="G114" s="108">
+        <v>6</v>
+      </c>
+      <c r="H114" s="108">
+        <v>3</v>
+      </c>
+      <c r="I114" s="108">
+        <v>5</v>
+      </c>
+      <c r="J114" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="108" t="s">
+        <v>446</v>
+      </c>
+      <c r="D115" s="108">
+        <v>19</v>
+      </c>
+      <c r="E115" s="108">
+        <v>4</v>
+      </c>
+      <c r="F115" s="108">
+        <v>0</v>
+      </c>
+      <c r="G115" s="108">
+        <v>5</v>
+      </c>
+      <c r="H115" s="108">
+        <v>3</v>
+      </c>
+      <c r="I115" s="108">
+        <v>5</v>
+      </c>
+      <c r="J115" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B116" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="C116" s="108" t="s">
+        <v>447</v>
+      </c>
+      <c r="D116" s="108">
+        <v>17</v>
+      </c>
+      <c r="E116" s="108">
+        <v>6</v>
+      </c>
+      <c r="F116" s="108">
+        <v>1</v>
+      </c>
+      <c r="G116" s="108">
+        <v>6</v>
+      </c>
+      <c r="H116" s="108">
+        <v>0</v>
+      </c>
+      <c r="I116" s="108">
+        <v>3</v>
+      </c>
+      <c r="J116" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="108" t="s">
+        <v>448</v>
+      </c>
+      <c r="D117" s="108">
+        <v>10</v>
+      </c>
+      <c r="E117" s="108">
+        <v>1</v>
+      </c>
+      <c r="F117" s="108">
+        <v>0</v>
+      </c>
+      <c r="G117" s="108">
+        <v>2</v>
+      </c>
+      <c r="H117" s="108">
+        <v>2</v>
+      </c>
+      <c r="I117" s="108">
+        <v>3</v>
+      </c>
+      <c r="J117" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="B118" s="108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C118" s="108" t="s">
+        <v>449</v>
+      </c>
+      <c r="D118" s="108">
+        <v>9</v>
+      </c>
+      <c r="E118" s="108">
+        <v>2</v>
+      </c>
+      <c r="F118" s="108">
+        <v>0</v>
+      </c>
+      <c r="G118" s="108">
+        <v>2</v>
+      </c>
+      <c r="H118" s="108">
+        <v>1</v>
+      </c>
+      <c r="I118" s="108">
+        <v>2</v>
+      </c>
+      <c r="J118" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="B119" s="108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C119" s="108" t="s">
+        <v>450</v>
+      </c>
+      <c r="D119" s="108">
+        <v>3</v>
+      </c>
+      <c r="E119" s="108">
+        <v>1</v>
+      </c>
+      <c r="F119" s="108">
+        <v>0</v>
+      </c>
+      <c r="G119" s="108">
+        <v>0</v>
+      </c>
+      <c r="H119" s="108">
+        <v>1</v>
+      </c>
+      <c r="I119" s="108">
+        <v>1</v>
+      </c>
+      <c r="J119" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="108" t="s">
+        <v>127</v>
+      </c>
+      <c r="B120" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120" s="108" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" s="108">
+        <v>11</v>
+      </c>
+      <c r="E120" s="108">
+        <v>4</v>
+      </c>
+      <c r="F120" s="108">
+        <v>0</v>
+      </c>
+      <c r="G120" s="108">
+        <v>1</v>
+      </c>
+      <c r="H120" s="108">
+        <v>1</v>
+      </c>
+      <c r="I120" s="108">
+        <v>1</v>
+      </c>
+      <c r="J120" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="C121" s="108" t="s">
+        <v>451</v>
+      </c>
+      <c r="D121" s="108">
+        <v>30</v>
+      </c>
+      <c r="E121" s="108">
+        <v>4</v>
+      </c>
+      <c r="F121" s="108">
+        <v>0</v>
+      </c>
+      <c r="G121" s="108">
+        <v>9</v>
+      </c>
+      <c r="H121" s="108">
+        <v>4</v>
+      </c>
+      <c r="I121" s="108">
+        <v>11</v>
+      </c>
+      <c r="J121" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="108" t="s">
+        <v>452</v>
+      </c>
+      <c r="B122" s="108" t="s">
+        <v>132</v>
+      </c>
+      <c r="C122" s="108" t="s">
+        <v>453</v>
+      </c>
+      <c r="D122" s="108">
+        <v>6</v>
+      </c>
+      <c r="E122" s="108">
+        <v>0</v>
+      </c>
+      <c r="F122" s="108">
+        <v>0</v>
+      </c>
+      <c r="G122" s="108">
+        <v>2</v>
+      </c>
+      <c r="H122" s="108">
+        <v>1</v>
+      </c>
+      <c r="I122" s="108">
+        <v>1</v>
+      </c>
+      <c r="J122" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="108" t="s">
+        <v>454</v>
+      </c>
+      <c r="D123" s="108">
+        <v>18</v>
+      </c>
+      <c r="E123" s="108">
+        <v>5</v>
+      </c>
+      <c r="F123" s="108">
+        <v>2</v>
+      </c>
+      <c r="G123" s="108">
+        <v>1</v>
+      </c>
+      <c r="H123" s="108">
+        <v>3</v>
+      </c>
+      <c r="I123" s="108">
+        <v>4</v>
+      </c>
+      <c r="J123" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="108" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C124" s="108" t="s">
+        <v>455</v>
+      </c>
+      <c r="D124" s="108">
+        <v>16</v>
+      </c>
+      <c r="E124" s="108">
+        <v>7</v>
+      </c>
+      <c r="F124" s="108">
+        <v>0</v>
+      </c>
+      <c r="G124" s="108">
+        <v>2</v>
+      </c>
+      <c r="H124" s="108">
+        <v>1</v>
+      </c>
+      <c r="I124" s="108">
+        <v>4</v>
+      </c>
+      <c r="J124" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="108" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" s="108" t="s">
+        <v>155</v>
+      </c>
+      <c r="C125" s="108" t="s">
+        <v>456</v>
+      </c>
+      <c r="D125" s="108">
+        <v>29</v>
+      </c>
+      <c r="E125" s="108">
+        <v>5</v>
+      </c>
+      <c r="F125" s="108">
+        <v>0</v>
+      </c>
+      <c r="G125" s="108">
+        <v>8</v>
+      </c>
+      <c r="H125" s="108">
+        <v>5</v>
+      </c>
+      <c r="I125" s="108">
+        <v>7</v>
+      </c>
+      <c r="J125" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="108" t="s">
+        <v>242</v>
+      </c>
+      <c r="B126" s="108" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" s="108" t="s">
+        <v>457</v>
+      </c>
+      <c r="D126" s="108">
+        <v>4</v>
+      </c>
+      <c r="E126" s="108">
+        <v>3</v>
+      </c>
+      <c r="F126" s="108">
+        <v>0</v>
+      </c>
+      <c r="G126" s="108">
+        <v>0</v>
+      </c>
+      <c r="H126" s="108">
+        <v>0</v>
+      </c>
+      <c r="I126" s="108">
+        <v>0</v>
+      </c>
+      <c r="J126" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="108" t="s">
+        <v>163</v>
+      </c>
+      <c r="B127" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="C127" s="108" t="s">
+        <v>458</v>
+      </c>
+      <c r="D127" s="108">
+        <v>14</v>
+      </c>
+      <c r="E127" s="108">
+        <v>6</v>
+      </c>
+      <c r="F127" s="108">
+        <v>1</v>
+      </c>
+      <c r="G127" s="108">
+        <v>4</v>
+      </c>
+      <c r="H127" s="108">
+        <v>0</v>
+      </c>
+      <c r="I127" s="108">
+        <v>2</v>
+      </c>
+      <c r="J127" s="108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="108" t="s">
+        <v>459</v>
+      </c>
+      <c r="B128" s="108" t="s">
+        <v>227</v>
+      </c>
+      <c r="C128" s="108" t="s">
+        <v>460</v>
+      </c>
+      <c r="D128" s="108">
+        <v>0</v>
+      </c>
+      <c r="E128" s="108">
+        <v>0</v>
+      </c>
+      <c r="F128" s="108">
+        <v>0</v>
+      </c>
+      <c r="G128" s="108">
+        <v>0</v>
+      </c>
+      <c r="H128" s="108">
+        <v>0</v>
+      </c>
+      <c r="I128" s="108">
+        <v>0</v>
+      </c>
+      <c r="J128" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="108" t="s">
+        <v>461</v>
+      </c>
+      <c r="B129" s="108" t="s">
+        <v>305</v>
+      </c>
+      <c r="C129" s="108" t="s">
+        <v>462</v>
+      </c>
+      <c r="D129" s="108">
+        <v>4</v>
+      </c>
+      <c r="E129" s="108">
+        <v>0</v>
+      </c>
+      <c r="F129" s="108">
+        <v>0</v>
+      </c>
+      <c r="G129" s="108">
+        <v>1</v>
+      </c>
+      <c r="H129" s="108">
+        <v>0</v>
+      </c>
+      <c r="I129" s="108">
+        <v>0</v>
+      </c>
+      <c r="J129" s="108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="108" t="s">
+        <v>463</v>
+      </c>
+      <c r="B130" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="108" t="s">
+        <v>464</v>
+      </c>
+      <c r="D130" s="108">
+        <v>7</v>
+      </c>
+      <c r="E130" s="108">
+        <v>6</v>
+      </c>
+      <c r="F130" s="108">
+        <v>0</v>
+      </c>
+      <c r="G130" s="108">
+        <v>1</v>
+      </c>
+      <c r="H130" s="108">
+        <v>0</v>
+      </c>
+      <c r="I130" s="108">
+        <v>0</v>
+      </c>
+      <c r="J130" s="108">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>